--- a/Algo_Develop.xlsx
+++ b/Algo_Develop.xlsx
@@ -1,31 +1,242 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_r\EA\ETMO\MTO-cec2021-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14C87C4-C436-44BB-9F14-9426C52E930D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2115" yWindow="1065" windowWidth="15795" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="61">
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>T28</t>
+  </si>
+  <si>
+    <t>T29</t>
+  </si>
+  <si>
+    <t>T30</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>T31</t>
+  </si>
+  <si>
+    <t>T32</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>T34</t>
+  </si>
+  <si>
+    <t>T35</t>
+  </si>
+  <si>
+    <t>T36</t>
+  </si>
+  <si>
+    <t>T37</t>
+  </si>
+  <si>
+    <t>T38</t>
+  </si>
+  <si>
+    <t>T39</t>
+  </si>
+  <si>
+    <t>T40</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>T41</t>
+  </si>
+  <si>
+    <t>T42</t>
+  </si>
+  <si>
+    <t>T43</t>
+  </si>
+  <si>
+    <t>T44</t>
+  </si>
+  <si>
+    <t>T45</t>
+  </si>
+  <si>
+    <t>T46</t>
+  </si>
+  <si>
+    <t>T47</t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>T49</t>
+  </si>
+  <si>
+    <t>T50</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>MaOEAC, 5, 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +260,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +542,1676 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.1299999999999999E-3</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.6700000000000001E-3</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2.6199999999999999E-3</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5.3200000000000001E-3</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.63E-3</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.28E-3</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4499999999999999E-3</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.8100000000000001E-3</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.4900000000000001E-3</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.66E-2</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.0800000000000003E-3</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.4900000000000001E-3</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.5300000000000001E-3</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.47E-2</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.9299999999999999E-3</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.8600000000000001E-3</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.2700000000000001E-3</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1">
+        <v>9.7900000000000005E-4</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="1">
+        <v>9.9700000000000006E-4</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.5500000000000002E-3</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="1">
+        <v>9.5100000000000002E-4</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1">
+        <v>6.8800000000000003E-4</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1.47E-3</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6.8599999999999998E-4</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.29E-2</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.31E-3</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1.08E-3</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4.6900000000000002E-4</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.16E-3</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1.6199999999999999E-3</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4.7699999999999999E-4</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2.96E-3</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2.19</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1.31E-3</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4.7199999999999998E-4</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="1">
+        <v>3.14</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.3699999999999999E-3</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.1299999999999999E-3</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4.7600000000000002E-4</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1.87</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1.3500000000000001E-3</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1.14E-3</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="1">
+        <v>2.4299999999999999E-3</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4.2599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2.8499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="1">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="1">
+        <v>3.6799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" s="1">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="1">
+        <v>2.9E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" s="1">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="1">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4.1900000000000004</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="1">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" s="1">
+        <v>3.2299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" s="1">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" s="1">
+        <v>3.5299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="1">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="1">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" s="1">
+        <v>3.0400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" s="1">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" s="1">
+        <v>3.95E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="1">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" s="1">
+        <v>3.0400000000000002E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="1">
+        <v>3.5499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" s="1">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" s="1">
+        <v>2.8600000000000001E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" s="1">
+        <v>4.3900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="1">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" s="1">
+        <v>2.4899999999999998E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="1">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" s="1">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" s="1">
+        <v>3.71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="1">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" s="1">
+        <v>2.92E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1">
+        <v>2.4199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="1">
+        <v>5.1099999999999995E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" s="1">
+        <v>7.8799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="1">
+        <v>2.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" s="1">
+        <v>2.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="1">
+        <v>2.33E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" s="1">
+        <v>5.1400000000000003E-4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="1">
+        <v>7.5599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1.89E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2.0500000000000002E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2.2799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="1">
+        <v>4.9100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="1">
+        <v>7.5799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1.92E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" s="1">
+        <v>2.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" s="1">
+        <v>2.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" s="1">
+        <v>2.3600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" s="1">
+        <v>5.3200000000000003E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="1">
+        <v>7.5199999999999998E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1.89E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2.0600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" s="1">
+        <v>2.32E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>32</v>
+      </c>
+      <c r="C142" s="1">
+        <v>5.2999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="1">
+        <v>7.5799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" s="1">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" s="1">
+        <v>2.0699999999999998E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147" s="1">
+        <v>2.31E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148" t="s">
+        <v>39</v>
+      </c>
+      <c r="C148" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" s="1">
+        <v>7.5399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" s="1">
+        <v>1.89E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" s="1">
+        <v>2.0600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154" t="s">
+        <v>45</v>
+      </c>
+      <c r="C154" s="1">
+        <v>4.84E-4</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="1">
+        <v>7.5100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" s="1">
+        <v>1.92E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157" t="s">
+        <v>49</v>
+      </c>
+      <c r="C157" s="1">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158" t="s">
+        <v>50</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2.2699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2.32E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" s="1">
+        <v>4.9799999999999996E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B161" t="s">
+        <v>53</v>
+      </c>
+      <c r="C161" s="1">
+        <v>7.4799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B162" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="1">
+        <v>1.8799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>55</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" s="1">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
+        <v>58</v>
+      </c>
+      <c r="C166" s="1">
+        <v>5.04E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2.8300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="1">
+        <v>1.1900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="1">
+        <v>9.8500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" s="1">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="1">
+        <v>7.8299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" s="1">
+        <v>4.7400000000000003E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="1">
+        <v>7.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="1">
+        <v>1.5299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="1">
+        <v>6.8199999999999997E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" s="1">
+        <v>2.1700000000000001E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="1">
+        <v>9.2899999999999996E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" s="1">
+        <v>5.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" s="1">
+        <v>2.35E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="1">
+        <v>5.4299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" s="1">
+        <v>3.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" s="1">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="1">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="1">
+        <v>9.2399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="1">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" s="1">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="1">
+        <v>6.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" s="1">
+        <v>1.33E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" s="1">
+        <v>6.5399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="1">
+        <v>2.47E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" s="1">
+        <v>9.1500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" s="1">
+        <v>5.13E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" s="1">
+        <v>4.4900000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Algo_Develop.xlsx
+++ b/Algo_Develop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_r\EA\ETMO\MTO-cec2021-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E21BD1-8B06-4988-9996-13B3AA217C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462BCD83-E5CC-43C0-9592-ACC154FF7EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VSMaTDE" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="TOP" sheetId="7" r:id="rId4"/>
     <sheet name="precise" sheetId="2" r:id="rId5"/>
     <sheet name="tmp" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5169" uniqueCount="2426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5798" uniqueCount="2793">
   <si>
     <t>Problem</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -7093,10 +7092,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RNDDE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1/2/2</t>
   </si>
   <si>
@@ -7503,6 +7498,1121 @@
   </si>
   <si>
     <t>14/0/36</t>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.53E-03±7.04E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.69E-03±1.33E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.64E-02±1.36E-03(-)</t>
+  </si>
+  <si>
+    <t>2.63E-03±5.80E-04(+)</t>
+  </si>
+  <si>
+    <t>4.65E-03±8.28E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.50E-03±1.08E-04(+)</t>
+  </si>
+  <si>
+    <t>2.54E-04±2.52E-05(+)</t>
+  </si>
+  <si>
+    <t>1.98E-02±3.23E-03(-)</t>
+  </si>
+  <si>
+    <t>7.31E-04±5.25E-05(+)</t>
+  </si>
+  <si>
+    <t>3.70E-03±5.98E-04(≈)</t>
+  </si>
+  <si>
+    <t>8.34E-04±7.56E-05(+)</t>
+  </si>
+  <si>
+    <t>5.14E-04±6.45E-05(+)</t>
+  </si>
+  <si>
+    <t>1.33E-02±1.17E-03(+)</t>
+  </si>
+  <si>
+    <t>1.47E-03±1.56E-04(+)</t>
+  </si>
+  <si>
+    <t>2.73E-03±6.50E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.32E-02±4.60E-03(+)</t>
+  </si>
+  <si>
+    <t>3.36E-03±1.19E-03(+)</t>
+  </si>
+  <si>
+    <t>6.59E-03±1.62E-03(+)</t>
+  </si>
+  <si>
+    <t>2.61E-03±2.70E-04(+)</t>
+  </si>
+  <si>
+    <t>6.83E-03±4.03E-03(+)</t>
+  </si>
+  <si>
+    <t>9.62E-03±2.43E-03(+)</t>
+  </si>
+  <si>
+    <t>2.97E-03±3.89E-04(+)</t>
+  </si>
+  <si>
+    <t>5.96E-03±1.01E-03(+)</t>
+  </si>
+  <si>
+    <t>2.69E-03±3.65E-04(+)</t>
+  </si>
+  <si>
+    <t>3.30E-03±4.51E-04(+)</t>
+  </si>
+  <si>
+    <t>1.17E-03±3.23E-05(+)</t>
+  </si>
+  <si>
+    <t>4.76E-01±7.03E-04(-)</t>
+  </si>
+  <si>
+    <t>7.77E-04±1.06E-04(-)</t>
+  </si>
+  <si>
+    <t>1.20E-03±4.94E-05(+)</t>
+  </si>
+  <si>
+    <t>4.08E-02±5.00E-02(-)</t>
+  </si>
+  <si>
+    <t>6.38E-04±1.11E-04(-)</t>
+  </si>
+  <si>
+    <t>1.86E+00±1.26E-02(≈)</t>
+  </si>
+  <si>
+    <t>6.88E-04±5.22E-05(+)</t>
+  </si>
+  <si>
+    <t>6.08E-04±1.16E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.95E-03±9.59E-04(≈)</t>
+  </si>
+  <si>
+    <t>6.54E-04±2.49E-05(+)</t>
+  </si>
+  <si>
+    <t>1.43E-01±1.23E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.21E-03±5.38E-05(+)</t>
+  </si>
+  <si>
+    <t>6.67E-04±2.11E-05(+)</t>
+  </si>
+  <si>
+    <t>3.32E-02±3.70E-02(-)</t>
+  </si>
+  <si>
+    <t>1.22E-03±9.78E-05(+)</t>
+  </si>
+  <si>
+    <t>1.05E+00±7.23E-01(≈)</t>
+  </si>
+  <si>
+    <t>6.09E-04±1.65E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.14E-03±5.80E-05(+)</t>
+  </si>
+  <si>
+    <t>1.30E-03±7.36E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.34E-03±4.27E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.57E+00±6.21E-01(+)</t>
+  </si>
+  <si>
+    <t>4.93E-04±1.61E-05(+)</t>
+  </si>
+  <si>
+    <t>1.46E-03±4.42E-04(-)</t>
+  </si>
+  <si>
+    <t>2.29E+00±6.39E-01(+)</t>
+  </si>
+  <si>
+    <t>1.22E-03±2.61E-04(-)</t>
+  </si>
+  <si>
+    <t>1.11E-03±3.05E-04(-)</t>
+  </si>
+  <si>
+    <t>1.74E+00±7.15E-01(+)</t>
+  </si>
+  <si>
+    <t>4.82E-04±2.29E-05(+)</t>
+  </si>
+  <si>
+    <t>1.51E-03±3.16E-04(-)</t>
+  </si>
+  <si>
+    <t>3.25E+00±1.14E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.23E-03±2.29E-04(-)</t>
+  </si>
+  <si>
+    <t>1.29E-03±5.59E-04(-)</t>
+  </si>
+  <si>
+    <t>1.47E+00±5.15E-01(+)</t>
+  </si>
+  <si>
+    <t>4.71E-04±1.12E-05(+)</t>
+  </si>
+  <si>
+    <t>1.55E-03±3.55E-04(-)</t>
+  </si>
+  <si>
+    <t>2.21E+00±7.63E-01(+)</t>
+  </si>
+  <si>
+    <t>1.13E-03±2.31E-04(-)</t>
+  </si>
+  <si>
+    <t>1.40E-03±8.46E-04(-)</t>
+  </si>
+  <si>
+    <t>1.96E+00±6.16E-01(+)</t>
+  </si>
+  <si>
+    <t>4.72E-04±1.62E-05(+)</t>
+  </si>
+  <si>
+    <t>1.48E-03±2.27E-04(-)</t>
+  </si>
+  <si>
+    <t>3.24E+00±8.50E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.07E-03±1.06E-04(-)</t>
+  </si>
+  <si>
+    <t>1.46E-03±6.92E-04(-)</t>
+  </si>
+  <si>
+    <t>2.00E+00±7.87E-01(+)</t>
+  </si>
+  <si>
+    <t>4.79E-04±1.01E-05(+)</t>
+  </si>
+  <si>
+    <t>1.62E-03±8.01E-04(-)</t>
+  </si>
+  <si>
+    <t>2.38E+00±6.54E-01(+)</t>
+  </si>
+  <si>
+    <t>1.19E-03±1.89E-04(-)</t>
+  </si>
+  <si>
+    <t>9.16E+01±9.84E+01(≈)</t>
+  </si>
+  <si>
+    <t>4.77E-02±1.00E-02(+)</t>
+  </si>
+  <si>
+    <t>4.35E+00±6.04E-01(+)</t>
+  </si>
+  <si>
+    <t>2.02E+00±1.24E-01(+)</t>
+  </si>
+  <si>
+    <t>2.62E-04±5.97E-05(+)</t>
+  </si>
+  <si>
+    <t>9.19E+00±7.05E+00(≈)</t>
+  </si>
+  <si>
+    <t>4.53E-02±1.33E-02(+)</t>
+  </si>
+  <si>
+    <t>3.49E+00±4.81E-01(+)</t>
+  </si>
+  <si>
+    <t>2.01E+00±2.03E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.43E-04±4.40E-05(+)</t>
+  </si>
+  <si>
+    <t>6.17E+01±9.32E+01(≈)</t>
+  </si>
+  <si>
+    <t>4.41E-02±1.06E-02(+)</t>
+  </si>
+  <si>
+    <t>3.92E+00±8.36E-01(+)</t>
+  </si>
+  <si>
+    <t>2.04E+00±1.61E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.26E-04±2.47E-05(+)</t>
+  </si>
+  <si>
+    <t>1.88E+01±2.69E+01(≈)</t>
+  </si>
+  <si>
+    <t>4.60E-02±9.21E-03(+)</t>
+  </si>
+  <si>
+    <t>4.06E+00±7.69E-01(+)</t>
+  </si>
+  <si>
+    <t>2.01E+00±2.42E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.63E-04±3.39E-05(+)</t>
+  </si>
+  <si>
+    <t>1.99E+01±3.17E+01(≈)</t>
+  </si>
+  <si>
+    <t>5.06E-02±9.75E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.84E+00±7.23E-01(+)</t>
+  </si>
+  <si>
+    <t>2.05E+00±1.97E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.38E-04±3.25E-05(+)</t>
+  </si>
+  <si>
+    <t>1.54E+01±1.56E+01(≈)</t>
+  </si>
+  <si>
+    <t>4.42E-02±1.37E-02(+)</t>
+  </si>
+  <si>
+    <t>3.83E+00±8.67E-01(+)</t>
+  </si>
+  <si>
+    <t>2.06E+00±1.58E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.73E-04±4.39E-05(+)</t>
+  </si>
+  <si>
+    <t>3.97E+01±5.70E+01(≈)</t>
+  </si>
+  <si>
+    <t>4.30E-02±1.11E-02(+)</t>
+  </si>
+  <si>
+    <t>3.75E+00±1.20E+00(+)</t>
+  </si>
+  <si>
+    <t>1.96E+00±2.14E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.40E-04±3.29E-05(+)</t>
+  </si>
+  <si>
+    <t>2.75E+01±3.89E+01(≈)</t>
+  </si>
+  <si>
+    <t>5.28E-02±8.44E-03(+)</t>
+  </si>
+  <si>
+    <t>4.06E+00±7.51E-01(+)</t>
+  </si>
+  <si>
+    <t>1.99E+00±1.33E-01(+)</t>
+  </si>
+  <si>
+    <t>2.54E-04±4.17E-05(+)</t>
+  </si>
+  <si>
+    <t>2.38E-03±4.28E-04(-)</t>
+  </si>
+  <si>
+    <t>4.72E-04±1.03E-04(+)</t>
+  </si>
+  <si>
+    <t>6.96E-03±3.46E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.15E-03±4.40E-04(+)</t>
+  </si>
+  <si>
+    <t>2.20E-03±5.92E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.76E-03±9.10E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.17E-03±4.10E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.39E-04±1.07E-04(+)</t>
+  </si>
+  <si>
+    <t>6.54E-03±2.23E-04(+)</t>
+  </si>
+  <si>
+    <t>2.14E-03±4.59E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.16E-03±5.98E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.78E-03±9.15E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.15E-03±4.01E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.32E-04±9.45E-05(+)</t>
+  </si>
+  <si>
+    <t>6.55E-03±2.73E-04(+)</t>
+  </si>
+  <si>
+    <t>2.11E-03±4.61E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.13E-03±5.91E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.76E-03±9.05E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.17E-03±4.29E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.26E-04±1.09E-04(+)</t>
+  </si>
+  <si>
+    <t>6.48E-03±2.20E-04(+)</t>
+  </si>
+  <si>
+    <t>2.12E-03±4.65E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.18E-03±5.98E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.76E-03±9.14E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.14E-03±3.92E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.19E-04±9.64E-05(+)</t>
+  </si>
+  <si>
+    <t>6.54E-03±2.33E-04(+)</t>
+  </si>
+  <si>
+    <t>2.12E-03±4.47E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.16E-03±6.04E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.78E-03±8.85E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.22E-03±4.47E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.22E-04±1.08E-04(+)</t>
+  </si>
+  <si>
+    <t>6.54E-03±2.29E-04(+)</t>
+  </si>
+  <si>
+    <t>2.14E-03±4.50E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.13E-03±5.72E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.76E-03±8.97E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.25E-03±4.40E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.18E-04±9.35E-05(+)</t>
+  </si>
+  <si>
+    <t>6.55E-03±3.02E-04(+)</t>
+  </si>
+  <si>
+    <t>2.15E-03±4.70E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.15E-03±6.04E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.78E-03±8.98E-04(+)</t>
+  </si>
+  <si>
+    <t>2.20E-03±4.27E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.31E-04±1.17E-04(+)</t>
+  </si>
+  <si>
+    <t>6.54E-03±1.96E-04(+)</t>
+  </si>
+  <si>
+    <t>2.15E-03±4.58E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.18E-03±6.07E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.77E-03±8.87E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.16E-03±3.84E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.26E-04±9.90E-05(+)</t>
+  </si>
+  <si>
+    <t>2.93E-03±1.09E-03(+)</t>
+  </si>
+  <si>
+    <t>5.98E-02±1.43E-01(+)</t>
+  </si>
+  <si>
+    <t>4.16E-02±3.00E-02(+)</t>
+  </si>
+  <si>
+    <t>1.27E-02±8.59E-03(+)</t>
+  </si>
+  <si>
+    <t>5.30E-02±2.23E-02(+)</t>
+  </si>
+  <si>
+    <t>2.50E-03±8.06E-04(+)</t>
+  </si>
+  <si>
+    <t>8.67E-03±1.74E-03(+)</t>
+  </si>
+  <si>
+    <t>1.09E-03±1.01E-04(+)</t>
+  </si>
+  <si>
+    <t>6.53E-03±1.08E-03(+)</t>
+  </si>
+  <si>
+    <t>1.93E-03±9.49E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.23E-03±5.19E-04(+)</t>
+  </si>
+  <si>
+    <t>4.18E-03±3.79E-04(+)</t>
+  </si>
+  <si>
+    <t>1.00E-02±2.69E-03(+)</t>
+  </si>
+  <si>
+    <t>2.75E-03±7.89E-04(+)</t>
+  </si>
+  <si>
+    <t>2.68E-03±1.10E-03(+)</t>
+  </si>
+  <si>
+    <t>4.55E-02±9.90E-02(+)</t>
+  </si>
+  <si>
+    <t>1.24E-01±9.62E-02(+)</t>
+  </si>
+  <si>
+    <t>8.28E-03±1.57E-03(+)</t>
+  </si>
+  <si>
+    <t>5.48E-02±3.44E-02(+)</t>
+  </si>
+  <si>
+    <t>3.81E-03±1.65E-03(+)</t>
+  </si>
+  <si>
+    <t>8.49E-03±1.73E-03(+)</t>
+  </si>
+  <si>
+    <t>1.19E-03±1.83E-04(+)</t>
+  </si>
+  <si>
+    <t>7.31E-03±1.08E-03(+)</t>
+  </si>
+  <si>
+    <t>1.85E-03±9.00E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.47E-03±1.50E-03(+)</t>
+  </si>
+  <si>
+    <t>4.52E-03±7.84E-04(+)</t>
+  </si>
+  <si>
+    <t>2.30E-02±1.97E-02(+)</t>
+  </si>
+  <si>
+    <t>3.11E-03±9.49E-04(+)</t>
+  </si>
+  <si>
+    <t>2.53E-03±7.04E-04(+)</t>
+  </si>
+  <si>
+    <t>1.64E-02±1.36E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.63E-03±5.80E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.65E-03±8.28E-04(+)</t>
+  </si>
+  <si>
+    <t>1.98E-02±3.23E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.70E-03±5.98E-04(+)</t>
+  </si>
+  <si>
+    <t>2.73E-03±6.50E-04(+)</t>
+  </si>
+  <si>
+    <t>3.36E-03±1.19E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.59E-03±1.62E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.97E-03±3.89E-04(≈)</t>
+  </si>
+  <si>
+    <t>5.96E-03±1.01E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.30E-03±4.51E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.76E-01±7.03E-04(+)</t>
+  </si>
+  <si>
+    <t>7.77E-04±1.06E-04(+)</t>
+  </si>
+  <si>
+    <t>1.20E-03±4.94E-05(≈)</t>
+  </si>
+  <si>
+    <t>4.08E-02±5.00E-02(+)</t>
+  </si>
+  <si>
+    <t>6.38E-04±1.11E-04(+)</t>
+  </si>
+  <si>
+    <t>1.86E+00±1.26E-02(+)</t>
+  </si>
+  <si>
+    <t>6.08E-04±1.16E-04(+)</t>
+  </si>
+  <si>
+    <t>1.95E-03±9.59E-04(+)</t>
+  </si>
+  <si>
+    <t>1.43E-01±1.23E-03(+)</t>
+  </si>
+  <si>
+    <t>3.32E-02±3.70E-02(+)</t>
+  </si>
+  <si>
+    <t>6.09E-04±1.65E-04(+)</t>
+  </si>
+  <si>
+    <t>1.30E-03±7.36E-04(+)</t>
+  </si>
+  <si>
+    <t>1.57E+00±6.21E-01(≈)</t>
+  </si>
+  <si>
+    <t>4.93E-04±1.61E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.46E-03±4.42E-04(+)</t>
+  </si>
+  <si>
+    <t>2.29E+00±6.39E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.22E-03±2.61E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.11E-03±3.05E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.74E+00±7.15E-01(≈)</t>
+  </si>
+  <si>
+    <t>4.82E-04±2.29E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.51E-03±3.16E-04(+)</t>
+  </si>
+  <si>
+    <t>1.23E-03±2.29E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.29E-03±5.59E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.47E+00±5.15E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.55E-03±3.55E-04(+)</t>
+  </si>
+  <si>
+    <t>2.21E+00±7.63E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.13E-03±2.31E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.40E-03±8.46E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.96E+00±6.16E-01(≈)</t>
+  </si>
+  <si>
+    <t>4.72E-04±1.62E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.48E-03±2.27E-04(+)</t>
+  </si>
+  <si>
+    <t>3.24E+00±8.50E-01(-)</t>
+  </si>
+  <si>
+    <t>1.07E-03±1.06E-04(+)</t>
+  </si>
+  <si>
+    <t>1.46E-03±6.92E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.00E+00±7.87E-01(≈)</t>
+  </si>
+  <si>
+    <t>4.79E-04±1.01E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.62E-03±8.01E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.38E+00±6.54E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.19E-03±1.89E-04(+)</t>
+  </si>
+  <si>
+    <t>4.77E-02±1.00E-02(-)</t>
+  </si>
+  <si>
+    <t>4.35E+00±6.04E-01(-)</t>
+  </si>
+  <si>
+    <t>2.62E-04±5.97E-05(≈)</t>
+  </si>
+  <si>
+    <t>4.53E-02±1.33E-02(≈)</t>
+  </si>
+  <si>
+    <t>3.49E+00±4.81E-01(≈)</t>
+  </si>
+  <si>
+    <t>4.41E-02±1.06E-02(≈)</t>
+  </si>
+  <si>
+    <t>3.92E+00±8.36E-01(≈)</t>
+  </si>
+  <si>
+    <t>4.60E-02±9.21E-03(-)</t>
+  </si>
+  <si>
+    <t>4.06E+00±7.69E-01(-)</t>
+  </si>
+  <si>
+    <t>5.06E-02±9.75E-03(-)</t>
+  </si>
+  <si>
+    <t>3.84E+00±7.23E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.05E+00±1.97E-01(+)</t>
+  </si>
+  <si>
+    <t>4.42E-02±1.37E-02(≈)</t>
+  </si>
+  <si>
+    <t>3.83E+00±8.67E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.73E-04±4.39E-05(≈)</t>
+  </si>
+  <si>
+    <t>4.30E-02±1.11E-02(≈)</t>
+  </si>
+  <si>
+    <t>3.75E+00±1.20E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.96E+00±2.14E-01(+)</t>
+  </si>
+  <si>
+    <t>2.40E-04±3.29E-05(≈)</t>
+  </si>
+  <si>
+    <t>5.28E-02±8.44E-03(-)</t>
+  </si>
+  <si>
+    <t>4.06E+00±7.51E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.54E-04±4.17E-05(≈)</t>
+  </si>
+  <si>
+    <t>2.38E-03±4.28E-04(+)</t>
+  </si>
+  <si>
+    <t>6.96E-03±3.46E-04(+)</t>
+  </si>
+  <si>
+    <t>2.20E-03±5.92E-04(+)</t>
+  </si>
+  <si>
+    <t>2.76E-03±9.10E-04(+)</t>
+  </si>
+  <si>
+    <t>2.17E-03±4.10E-04(+)</t>
+  </si>
+  <si>
+    <t>2.14E-03±4.59E-04(+)</t>
+  </si>
+  <si>
+    <t>2.16E-03±5.98E-04(+)</t>
+  </si>
+  <si>
+    <t>2.78E-03±9.15E-04(+)</t>
+  </si>
+  <si>
+    <t>2.15E-03±4.01E-04(+)</t>
+  </si>
+  <si>
+    <t>2.11E-03±4.61E-04(+)</t>
+  </si>
+  <si>
+    <t>2.13E-03±5.91E-04(+)</t>
+  </si>
+  <si>
+    <t>2.76E-03±9.05E-04(+)</t>
+  </si>
+  <si>
+    <t>2.17E-03±4.29E-04(+)</t>
+  </si>
+  <si>
+    <t>2.12E-03±4.65E-04(+)</t>
+  </si>
+  <si>
+    <t>2.18E-03±5.98E-04(+)</t>
+  </si>
+  <si>
+    <t>2.76E-03±9.14E-04(+)</t>
+  </si>
+  <si>
+    <t>2.14E-03±3.92E-04(+)</t>
+  </si>
+  <si>
+    <t>2.12E-03±4.47E-04(+)</t>
+  </si>
+  <si>
+    <t>2.16E-03±6.04E-04(+)</t>
+  </si>
+  <si>
+    <t>2.78E-03±8.85E-04(+)</t>
+  </si>
+  <si>
+    <t>2.22E-03±4.47E-04(+)</t>
+  </si>
+  <si>
+    <t>2.14E-03±4.50E-04(+)</t>
+  </si>
+  <si>
+    <t>2.13E-03±5.72E-04(+)</t>
+  </si>
+  <si>
+    <t>2.76E-03±8.97E-04(+)</t>
+  </si>
+  <si>
+    <t>2.25E-03±4.40E-04(+)</t>
+  </si>
+  <si>
+    <t>2.15E-03±4.70E-04(+)</t>
+  </si>
+  <si>
+    <t>2.15E-03±6.04E-04(+)</t>
+  </si>
+  <si>
+    <t>2.20E-03±4.27E-04(+)</t>
+  </si>
+  <si>
+    <t>2.15E-03±4.58E-04(+)</t>
+  </si>
+  <si>
+    <t>2.18E-03±6.07E-04(+)</t>
+  </si>
+  <si>
+    <t>2.77E-03±8.87E-04(+)</t>
+  </si>
+  <si>
+    <t>2.16E-03±3.84E-04(+)</t>
+  </si>
+  <si>
+    <t>5.98E-02±1.43E-01(≈)</t>
+  </si>
+  <si>
+    <t>4.16E-02±3.00E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.27E-02±8.59E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.30E-02±2.23E-02(≈)</t>
+  </si>
+  <si>
+    <t>8.67E-03±1.74E-03(-)</t>
+  </si>
+  <si>
+    <t>6.53E-03±1.08E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.23E-03±5.19E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.18E-03±3.79E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.75E-03±7.89E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.55E-02±9.90E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.24E-01±9.62E-02(≈)</t>
+  </si>
+  <si>
+    <t>8.28E-03±1.57E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.48E-02±3.44E-02(≈)</t>
+  </si>
+  <si>
+    <t>3.81E-03±1.65E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.49E-03±1.73E-03(-)</t>
+  </si>
+  <si>
+    <t>7.31E-03±1.08E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.47E-03±1.50E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.52E-03±7.84E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.30E-02±1.97E-02(≈)</t>
+  </si>
+  <si>
+    <t>4.13E-03±2.15E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.71E-03±1.37E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.62E-02±1.03E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.30E-03±1.23E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.62E-03±2.07E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.41E-03±1.13E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.96E-04±4.65E-05(+)</t>
+  </si>
+  <si>
+    <t>2.04E-02±1.33E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.49E-04±1.20E-04(+)</t>
+  </si>
+  <si>
+    <t>3.82E-03±1.86E-03(+)</t>
+  </si>
+  <si>
+    <t>9.37E-04±9.42E-05(+)</t>
+  </si>
+  <si>
+    <t>6.72E-04±1.81E-04(+)</t>
+  </si>
+  <si>
+    <t>1.34E-02±1.16E-03(+)</t>
+  </si>
+  <si>
+    <t>1.73E-03±3.61E-04(+)</t>
+  </si>
+  <si>
+    <t>2.65E-03±8.72E-04(+)</t>
+  </si>
+  <si>
+    <t>5.41E-02±1.55E-02(+)</t>
+  </si>
+  <si>
+    <t>3.55E-03±1.04E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.48E-03±1.78E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.48E-03±2.55E-04(+)</t>
+  </si>
+  <si>
+    <t>8.89E-03±4.01E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.59E-02±1.72E-02(+)</t>
+  </si>
+  <si>
+    <t>2.84E-03±2.34E-04(≈)</t>
+  </si>
+  <si>
+    <t>6.05E-03±7.21E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.74E-03±1.41E-04(+)</t>
+  </si>
+  <si>
+    <t>3.04E-03±2.98E-04(+)</t>
+  </si>
+  <si>
+    <t>19/1/20</t>
+  </si>
+  <si>
+    <t>9/0/41</t>
+  </si>
+  <si>
+    <t>TransferDE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNDUF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11/1/8</t>
+  </si>
+  <si>
+    <t>28/10/12</t>
+  </si>
+  <si>
+    <t>NewRA5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>without A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/3/11</t>
+  </si>
+  <si>
+    <t>10/14/6</t>
+  </si>
+  <si>
+    <t>24/2/24</t>
+  </si>
+  <si>
+    <t>NewRA1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15/7/8</t>
+  </si>
+  <si>
+    <t>17/2/11</t>
+  </si>
+  <si>
+    <t>36/4/0</t>
+  </si>
+  <si>
+    <t>8/8/12</t>
+  </si>
+  <si>
+    <t>SBX_NewRA1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18/2/10</t>
+  </si>
+  <si>
+    <t>33/5/2</t>
+  </si>
+  <si>
+    <t>8/6/14</t>
+  </si>
+  <si>
+    <t>TDE_NewRA1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31/6/3</t>
+  </si>
+  <si>
+    <t>PUNISH_Fixed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIEMIX_PUNISH_Fixed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7886,21 +8996,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7913,6 +9008,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8194,18 +9304,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A36" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8218,8 +9329,11 @@
       <c r="D1" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15">
+      <c r="E1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -8232,8 +9346,11 @@
       <c r="D2" s="3" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15">
+      <c r="E2" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -8244,8 +9361,11 @@
       <c r="D3" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15">
+      <c r="E3" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -8256,8 +9376,11 @@
       <c r="D4" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+      <c r="E4" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -8268,8 +9391,11 @@
       <c r="D5" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15">
+      <c r="E5" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -8280,8 +9406,11 @@
       <c r="D6" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15">
+      <c r="E6" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -8294,8 +9423,11 @@
       <c r="D7" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15">
+      <c r="E7" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -8306,8 +9438,11 @@
       <c r="D8" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15">
+      <c r="E8" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -8318,8 +9453,11 @@
       <c r="D9" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+      <c r="E9" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -8330,8 +9468,11 @@
       <c r="D10" s="3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15">
+      <c r="E10" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -8342,8 +9483,11 @@
       <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+      <c r="E11" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -8354,8 +9498,11 @@
       <c r="D12" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15">
+      <c r="E12" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -8366,8 +9513,11 @@
       <c r="D13" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15">
+      <c r="E13" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -8378,8 +9528,11 @@
       <c r="D14" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15">
+      <c r="E14" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -8390,8 +9543,11 @@
       <c r="D15" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15">
+      <c r="E15" t="s">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -8402,8 +9558,11 @@
       <c r="D16" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15">
+      <c r="E16" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -8416,8 +9575,11 @@
       <c r="D17" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15">
+      <c r="E17" t="s">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>4</v>
@@ -8428,8 +9590,11 @@
       <c r="D18" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15">
+      <c r="E18" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -8440,8 +9605,11 @@
       <c r="D19" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15">
+      <c r="E19" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>6</v>
@@ -8452,8 +9620,11 @@
       <c r="D20" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15">
+      <c r="E20" t="s">
+        <v>2444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -8464,8 +9635,11 @@
       <c r="D21" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15">
+      <c r="E21" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>9</v>
@@ -8476,8 +9650,11 @@
       <c r="D22" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15">
+      <c r="E22" t="s">
+        <v>2446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -8488,8 +9665,11 @@
       <c r="D23" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15">
+      <c r="E23" t="s">
+        <v>2447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>11</v>
@@ -8500,8 +9680,11 @@
       <c r="D24" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15">
+      <c r="E24" t="s">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>12</v>
@@ -8512,8 +9695,11 @@
       <c r="D25" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15">
+      <c r="E25" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>13</v>
@@ -8524,8 +9710,11 @@
       <c r="D26" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15">
+      <c r="E26" t="s">
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -8538,8 +9727,11 @@
       <c r="D27" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15">
+      <c r="E27" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -8550,8 +9742,11 @@
       <c r="D28" s="3" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15">
+      <c r="E28" t="s">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
@@ -8562,8 +9757,11 @@
       <c r="D29" s="3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15">
+      <c r="E29" t="s">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>6</v>
@@ -8574,8 +9772,11 @@
       <c r="D30" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15">
+      <c r="E30" t="s">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -8586,8 +9787,11 @@
       <c r="D31" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15">
+      <c r="E31" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>9</v>
@@ -8598,8 +9802,11 @@
       <c r="D32" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15">
+      <c r="E32" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>10</v>
@@ -8610,8 +9817,11 @@
       <c r="D33" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15">
+      <c r="E33" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>11</v>
@@ -8622,8 +9832,11 @@
       <c r="D34" s="3" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15">
+      <c r="E34" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>12</v>
@@ -8634,8 +9847,11 @@
       <c r="D35" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15">
+      <c r="E35" t="s">
+        <v>2459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>13</v>
@@ -8646,8 +9862,11 @@
       <c r="D36" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15">
+      <c r="E36" t="s">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>16</v>
@@ -8658,8 +9877,11 @@
       <c r="D37" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15">
+      <c r="E37" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>17</v>
@@ -8670,8 +9892,11 @@
       <c r="D38" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15">
+      <c r="E38" t="s">
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>18</v>
@@ -8682,8 +9907,11 @@
       <c r="D39" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15">
+      <c r="E39" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>19</v>
@@ -8694,8 +9922,11 @@
       <c r="D40" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15">
+      <c r="E40" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>20</v>
@@ -8706,8 +9937,11 @@
       <c r="D41" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15">
+      <c r="E41" t="s">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>21</v>
@@ -8718,8 +9952,11 @@
       <c r="D42" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15">
+      <c r="E42" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>22</v>
@@ -8730,8 +9967,11 @@
       <c r="D43" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15">
+      <c r="E43" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>23</v>
@@ -8742,8 +9982,11 @@
       <c r="D44" s="3" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15">
+      <c r="E44" t="s">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>24</v>
@@ -8754,8 +9997,11 @@
       <c r="D45" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15">
+      <c r="E45" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>25</v>
@@ -8766,8 +10012,11 @@
       <c r="D46" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15">
+      <c r="E46" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
       <c r="A47" s="4" t="s">
         <v>26</v>
       </c>
@@ -8780,8 +10029,11 @@
       <c r="D47" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15">
+      <c r="E47" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>4</v>
@@ -8792,8 +10044,11 @@
       <c r="D48" s="3" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15">
+      <c r="E48" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>5</v>
@@ -8804,8 +10059,11 @@
       <c r="D49" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15">
+      <c r="E49" t="s">
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
@@ -8816,8 +10074,11 @@
       <c r="D50" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15">
+      <c r="E50" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
@@ -8828,8 +10089,11 @@
       <c r="D51" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15">
+      <c r="E51" t="s">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>9</v>
@@ -8840,8 +10104,11 @@
       <c r="D52" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15">
+      <c r="E52" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>10</v>
@@ -8852,8 +10119,11 @@
       <c r="D53" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15">
+      <c r="E53" t="s">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>11</v>
@@ -8864,8 +10134,11 @@
       <c r="D54" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15">
+      <c r="E54" t="s">
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>12</v>
@@ -8876,8 +10149,11 @@
       <c r="D55" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15">
+      <c r="E55" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>13</v>
@@ -8888,8 +10164,11 @@
       <c r="D56" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15">
+      <c r="E56" t="s">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>16</v>
@@ -8900,8 +10179,11 @@
       <c r="D57" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15">
+      <c r="E57" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>17</v>
@@ -8912,8 +10194,11 @@
       <c r="D58" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15">
+      <c r="E58" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>18</v>
@@ -8924,8 +10209,11 @@
       <c r="D59" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15">
+      <c r="E59" t="s">
+        <v>2483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>19</v>
@@ -8936,8 +10224,11 @@
       <c r="D60" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15">
+      <c r="E60" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>20</v>
@@ -8948,8 +10239,11 @@
       <c r="D61" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15">
+      <c r="E61" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>21</v>
@@ -8960,8 +10254,11 @@
       <c r="D62" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15">
+      <c r="E62" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>22</v>
@@ -8972,8 +10269,11 @@
       <c r="D63" s="3" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15">
+      <c r="E63" t="s">
+        <v>2487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>23</v>
@@ -8984,8 +10284,11 @@
       <c r="D64" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15">
+      <c r="E64" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -8996,8 +10299,11 @@
       <c r="D65" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15">
+      <c r="E65" t="s">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>25</v>
@@ -9008,8 +10314,11 @@
       <c r="D66" s="3" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15">
+      <c r="E66" t="s">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>27</v>
@@ -9020,8 +10329,11 @@
       <c r="D67" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15">
+      <c r="E67" t="s">
+        <v>2491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>28</v>
@@ -9032,8 +10344,11 @@
       <c r="D68" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15">
+      <c r="E68" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>29</v>
@@ -9044,8 +10359,11 @@
       <c r="D69" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15">
+      <c r="E69" t="s">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>30</v>
@@ -9056,8 +10374,11 @@
       <c r="D70" s="3" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15">
+      <c r="E70" t="s">
+        <v>2494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>31</v>
@@ -9068,8 +10389,11 @@
       <c r="D71" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15">
+      <c r="E71" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>32</v>
@@ -9080,8 +10404,11 @@
       <c r="D72" s="3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15">
+      <c r="E72" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>33</v>
@@ -9092,8 +10419,11 @@
       <c r="D73" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15">
+      <c r="E73" t="s">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>34</v>
@@ -9104,8 +10434,11 @@
       <c r="D74" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15">
+      <c r="E74" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>35</v>
@@ -9116,8 +10449,11 @@
       <c r="D75" s="3" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15">
+      <c r="E75" t="s">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>36</v>
@@ -9128,8 +10464,11 @@
       <c r="D76" s="3" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15">
+      <c r="E76" t="s">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
       <c r="A77" s="4" t="s">
         <v>37</v>
       </c>
@@ -9142,8 +10481,11 @@
       <c r="D77" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15">
+      <c r="E77" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>4</v>
@@ -9154,8 +10496,11 @@
       <c r="D78" s="3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15">
+      <c r="E78" t="s">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>5</v>
@@ -9166,8 +10511,11 @@
       <c r="D79" s="3" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15">
+      <c r="E79" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>6</v>
@@ -9178,8 +10526,11 @@
       <c r="D80" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15">
+      <c r="E80" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>7</v>
@@ -9190,8 +10541,11 @@
       <c r="D81" s="3" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15">
+      <c r="E81" t="s">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>9</v>
@@ -9202,8 +10556,11 @@
       <c r="D82" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15">
+      <c r="E82" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>10</v>
@@ -9214,8 +10571,11 @@
       <c r="D83" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15">
+      <c r="E83" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>11</v>
@@ -9226,8 +10586,11 @@
       <c r="D84" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15">
+      <c r="E84" t="s">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>12</v>
@@ -9238,8 +10601,11 @@
       <c r="D85" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15">
+      <c r="E85" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>13</v>
@@ -9250,8 +10616,11 @@
       <c r="D86" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15">
+      <c r="E86" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>16</v>
@@ -9262,8 +10631,11 @@
       <c r="D87" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15">
+      <c r="E87" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>17</v>
@@ -9274,8 +10646,11 @@
       <c r="D88" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15">
+      <c r="E88" t="s">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>18</v>
@@ -9286,8 +10661,11 @@
       <c r="D89" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15">
+      <c r="E89" t="s">
+        <v>2513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
       <c r="A90" s="4"/>
       <c r="B90" s="1" t="s">
         <v>19</v>
@@ -9298,8 +10676,11 @@
       <c r="D90" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15">
+      <c r="E90" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15">
       <c r="A91" s="4"/>
       <c r="B91" s="1" t="s">
         <v>20</v>
@@ -9310,8 +10691,11 @@
       <c r="D91" s="3" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15">
+      <c r="E91" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15">
       <c r="A92" s="4"/>
       <c r="B92" s="1" t="s">
         <v>21</v>
@@ -9322,8 +10706,11 @@
       <c r="D92" s="3" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15">
+      <c r="E92" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15">
       <c r="A93" s="4"/>
       <c r="B93" s="1" t="s">
         <v>22</v>
@@ -9334,8 +10721,11 @@
       <c r="D93" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15">
+      <c r="E93" t="s">
+        <v>2517</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15">
       <c r="A94" s="4"/>
       <c r="B94" s="1" t="s">
         <v>23</v>
@@ -9346,8 +10736,11 @@
       <c r="D94" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15">
+      <c r="E94" t="s">
+        <v>2518</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
       <c r="A95" s="4"/>
       <c r="B95" s="1" t="s">
         <v>24</v>
@@ -9358,8 +10751,11 @@
       <c r="D95" s="3" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15">
+      <c r="E95" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15">
       <c r="A96" s="4"/>
       <c r="B96" s="1" t="s">
         <v>25</v>
@@ -9370,8 +10766,11 @@
       <c r="D96" s="3" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15">
+      <c r="E96" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
       <c r="A97" s="4"/>
       <c r="B97" s="1" t="s">
         <v>27</v>
@@ -9382,8 +10781,11 @@
       <c r="D97" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15">
+      <c r="E97" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15">
       <c r="A98" s="4"/>
       <c r="B98" s="1" t="s">
         <v>28</v>
@@ -9394,8 +10796,11 @@
       <c r="D98" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15">
+      <c r="E98" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15">
       <c r="A99" s="4"/>
       <c r="B99" s="1" t="s">
         <v>29</v>
@@ -9406,8 +10811,11 @@
       <c r="D99" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15">
+      <c r="E99" t="s">
+        <v>2523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15">
       <c r="A100" s="4"/>
       <c r="B100" s="1" t="s">
         <v>30</v>
@@ -9418,8 +10826,11 @@
       <c r="D100" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15">
+      <c r="E100" t="s">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
       <c r="A101" s="4"/>
       <c r="B101" s="1" t="s">
         <v>31</v>
@@ -9430,8 +10841,11 @@
       <c r="D101" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15">
+      <c r="E101" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
       <c r="A102" s="4"/>
       <c r="B102" s="1" t="s">
         <v>32</v>
@@ -9442,8 +10856,11 @@
       <c r="D102" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15">
+      <c r="E102" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15">
       <c r="A103" s="4"/>
       <c r="B103" s="1" t="s">
         <v>33</v>
@@ -9454,8 +10871,11 @@
       <c r="D103" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15">
+      <c r="E103" t="s">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15">
       <c r="A104" s="4"/>
       <c r="B104" s="1" t="s">
         <v>34</v>
@@ -9466,8 +10886,11 @@
       <c r="D104" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15">
+      <c r="E104" t="s">
+        <v>2528</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15">
       <c r="A105" s="4"/>
       <c r="B105" s="1" t="s">
         <v>35</v>
@@ -9478,8 +10901,11 @@
       <c r="D105" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15">
+      <c r="E105" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15">
       <c r="A106" s="4"/>
       <c r="B106" s="1" t="s">
         <v>36</v>
@@ -9490,8 +10916,11 @@
       <c r="D106" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15">
+      <c r="E106" t="s">
+        <v>2530</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15">
       <c r="A107" s="4"/>
       <c r="B107" s="1" t="s">
         <v>38</v>
@@ -9502,8 +10931,11 @@
       <c r="D107" s="3" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15">
+      <c r="E107" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15">
       <c r="A108" s="4"/>
       <c r="B108" s="1" t="s">
         <v>39</v>
@@ -9514,8 +10946,11 @@
       <c r="D108" s="3" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15">
+      <c r="E108" t="s">
+        <v>2532</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15">
       <c r="A109" s="4"/>
       <c r="B109" s="1" t="s">
         <v>40</v>
@@ -9526,8 +10961,11 @@
       <c r="D109" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15">
+      <c r="E109" t="s">
+        <v>2533</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15">
       <c r="A110" s="4"/>
       <c r="B110" s="1" t="s">
         <v>41</v>
@@ -9538,8 +10976,11 @@
       <c r="D110" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15">
+      <c r="E110" t="s">
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15">
       <c r="A111" s="4"/>
       <c r="B111" s="1" t="s">
         <v>42</v>
@@ -9550,8 +10991,11 @@
       <c r="D111" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15">
+      <c r="E111" t="s">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15">
       <c r="A112" s="4"/>
       <c r="B112" s="1" t="s">
         <v>43</v>
@@ -9562,8 +11006,11 @@
       <c r="D112" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15">
+      <c r="E112" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15">
       <c r="A113" s="4"/>
       <c r="B113" s="1" t="s">
         <v>44</v>
@@ -9574,8 +11021,11 @@
       <c r="D113" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15">
+      <c r="E113" t="s">
+        <v>2537</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15">
       <c r="A114" s="4"/>
       <c r="B114" s="1" t="s">
         <v>45</v>
@@ -9586,8 +11036,11 @@
       <c r="D114" s="3" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15">
+      <c r="E114" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15">
       <c r="A115" s="4"/>
       <c r="B115" s="1" t="s">
         <v>46</v>
@@ -9598,8 +11051,11 @@
       <c r="D115" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15">
+      <c r="E115" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15">
       <c r="A116" s="4"/>
       <c r="B116" s="1" t="s">
         <v>47</v>
@@ -9610,8 +11066,11 @@
       <c r="D116" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15">
+      <c r="E116" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15">
       <c r="A117" s="1" t="s">
         <v>48</v>
       </c>
@@ -9624,8 +11083,11 @@
       <c r="D117" s="3" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15">
+      <c r="E117" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15">
       <c r="A118" s="4"/>
       <c r="B118" s="1" t="s">
         <v>4</v>
@@ -9636,8 +11098,11 @@
       <c r="D118" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15">
+      <c r="E118" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15">
       <c r="A119" s="4"/>
       <c r="B119" s="1" t="s">
         <v>5</v>
@@ -9648,8 +11113,11 @@
       <c r="D119" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15">
+      <c r="E119" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15">
       <c r="A120" s="4"/>
       <c r="B120" s="1" t="s">
         <v>6</v>
@@ -9660,8 +11128,11 @@
       <c r="D120" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15">
+      <c r="E120" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15">
       <c r="A121" s="4"/>
       <c r="B121" s="1" t="s">
         <v>7</v>
@@ -9672,8 +11143,11 @@
       <c r="D121" s="3" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15">
+      <c r="E121" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15">
       <c r="A122" s="4"/>
       <c r="B122" s="1" t="s">
         <v>9</v>
@@ -9684,8 +11158,11 @@
       <c r="D122" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15">
+      <c r="E122" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15">
       <c r="A123" s="4"/>
       <c r="B123" s="1" t="s">
         <v>10</v>
@@ -9696,8 +11173,11 @@
       <c r="D123" s="3" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15">
+      <c r="E123" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15">
       <c r="A124" s="4"/>
       <c r="B124" s="1" t="s">
         <v>11</v>
@@ -9708,8 +11188,11 @@
       <c r="D124" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="15">
+      <c r="E124" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15">
       <c r="A125" s="4"/>
       <c r="B125" s="1" t="s">
         <v>12</v>
@@ -9720,8 +11203,11 @@
       <c r="D125" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15">
+      <c r="E125" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15">
       <c r="A126" s="4"/>
       <c r="B126" s="1" t="s">
         <v>13</v>
@@ -9732,8 +11218,11 @@
       <c r="D126" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15">
+      <c r="E126" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15">
       <c r="A127" s="4"/>
       <c r="B127" s="1" t="s">
         <v>16</v>
@@ -9744,8 +11233,11 @@
       <c r="D127" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15">
+      <c r="E127" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15">
       <c r="A128" s="4"/>
       <c r="B128" s="1" t="s">
         <v>17</v>
@@ -9756,8 +11248,11 @@
       <c r="D128" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15">
+      <c r="E128" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15">
       <c r="A129" s="4"/>
       <c r="B129" s="1" t="s">
         <v>18</v>
@@ -9768,8 +11263,11 @@
       <c r="D129" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="15">
+      <c r="E129" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15">
       <c r="A130" s="4"/>
       <c r="B130" s="1" t="s">
         <v>19</v>
@@ -9780,8 +11278,11 @@
       <c r="D130" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15">
+      <c r="E130" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15">
       <c r="A131" s="4"/>
       <c r="B131" s="1" t="s">
         <v>20</v>
@@ -9792,8 +11293,11 @@
       <c r="D131" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15">
+      <c r="E131" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15">
       <c r="A132" s="4"/>
       <c r="B132" s="1" t="s">
         <v>21</v>
@@ -9804,8 +11308,11 @@
       <c r="D132" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15">
+      <c r="E132" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15">
       <c r="A133" s="4"/>
       <c r="B133" s="1" t="s">
         <v>22</v>
@@ -9816,8 +11323,11 @@
       <c r="D133" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15">
+      <c r="E133" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15">
       <c r="A134" s="4"/>
       <c r="B134" s="1" t="s">
         <v>23</v>
@@ -9828,8 +11338,11 @@
       <c r="D134" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15">
+      <c r="E134" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15">
       <c r="A135" s="4"/>
       <c r="B135" s="1" t="s">
         <v>24</v>
@@ -9840,8 +11353,11 @@
       <c r="D135" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15">
+      <c r="E135" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15">
       <c r="A136" s="4"/>
       <c r="B136" s="1" t="s">
         <v>25</v>
@@ -9852,8 +11368,11 @@
       <c r="D136" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15">
+      <c r="E136" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15">
       <c r="A137" s="4"/>
       <c r="B137" s="1" t="s">
         <v>27</v>
@@ -9864,8 +11383,11 @@
       <c r="D137" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15">
+      <c r="E137" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15">
       <c r="A138" s="4"/>
       <c r="B138" s="1" t="s">
         <v>28</v>
@@ -9876,8 +11398,11 @@
       <c r="D138" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15">
+      <c r="E138" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15">
       <c r="A139" s="4"/>
       <c r="B139" s="1" t="s">
         <v>29</v>
@@ -9888,8 +11413,11 @@
       <c r="D139" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15">
+      <c r="E139" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15">
       <c r="A140" s="4"/>
       <c r="B140" s="1" t="s">
         <v>30</v>
@@ -9900,8 +11428,11 @@
       <c r="D140" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15">
+      <c r="E140" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15">
       <c r="A141" s="4"/>
       <c r="B141" s="1" t="s">
         <v>31</v>
@@ -9912,8 +11443,11 @@
       <c r="D141" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15">
+      <c r="E141" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15">
       <c r="A142" s="4"/>
       <c r="B142" s="1" t="s">
         <v>32</v>
@@ -9924,8 +11458,11 @@
       <c r="D142" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15">
+      <c r="E142" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15">
       <c r="A143" s="4"/>
       <c r="B143" s="1" t="s">
         <v>33</v>
@@ -9936,8 +11473,11 @@
       <c r="D143" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15">
+      <c r="E143" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15">
       <c r="A144" s="4"/>
       <c r="B144" s="1" t="s">
         <v>34</v>
@@ -9948,8 +11488,11 @@
       <c r="D144" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15">
+      <c r="E144" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15">
       <c r="A145" s="4"/>
       <c r="B145" s="1" t="s">
         <v>35</v>
@@ -9960,8 +11503,11 @@
       <c r="D145" s="3" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15">
+      <c r="E145" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15">
       <c r="A146" s="4"/>
       <c r="B146" s="1" t="s">
         <v>36</v>
@@ -9972,8 +11518,11 @@
       <c r="D146" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="15">
+      <c r="E146" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15">
       <c r="A147" s="4"/>
       <c r="B147" s="1" t="s">
         <v>38</v>
@@ -9984,8 +11533,11 @@
       <c r="D147" s="3" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15">
+      <c r="E147" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15">
       <c r="A148" s="4"/>
       <c r="B148" s="1" t="s">
         <v>39</v>
@@ -9996,8 +11548,11 @@
       <c r="D148" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15">
+      <c r="E148" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15">
       <c r="A149" s="4"/>
       <c r="B149" s="1" t="s">
         <v>40</v>
@@ -10008,8 +11563,11 @@
       <c r="D149" s="3" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="15">
+      <c r="E149" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15">
       <c r="A150" s="4"/>
       <c r="B150" s="1" t="s">
         <v>41</v>
@@ -10020,8 +11578,11 @@
       <c r="D150" s="3" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15">
+      <c r="E150" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15">
       <c r="A151" s="4"/>
       <c r="B151" s="1" t="s">
         <v>42</v>
@@ -10032,8 +11593,11 @@
       <c r="D151" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15">
+      <c r="E151" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15">
       <c r="A152" s="4"/>
       <c r="B152" s="1" t="s">
         <v>43</v>
@@ -10044,8 +11608,11 @@
       <c r="D152" s="3" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15">
+      <c r="E152" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15">
       <c r="A153" s="4"/>
       <c r="B153" s="1" t="s">
         <v>44</v>
@@ -10056,8 +11623,11 @@
       <c r="D153" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="15">
+      <c r="E153" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15">
       <c r="A154" s="4"/>
       <c r="B154" s="1" t="s">
         <v>45</v>
@@ -10068,8 +11638,11 @@
       <c r="D154" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15">
+      <c r="E154" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15">
       <c r="A155" s="4"/>
       <c r="B155" s="1" t="s">
         <v>46</v>
@@ -10080,8 +11653,11 @@
       <c r="D155" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15">
+      <c r="E155" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15">
       <c r="A156" s="4"/>
       <c r="B156" s="1" t="s">
         <v>47</v>
@@ -10092,8 +11668,11 @@
       <c r="D156" s="3" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15">
+      <c r="E156" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15">
       <c r="A157" s="4"/>
       <c r="B157" s="1" t="s">
         <v>49</v>
@@ -10104,8 +11683,11 @@
       <c r="D157" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15">
+      <c r="E157" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15">
       <c r="A158" s="4"/>
       <c r="B158" s="1" t="s">
         <v>50</v>
@@ -10116,8 +11698,11 @@
       <c r="D158" s="3" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="15">
+      <c r="E158" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15">
       <c r="A159" s="4"/>
       <c r="B159" s="1" t="s">
         <v>51</v>
@@ -10128,8 +11713,11 @@
       <c r="D159" s="3" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="15">
+      <c r="E159" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15">
       <c r="A160" s="4"/>
       <c r="B160" s="1" t="s">
         <v>52</v>
@@ -10140,8 +11728,11 @@
       <c r="D160" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="15">
+      <c r="E160" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15">
       <c r="A161" s="4"/>
       <c r="B161" s="1" t="s">
         <v>53</v>
@@ -10152,8 +11743,11 @@
       <c r="D161" s="3" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="15">
+      <c r="E161" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15">
       <c r="A162" s="4"/>
       <c r="B162" s="1" t="s">
         <v>54</v>
@@ -10164,8 +11758,11 @@
       <c r="D162" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="15">
+      <c r="E162" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15">
       <c r="A163" s="4"/>
       <c r="B163" s="1" t="s">
         <v>55</v>
@@ -10176,8 +11773,11 @@
       <c r="D163" s="3" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="15">
+      <c r="E163" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15">
       <c r="A164" s="4"/>
       <c r="B164" s="1" t="s">
         <v>56</v>
@@ -10188,8 +11788,11 @@
       <c r="D164" s="3" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="15">
+      <c r="E164" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15">
       <c r="A165" s="4"/>
       <c r="B165" s="1" t="s">
         <v>57</v>
@@ -10200,8 +11803,11 @@
       <c r="D165" s="3" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="15">
+      <c r="E165" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15">
       <c r="A166" s="4"/>
       <c r="B166" s="1" t="s">
         <v>58</v>
@@ -10212,8 +11818,11 @@
       <c r="D166" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="15">
+      <c r="E166" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15">
       <c r="A167" s="1" t="s">
         <v>59</v>
       </c>
@@ -10226,8 +11835,11 @@
       <c r="D167" s="3" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="15">
+      <c r="E167" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15">
       <c r="A168" s="4"/>
       <c r="B168" s="1" t="s">
         <v>4</v>
@@ -10238,8 +11850,11 @@
       <c r="D168" s="3" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15">
+      <c r="E168" t="s">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15">
       <c r="A169" s="4"/>
       <c r="B169" s="1" t="s">
         <v>5</v>
@@ -10250,8 +11865,11 @@
       <c r="D169" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15">
+      <c r="E169" t="s">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15">
       <c r="A170" s="4"/>
       <c r="B170" s="1" t="s">
         <v>6</v>
@@ -10262,8 +11880,11 @@
       <c r="D170" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="15">
+      <c r="E170" t="s">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15">
       <c r="A171" s="4"/>
       <c r="B171" s="1" t="s">
         <v>7</v>
@@ -10274,8 +11895,11 @@
       <c r="D171" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15">
+      <c r="E171" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15">
       <c r="A172" s="4"/>
       <c r="B172" s="1" t="s">
         <v>9</v>
@@ -10286,8 +11910,11 @@
       <c r="D172" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15">
+      <c r="E172" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15">
       <c r="A173" s="4"/>
       <c r="B173" s="1" t="s">
         <v>10</v>
@@ -10298,8 +11925,11 @@
       <c r="D173" s="3" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="15">
+      <c r="E173" t="s">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15">
       <c r="A174" s="4"/>
       <c r="B174" s="1" t="s">
         <v>11</v>
@@ -10310,8 +11940,11 @@
       <c r="D174" s="3" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15">
+      <c r="E174" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15">
       <c r="A175" s="4"/>
       <c r="B175" s="1" t="s">
         <v>12</v>
@@ -10322,8 +11955,11 @@
       <c r="D175" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="15">
+      <c r="E175" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15">
       <c r="A176" s="4"/>
       <c r="B176" s="1" t="s">
         <v>13</v>
@@ -10334,8 +11970,11 @@
       <c r="D176" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15">
+      <c r="E176" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15">
       <c r="A177" s="4"/>
       <c r="B177" s="1" t="s">
         <v>16</v>
@@ -10346,8 +11985,11 @@
       <c r="D177" s="3" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="15">
+      <c r="E177" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15">
       <c r="A178" s="4"/>
       <c r="B178" s="1" t="s">
         <v>17</v>
@@ -10358,8 +12000,11 @@
       <c r="D178" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="15">
+      <c r="E178" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15">
       <c r="A179" s="4"/>
       <c r="B179" s="1" t="s">
         <v>18</v>
@@ -10370,8 +12015,11 @@
       <c r="D179" s="3" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="15">
+      <c r="E179" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15">
       <c r="A180" s="4"/>
       <c r="B180" s="1" t="s">
         <v>19</v>
@@ -10382,8 +12030,11 @@
       <c r="D180" s="3" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="15">
+      <c r="E180" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15">
       <c r="A181" s="4"/>
       <c r="B181" s="1" t="s">
         <v>20</v>
@@ -10394,8 +12045,11 @@
       <c r="D181" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="15">
+      <c r="E181" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15">
       <c r="A182" s="4"/>
       <c r="B182" s="1" t="s">
         <v>21</v>
@@ -10406,8 +12060,11 @@
       <c r="D182" s="3" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="15">
+      <c r="E182" t="s">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15">
       <c r="A183" s="4"/>
       <c r="B183" s="1" t="s">
         <v>22</v>
@@ -10418,8 +12075,11 @@
       <c r="D183" s="3" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="15">
+      <c r="E183" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15">
       <c r="A184" s="4"/>
       <c r="B184" s="1" t="s">
         <v>23</v>
@@ -10430,8 +12090,11 @@
       <c r="D184" s="3" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="15">
+      <c r="E184" t="s">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15">
       <c r="A185" s="4"/>
       <c r="B185" s="1" t="s">
         <v>24</v>
@@ -10442,8 +12105,11 @@
       <c r="D185" s="3" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="15">
+      <c r="E185" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15">
       <c r="A186" s="4"/>
       <c r="B186" s="1" t="s">
         <v>25</v>
@@ -10454,8 +12120,11 @@
       <c r="D186" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="15">
+      <c r="E186" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15">
       <c r="A187" s="4"/>
       <c r="B187" s="1" t="s">
         <v>27</v>
@@ -10466,8 +12135,11 @@
       <c r="D187" s="3" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="15">
+      <c r="E187" t="s">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15">
       <c r="A188" s="4"/>
       <c r="B188" s="1" t="s">
         <v>28</v>
@@ -10478,8 +12150,11 @@
       <c r="D188" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="15">
+      <c r="E188" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15">
       <c r="A189" s="4"/>
       <c r="B189" s="1" t="s">
         <v>29</v>
@@ -10490,8 +12165,11 @@
       <c r="D189" s="3" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="15">
+      <c r="E189" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15">
       <c r="A190" s="4"/>
       <c r="B190" s="1" t="s">
         <v>30</v>
@@ -10502,8 +12180,11 @@
       <c r="D190" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="15">
+      <c r="E190" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15">
       <c r="A191" s="4"/>
       <c r="B191" s="1" t="s">
         <v>31</v>
@@ -10514,8 +12195,11 @@
       <c r="D191" s="3" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="15">
+      <c r="E191" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15">
       <c r="A192" s="4"/>
       <c r="B192" s="1" t="s">
         <v>32</v>
@@ -10526,8 +12210,11 @@
       <c r="D192" s="3" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="15">
+      <c r="E192" t="s">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15">
       <c r="A193" s="4"/>
       <c r="B193" s="1" t="s">
         <v>33</v>
@@ -10538,8 +12225,11 @@
       <c r="D193" s="3" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="15">
+      <c r="E193" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15">
       <c r="A194" s="4"/>
       <c r="B194" s="1" t="s">
         <v>34</v>
@@ -10549,6 +12239,9 @@
       </c>
       <c r="D194" s="3" t="s">
         <v>271</v>
+      </c>
+      <c r="E194" t="s">
+        <v>2618</v>
       </c>
     </row>
   </sheetData>
@@ -10562,7 +12255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA62E1F-F065-4408-8813-68D62D849FE1}">
   <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -13509,10 +15202,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF04CE-5AA9-4293-BCF3-4C46C4C09AE1}">
-  <dimension ref="A1:G194"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -13520,10 +15213,11 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13542,8 +15236,11 @@
       <c r="G1" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
+      <c r="H1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -13562,8 +15259,14 @@
       <c r="G2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+      <c r="H2" t="s">
+        <v>2619</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -13580,8 +15283,14 @@
       <c r="G3" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15">
+      <c r="H3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
         <v>5</v>
@@ -13598,8 +15307,14 @@
       <c r="G4" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
+      <c r="H4" t="s">
+        <v>2620</v>
+      </c>
+      <c r="I4" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
@@ -13616,8 +15331,14 @@
       <c r="G5" t="s">
         <v>1408</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="15">
+      <c r="H5" t="s">
+        <v>2621</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>7</v>
@@ -13634,8 +15355,14 @@
       <c r="G6" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15">
+      <c r="H6" t="s">
+        <v>2622</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -13654,8 +15381,14 @@
       <c r="G7" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="15">
+      <c r="H7" t="s">
+        <v>2431</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>4</v>
@@ -13672,8 +15405,14 @@
       <c r="G8" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15">
+      <c r="H8" t="s">
+        <v>2432</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>5</v>
@@ -13690,8 +15429,14 @@
       <c r="G9" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15">
+      <c r="H9" t="s">
+        <v>2623</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>6</v>
@@ -13708,8 +15453,14 @@
       <c r="G10" t="s">
         <v>1410</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15">
+      <c r="H10" t="s">
+        <v>2434</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>7</v>
@@ -13726,8 +15477,14 @@
       <c r="G11" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15">
+      <c r="H11" t="s">
+        <v>2624</v>
+      </c>
+      <c r="I11" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>9</v>
@@ -13744,8 +15501,14 @@
       <c r="G12" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15">
+      <c r="H12" t="s">
+        <v>2436</v>
+      </c>
+      <c r="I12" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
         <v>10</v>
@@ -13762,8 +15525,14 @@
       <c r="G13" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15">
+      <c r="H13" t="s">
+        <v>2437</v>
+      </c>
+      <c r="I13" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>11</v>
@@ -13780,8 +15549,14 @@
       <c r="G14" t="s">
         <v>1412</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="15">
+      <c r="H14" t="s">
+        <v>2438</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
         <v>12</v>
@@ -13798,8 +15573,14 @@
       <c r="G15" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15">
+      <c r="H15" t="s">
+        <v>2439</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -13816,8 +15597,14 @@
       <c r="G16" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
+      <c r="H16" t="s">
+        <v>2625</v>
+      </c>
+      <c r="I16" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
@@ -13836,8 +15623,14 @@
       <c r="G17" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
+      <c r="H17" t="s">
+        <v>2441</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
         <v>4</v>
@@ -13854,8 +15647,14 @@
       <c r="G18" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
+      <c r="H18" t="s">
+        <v>2626</v>
+      </c>
+      <c r="I18" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>5</v>
@@ -13872,8 +15671,14 @@
       <c r="G19" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
+      <c r="H19" t="s">
+        <v>2627</v>
+      </c>
+      <c r="I19" t="s">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
         <v>6</v>
@@ -13890,8 +15695,14 @@
       <c r="G20" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
+      <c r="H20" t="s">
+        <v>2444</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
         <v>7</v>
@@ -13908,8 +15719,14 @@
       <c r="G21" t="s">
         <v>1415</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15">
+      <c r="H21" t="s">
+        <v>2445</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
         <v>9</v>
@@ -13926,8 +15743,14 @@
       <c r="G22" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15">
+      <c r="H22" t="s">
+        <v>2446</v>
+      </c>
+      <c r="I22" t="s">
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -13944,8 +15767,14 @@
       <c r="G23" t="s">
         <v>1416</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15">
+      <c r="H23" t="s">
+        <v>2628</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
         <v>11</v>
@@ -13962,8 +15791,14 @@
       <c r="G24" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15">
+      <c r="H24" t="s">
+        <v>2629</v>
+      </c>
+      <c r="I24" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>12</v>
@@ -13980,8 +15815,14 @@
       <c r="G25" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15">
+      <c r="H25" t="s">
+        <v>2449</v>
+      </c>
+      <c r="I25" t="s">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>13</v>
@@ -13998,8 +15839,14 @@
       <c r="G26" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="15">
+      <c r="H26" t="s">
+        <v>2630</v>
+      </c>
+      <c r="I26" t="s">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -14018,8 +15865,11 @@
       <c r="G27" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="15">
+      <c r="H27" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
@@ -14036,8 +15886,11 @@
       <c r="G28" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15">
+      <c r="H28" t="s">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
@@ -14054,8 +15907,11 @@
       <c r="G29" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15">
+      <c r="H29" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>6</v>
@@ -14072,8 +15928,11 @@
       <c r="G30" t="s">
         <v>1420</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="15">
+      <c r="H30" t="s">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
@@ -14090,8 +15949,11 @@
       <c r="G31" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="15">
+      <c r="H31" t="s">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>9</v>
@@ -14108,8 +15970,11 @@
       <c r="G32" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="15">
+      <c r="H32" t="s">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
         <v>10</v>
@@ -14126,8 +15991,11 @@
       <c r="G33" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="15">
+      <c r="H33" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
         <v>11</v>
@@ -14144,8 +16012,11 @@
       <c r="G34" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="15">
+      <c r="H34" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>12</v>
@@ -14162,8 +16033,11 @@
       <c r="G35" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="15">
+      <c r="H35" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15">
       <c r="A36" s="4"/>
       <c r="B36" s="4" t="s">
         <v>13</v>
@@ -14180,8 +16054,11 @@
       <c r="G36" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15">
+      <c r="H36" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>16</v>
@@ -14198,8 +16075,11 @@
       <c r="G37" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="15">
+      <c r="H37" t="s">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15">
       <c r="A38" s="4"/>
       <c r="B38" s="4" t="s">
         <v>17</v>
@@ -14216,8 +16096,11 @@
       <c r="G38" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="15">
+      <c r="H38" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>18</v>
@@ -14234,8 +16117,11 @@
       <c r="G39" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="15">
+      <c r="H39" t="s">
+        <v>2463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
         <v>19</v>
@@ -14252,8 +16138,11 @@
       <c r="G40" t="s">
         <v>1422</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15">
+      <c r="H40" t="s">
+        <v>2464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
         <v>20</v>
@@ -14270,8 +16159,11 @@
       <c r="G41" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="15">
+      <c r="H41" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
         <v>21</v>
@@ -14288,8 +16180,11 @@
       <c r="G42" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15">
+      <c r="H42" t="s">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
         <v>22</v>
@@ -14306,8 +16201,11 @@
       <c r="G43" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="15">
+      <c r="H43" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15">
       <c r="A44" s="4"/>
       <c r="B44" s="4" t="s">
         <v>23</v>
@@ -14324,8 +16222,11 @@
       <c r="G44" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="15">
+      <c r="H44" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>24</v>
@@ -14342,8 +16243,11 @@
       <c r="G45" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="15">
+      <c r="H45" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15">
       <c r="A46" s="4"/>
       <c r="B46" s="4" t="s">
         <v>25</v>
@@ -14360,8 +16264,11 @@
       <c r="G46" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="15">
+      <c r="H46" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15">
       <c r="A47" s="4" t="s">
         <v>26</v>
       </c>
@@ -14380,8 +16287,11 @@
       <c r="G47" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="15">
+      <c r="H47" t="s">
+        <v>2471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15">
       <c r="A48" s="4"/>
       <c r="B48" s="4" t="s">
         <v>4</v>
@@ -14398,8 +16308,11 @@
       <c r="G48" t="s">
         <v>1424</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="15">
+      <c r="H48" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
         <v>5</v>
@@ -14416,8 +16329,11 @@
       <c r="G49" t="s">
         <v>1425</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="15">
+      <c r="H49" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
         <v>6</v>
@@ -14434,8 +16350,11 @@
       <c r="G50" t="s">
         <v>1426</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="15">
+      <c r="H50" t="s">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>7</v>
@@ -14452,8 +16371,11 @@
       <c r="G51" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="15">
+      <c r="H51" t="s">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15">
       <c r="A52" s="4"/>
       <c r="B52" s="4" t="s">
         <v>9</v>
@@ -14470,8 +16392,11 @@
       <c r="G52" t="s">
         <v>1427</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="15">
+      <c r="H52" t="s">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15">
       <c r="A53" s="4"/>
       <c r="B53" s="4" t="s">
         <v>10</v>
@@ -14488,8 +16413,11 @@
       <c r="G53" t="s">
         <v>1428</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="15">
+      <c r="H53" t="s">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>11</v>
@@ -14506,8 +16434,11 @@
       <c r="G54" t="s">
         <v>1429</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="15">
+      <c r="H54" t="s">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
         <v>12</v>
@@ -14524,8 +16455,11 @@
       <c r="G55" t="s">
         <v>1430</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="15">
+      <c r="H55" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>13</v>
@@ -14542,8 +16476,11 @@
       <c r="G56" t="s">
         <v>1431</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="15">
+      <c r="H56" t="s">
+        <v>2651</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
         <v>16</v>
@@ -14560,8 +16497,11 @@
       <c r="G57" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="15">
+      <c r="H57" t="s">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
         <v>17</v>
@@ -14578,8 +16518,11 @@
       <c r="G58" t="s">
         <v>1432</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="15">
+      <c r="H58" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15">
       <c r="A59" s="4"/>
       <c r="B59" s="4" t="s">
         <v>18</v>
@@ -14596,8 +16539,11 @@
       <c r="G59" t="s">
         <v>1433</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="15">
+      <c r="H59" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>19</v>
@@ -14614,8 +16560,11 @@
       <c r="G60" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="15">
+      <c r="H60" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15">
       <c r="A61" s="4"/>
       <c r="B61" s="4" t="s">
         <v>20</v>
@@ -14632,8 +16581,11 @@
       <c r="G61" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="15">
+      <c r="H61" t="s">
+        <v>2485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15">
       <c r="A62" s="4"/>
       <c r="B62" s="4" t="s">
         <v>21</v>
@@ -14650,8 +16602,11 @@
       <c r="G62" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="15">
+      <c r="H62" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
         <v>22</v>
@@ -14668,8 +16623,11 @@
       <c r="G63" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="15">
+      <c r="H63" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
         <v>23</v>
@@ -14686,8 +16644,11 @@
       <c r="G64" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="15">
+      <c r="H64" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>24</v>
@@ -14704,8 +16665,11 @@
       <c r="G65" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="15">
+      <c r="H65" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
         <v>25</v>
@@ -14722,8 +16686,11 @@
       <c r="G66" t="s">
         <v>1438</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="15">
+      <c r="H66" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>27</v>
@@ -14740,8 +16707,11 @@
       <c r="G67" t="s">
         <v>1439</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="15">
+      <c r="H67" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15">
       <c r="A68" s="4"/>
       <c r="B68" s="4" t="s">
         <v>28</v>
@@ -14758,8 +16728,11 @@
       <c r="G68" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="15">
+      <c r="H68" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15">
       <c r="A69" s="4"/>
       <c r="B69" s="4" t="s">
         <v>29</v>
@@ -14776,8 +16749,11 @@
       <c r="G69" t="s">
         <v>1441</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="15">
+      <c r="H69" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>30</v>
@@ -14794,8 +16770,11 @@
       <c r="G70" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="15">
+      <c r="H70" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>31</v>
@@ -14812,8 +16791,11 @@
       <c r="G71" t="s">
         <v>1442</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="15">
+      <c r="H71" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
         <v>32</v>
@@ -14830,8 +16812,11 @@
       <c r="G72" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15">
+      <c r="H72" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
         <v>33</v>
@@ -14848,8 +16833,11 @@
       <c r="G73" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="15">
+      <c r="H73" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>34</v>
@@ -14866,8 +16854,11 @@
       <c r="G74" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15">
+      <c r="H74" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
         <v>35</v>
@@ -14884,8 +16875,11 @@
       <c r="G75" t="s">
         <v>1445</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="15">
+      <c r="H75" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
         <v>36</v>
@@ -14902,8 +16896,11 @@
       <c r="G76" t="s">
         <v>1446</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15">
+      <c r="H76" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15">
       <c r="A77" s="4" t="s">
         <v>37</v>
       </c>
@@ -14922,8 +16919,11 @@
       <c r="G77" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="15">
+      <c r="H77" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15">
       <c r="A78" s="4"/>
       <c r="B78" s="4" t="s">
         <v>4</v>
@@ -14940,8 +16940,11 @@
       <c r="G78" t="s">
         <v>1447</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="15">
+      <c r="H78" t="s">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15">
       <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
         <v>5</v>
@@ -14958,8 +16961,11 @@
       <c r="G79" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="15">
+      <c r="H79" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15">
       <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
         <v>6</v>
@@ -14976,8 +16982,11 @@
       <c r="G80" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="15">
+      <c r="H80" t="s">
+        <v>2504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>7</v>
@@ -14994,8 +17003,11 @@
       <c r="G81" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="15">
+      <c r="H81" t="s">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>9</v>
@@ -15012,8 +17024,11 @@
       <c r="G82" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="15">
+      <c r="H82" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>10</v>
@@ -15030,8 +17045,11 @@
       <c r="G83" t="s">
         <v>1449</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="15">
+      <c r="H83" t="s">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15">
       <c r="A84" s="4"/>
       <c r="B84" s="4" t="s">
         <v>11</v>
@@ -15048,8 +17066,11 @@
       <c r="G84" t="s">
         <v>1450</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="15">
+      <c r="H84" t="s">
+        <v>2674</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15">
       <c r="A85" s="4"/>
       <c r="B85" s="4" t="s">
         <v>12</v>
@@ -15066,8 +17087,11 @@
       <c r="G85" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="15">
+      <c r="H85" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15">
       <c r="A86" s="4"/>
       <c r="B86" s="4" t="s">
         <v>13</v>
@@ -15084,8 +17108,11 @@
       <c r="G86" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="15">
+      <c r="H86" t="s">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15">
       <c r="A87" s="4"/>
       <c r="B87" s="4" t="s">
         <v>16</v>
@@ -15102,8 +17129,11 @@
       <c r="G87" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="15">
+      <c r="H87" t="s">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>17</v>
@@ -15120,8 +17150,11 @@
       <c r="G88" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="15">
+      <c r="H88" t="s">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15">
       <c r="A89" s="4"/>
       <c r="B89" s="4" t="s">
         <v>18</v>
@@ -15138,8 +17171,11 @@
       <c r="G89" t="s">
         <v>1452</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="15">
+      <c r="H89" t="s">
+        <v>2676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15">
       <c r="A90" s="4"/>
       <c r="B90" s="1" t="s">
         <v>19</v>
@@ -15156,8 +17192,11 @@
       <c r="G90" t="s">
         <v>1453</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="15">
+      <c r="H90" t="s">
+        <v>2514</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15">
       <c r="A91" s="4"/>
       <c r="B91" s="1" t="s">
         <v>20</v>
@@ -15174,8 +17213,11 @@
       <c r="G91" t="s">
         <v>1454</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="15">
+      <c r="H91" t="s">
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15">
       <c r="A92" s="4"/>
       <c r="B92" s="1" t="s">
         <v>21</v>
@@ -15192,8 +17234,11 @@
       <c r="G92" t="s">
         <v>1455</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="15">
+      <c r="H92" t="s">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15">
       <c r="A93" s="4"/>
       <c r="B93" s="1" t="s">
         <v>22</v>
@@ -15210,8 +17255,11 @@
       <c r="G93" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="15">
+      <c r="H93" t="s">
+        <v>2677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="15">
       <c r="A94" s="4"/>
       <c r="B94" s="1" t="s">
         <v>23</v>
@@ -15228,8 +17276,11 @@
       <c r="G94" t="s">
         <v>1457</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="15">
+      <c r="H94" t="s">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="15">
       <c r="A95" s="4"/>
       <c r="B95" s="1" t="s">
         <v>24</v>
@@ -15246,8 +17297,11 @@
       <c r="G95" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="15">
+      <c r="H95" t="s">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="15">
       <c r="A96" s="4"/>
       <c r="B96" s="1" t="s">
         <v>25</v>
@@ -15264,8 +17318,11 @@
       <c r="G96" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="15">
+      <c r="H96" t="s">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="15">
       <c r="A97" s="4"/>
       <c r="B97" s="1" t="s">
         <v>27</v>
@@ -15282,8 +17339,11 @@
       <c r="G97" t="s">
         <v>1459</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="15">
+      <c r="H97" t="s">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="15">
       <c r="A98" s="4"/>
       <c r="B98" s="1" t="s">
         <v>28</v>
@@ -15300,8 +17360,11 @@
       <c r="G98" t="s">
         <v>1460</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="15">
+      <c r="H98" t="s">
+        <v>2679</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="15">
       <c r="A99" s="4"/>
       <c r="B99" s="1" t="s">
         <v>29</v>
@@ -15318,8 +17381,11 @@
       <c r="G99" t="s">
         <v>1461</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="15">
+      <c r="H99" t="s">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="15">
       <c r="A100" s="4"/>
       <c r="B100" s="1" t="s">
         <v>30</v>
@@ -15336,8 +17402,11 @@
       <c r="G100" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="15">
+      <c r="H100" t="s">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="15">
       <c r="A101" s="4"/>
       <c r="B101" s="1" t="s">
         <v>31</v>
@@ -15354,8 +17423,11 @@
       <c r="G101" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="15">
+      <c r="H101" t="s">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="15">
       <c r="A102" s="4"/>
       <c r="B102" s="1" t="s">
         <v>32</v>
@@ -15372,8 +17444,11 @@
       <c r="G102" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="15">
+      <c r="H102" t="s">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="15">
       <c r="A103" s="4"/>
       <c r="B103" s="1" t="s">
         <v>33</v>
@@ -15390,8 +17465,11 @@
       <c r="G103" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="15">
+      <c r="H103" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="15">
       <c r="A104" s="4"/>
       <c r="B104" s="1" t="s">
         <v>34</v>
@@ -15408,8 +17486,11 @@
       <c r="G104" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="15">
+      <c r="H104" t="s">
+        <v>2683</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="15">
       <c r="A105" s="4"/>
       <c r="B105" s="1" t="s">
         <v>35</v>
@@ -15426,8 +17507,11 @@
       <c r="G105" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="15">
+      <c r="H105" t="s">
+        <v>2529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="15">
       <c r="A106" s="4"/>
       <c r="B106" s="1" t="s">
         <v>36</v>
@@ -15444,8 +17528,11 @@
       <c r="G106" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="15">
+      <c r="H106" t="s">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="15">
       <c r="A107" s="4"/>
       <c r="B107" s="1" t="s">
         <v>38</v>
@@ -15462,8 +17549,11 @@
       <c r="G107" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="15">
+      <c r="H107" t="s">
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="15">
       <c r="A108" s="4"/>
       <c r="B108" s="1" t="s">
         <v>39</v>
@@ -15480,8 +17570,11 @@
       <c r="G108" t="s">
         <v>1464</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="15">
+      <c r="H108" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="15">
       <c r="A109" s="4"/>
       <c r="B109" s="1" t="s">
         <v>40</v>
@@ -15498,8 +17591,11 @@
       <c r="G109" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="15">
+      <c r="H109" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="15">
       <c r="A110" s="4"/>
       <c r="B110" s="1" t="s">
         <v>41</v>
@@ -15516,8 +17612,11 @@
       <c r="G110" t="s">
         <v>1466</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="15">
+      <c r="H110" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="15">
       <c r="A111" s="4"/>
       <c r="B111" s="1" t="s">
         <v>42</v>
@@ -15534,8 +17633,11 @@
       <c r="G111" t="s">
         <v>1467</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="15">
+      <c r="H111" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="15">
       <c r="A112" s="4"/>
       <c r="B112" s="1" t="s">
         <v>43</v>
@@ -15552,8 +17654,11 @@
       <c r="G112" t="s">
         <v>1468</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="15">
+      <c r="H112" t="s">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="15">
       <c r="A113" s="4"/>
       <c r="B113" s="1" t="s">
         <v>44</v>
@@ -15570,8 +17675,11 @@
       <c r="G113" t="s">
         <v>1469</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="15">
+      <c r="H113" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="15">
       <c r="A114" s="4"/>
       <c r="B114" s="1" t="s">
         <v>45</v>
@@ -15588,8 +17696,11 @@
       <c r="G114" t="s">
         <v>1470</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="15">
+      <c r="H114" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="15">
       <c r="A115" s="4"/>
       <c r="B115" s="1" t="s">
         <v>46</v>
@@ -15606,8 +17717,11 @@
       <c r="G115" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="15">
+      <c r="H115" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="15">
       <c r="A116" s="4"/>
       <c r="B116" s="1" t="s">
         <v>47</v>
@@ -15624,8 +17738,11 @@
       <c r="G116" t="s">
         <v>1471</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="15">
+      <c r="H116" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="15">
       <c r="A117" s="1" t="s">
         <v>48</v>
       </c>
@@ -15644,8 +17761,11 @@
       <c r="G117" t="s">
         <v>1500</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="15">
+      <c r="H117" t="s">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="15">
       <c r="A118" s="4"/>
       <c r="B118" s="1" t="s">
         <v>4</v>
@@ -15662,8 +17782,11 @@
       <c r="G118" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="15">
+      <c r="H118" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="15">
       <c r="A119" s="4"/>
       <c r="B119" s="1" t="s">
         <v>5</v>
@@ -15680,8 +17803,11 @@
       <c r="G119" t="s">
         <v>1501</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="15">
+      <c r="H119" t="s">
+        <v>2693</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="15">
       <c r="A120" s="4"/>
       <c r="B120" s="1" t="s">
         <v>6</v>
@@ -15698,8 +17824,11 @@
       <c r="G120" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="15">
+      <c r="H120" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15">
       <c r="A121" s="4"/>
       <c r="B121" s="1" t="s">
         <v>7</v>
@@ -15716,8 +17845,11 @@
       <c r="G121" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="15">
+      <c r="H121" t="s">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15">
       <c r="A122" s="4"/>
       <c r="B122" s="1" t="s">
         <v>9</v>
@@ -15734,8 +17866,11 @@
       <c r="G122" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="15">
+      <c r="H122" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15">
       <c r="A123" s="4"/>
       <c r="B123" s="1" t="s">
         <v>10</v>
@@ -15752,8 +17887,11 @@
       <c r="G123" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="15">
+      <c r="H123" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15">
       <c r="A124" s="4"/>
       <c r="B124" s="1" t="s">
         <v>11</v>
@@ -15770,8 +17908,11 @@
       <c r="G124" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="15">
+      <c r="H124" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15">
       <c r="A125" s="4"/>
       <c r="B125" s="1" t="s">
         <v>12</v>
@@ -15788,8 +17929,11 @@
       <c r="G125" t="s">
         <v>1503</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="15">
+      <c r="H125" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15">
       <c r="A126" s="4"/>
       <c r="B126" s="1" t="s">
         <v>13</v>
@@ -15806,8 +17950,11 @@
       <c r="G126" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="15">
+      <c r="H126" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15">
       <c r="A127" s="4"/>
       <c r="B127" s="1" t="s">
         <v>16</v>
@@ -15824,8 +17971,11 @@
       <c r="G127" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="15">
+      <c r="H127" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15">
       <c r="A128" s="4"/>
       <c r="B128" s="1" t="s">
         <v>17</v>
@@ -15842,8 +17992,11 @@
       <c r="G128" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="15">
+      <c r="H128" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="15">
       <c r="A129" s="4"/>
       <c r="B129" s="1" t="s">
         <v>18</v>
@@ -15860,8 +18013,11 @@
       <c r="G129" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="15">
+      <c r="H129" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15">
       <c r="A130" s="4"/>
       <c r="B130" s="1" t="s">
         <v>19</v>
@@ -15878,8 +18034,11 @@
       <c r="G130" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="15">
+      <c r="H130" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15">
       <c r="A131" s="4"/>
       <c r="B131" s="1" t="s">
         <v>20</v>
@@ -15896,8 +18055,11 @@
       <c r="G131" t="s">
         <v>1505</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="15">
+      <c r="H131" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="15">
       <c r="A132" s="4"/>
       <c r="B132" s="1" t="s">
         <v>21</v>
@@ -15914,8 +18076,11 @@
       <c r="G132" t="s">
         <v>1506</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="15">
+      <c r="H132" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="15">
       <c r="A133" s="4"/>
       <c r="B133" s="1" t="s">
         <v>22</v>
@@ -15932,8 +18097,11 @@
       <c r="G133" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="15">
+      <c r="H133" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="15">
       <c r="A134" s="4"/>
       <c r="B134" s="1" t="s">
         <v>23</v>
@@ -15950,8 +18118,11 @@
       <c r="G134" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="15">
+      <c r="H134" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="15">
       <c r="A135" s="4"/>
       <c r="B135" s="1" t="s">
         <v>24</v>
@@ -15968,8 +18139,11 @@
       <c r="G135" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="15">
+      <c r="H135" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="15">
       <c r="A136" s="4"/>
       <c r="B136" s="1" t="s">
         <v>25</v>
@@ -15986,8 +18160,11 @@
       <c r="G136" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="15">
+      <c r="H136" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="15">
       <c r="A137" s="4"/>
       <c r="B137" s="1" t="s">
         <v>27</v>
@@ -16004,8 +18181,11 @@
       <c r="G137" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="15">
+      <c r="H137" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="15">
       <c r="A138" s="4"/>
       <c r="B138" s="1" t="s">
         <v>28</v>
@@ -16022,8 +18202,11 @@
       <c r="G138" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="15">
+      <c r="H138" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="15">
       <c r="A139" s="4"/>
       <c r="B139" s="1" t="s">
         <v>29</v>
@@ -16040,8 +18223,11 @@
       <c r="G139" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="15">
+      <c r="H139" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="15">
       <c r="A140" s="4"/>
       <c r="B140" s="1" t="s">
         <v>30</v>
@@ -16058,8 +18244,11 @@
       <c r="G140" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="15">
+      <c r="H140" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="15">
       <c r="A141" s="4"/>
       <c r="B141" s="1" t="s">
         <v>31</v>
@@ -16076,8 +18265,11 @@
       <c r="G141" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="15">
+      <c r="H141" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="15">
       <c r="A142" s="4"/>
       <c r="B142" s="1" t="s">
         <v>32</v>
@@ -16094,8 +18286,11 @@
       <c r="G142" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="15">
+      <c r="H142" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15">
       <c r="A143" s="4"/>
       <c r="B143" s="1" t="s">
         <v>33</v>
@@ -16112,8 +18307,11 @@
       <c r="G143" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="15">
+      <c r="H143" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="15">
       <c r="A144" s="4"/>
       <c r="B144" s="1" t="s">
         <v>34</v>
@@ -16130,8 +18328,11 @@
       <c r="G144" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="15">
+      <c r="H144" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="15">
       <c r="A145" s="4"/>
       <c r="B145" s="1" t="s">
         <v>35</v>
@@ -16148,8 +18349,11 @@
       <c r="G145" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="15">
+      <c r="H145" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15">
       <c r="A146" s="4"/>
       <c r="B146" s="1" t="s">
         <v>36</v>
@@ -16166,8 +18370,11 @@
       <c r="G146" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="15">
+      <c r="H146" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15">
       <c r="A147" s="4"/>
       <c r="B147" s="1" t="s">
         <v>38</v>
@@ -16184,8 +18391,11 @@
       <c r="G147" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="15">
+      <c r="H147" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="15">
       <c r="A148" s="4"/>
       <c r="B148" s="1" t="s">
         <v>39</v>
@@ -16202,8 +18412,11 @@
       <c r="G148" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="15">
+      <c r="H148" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="15">
       <c r="A149" s="4"/>
       <c r="B149" s="1" t="s">
         <v>40</v>
@@ -16220,8 +18433,11 @@
       <c r="G149" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="15">
+      <c r="H149" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="15">
       <c r="A150" s="4"/>
       <c r="B150" s="1" t="s">
         <v>41</v>
@@ -16238,8 +18454,11 @@
       <c r="G150" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="15">
+      <c r="H150" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="15">
       <c r="A151" s="4"/>
       <c r="B151" s="1" t="s">
         <v>42</v>
@@ -16256,8 +18475,11 @@
       <c r="G151" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="15">
+      <c r="H151" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="15">
       <c r="A152" s="4"/>
       <c r="B152" s="1" t="s">
         <v>43</v>
@@ -16274,8 +18496,11 @@
       <c r="G152" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="15">
+      <c r="H152" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15">
       <c r="A153" s="4"/>
       <c r="B153" s="1" t="s">
         <v>44</v>
@@ -16292,8 +18517,11 @@
       <c r="G153" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="15">
+      <c r="H153" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15">
       <c r="A154" s="4"/>
       <c r="B154" s="1" t="s">
         <v>45</v>
@@ -16310,8 +18538,11 @@
       <c r="G154" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="15">
+      <c r="H154" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15">
       <c r="A155" s="4"/>
       <c r="B155" s="1" t="s">
         <v>46</v>
@@ -16328,8 +18559,11 @@
       <c r="G155" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="15">
+      <c r="H155" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15">
       <c r="A156" s="4"/>
       <c r="B156" s="1" t="s">
         <v>47</v>
@@ -16346,8 +18580,11 @@
       <c r="G156" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="15">
+      <c r="H156" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15">
       <c r="A157" s="4"/>
       <c r="B157" s="1" t="s">
         <v>49</v>
@@ -16364,8 +18601,11 @@
       <c r="G157" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="15">
+      <c r="H157" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15">
       <c r="A158" s="4"/>
       <c r="B158" s="1" t="s">
         <v>50</v>
@@ -16382,8 +18622,11 @@
       <c r="G158" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="15">
+      <c r="H158" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15">
       <c r="A159" s="4"/>
       <c r="B159" s="1" t="s">
         <v>51</v>
@@ -16400,8 +18643,11 @@
       <c r="G159" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="15">
+      <c r="H159" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15">
       <c r="A160" s="4"/>
       <c r="B160" s="1" t="s">
         <v>52</v>
@@ -16418,8 +18664,11 @@
       <c r="G160" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="15">
+      <c r="H160" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="15">
       <c r="A161" s="4"/>
       <c r="B161" s="1" t="s">
         <v>53</v>
@@ -16436,8 +18685,11 @@
       <c r="G161" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="15">
+      <c r="H161" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15">
       <c r="A162" s="4"/>
       <c r="B162" s="1" t="s">
         <v>54</v>
@@ -16454,8 +18706,11 @@
       <c r="G162" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="15">
+      <c r="H162" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15">
       <c r="A163" s="4"/>
       <c r="B163" s="1" t="s">
         <v>55</v>
@@ -16472,8 +18727,11 @@
       <c r="G163" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="15">
+      <c r="H163" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15">
       <c r="A164" s="4"/>
       <c r="B164" s="1" t="s">
         <v>56</v>
@@ -16490,8 +18748,11 @@
       <c r="G164" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="15">
+      <c r="H164" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15">
       <c r="A165" s="4"/>
       <c r="B165" s="1" t="s">
         <v>57</v>
@@ -16508,8 +18769,11 @@
       <c r="G165" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="15">
+      <c r="H165" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15">
       <c r="A166" s="4"/>
       <c r="B166" s="1" t="s">
         <v>58</v>
@@ -16526,8 +18790,11 @@
       <c r="G166" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="15">
+      <c r="H166" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15">
       <c r="A167" s="1" t="s">
         <v>59</v>
       </c>
@@ -16546,8 +18813,11 @@
       <c r="G167" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="15">
+      <c r="H167" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="15">
       <c r="A168" s="4"/>
       <c r="B168" s="1" t="s">
         <v>4</v>
@@ -16564,8 +18834,11 @@
       <c r="G168" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="15">
+      <c r="H168" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15">
       <c r="A169" s="4"/>
       <c r="B169" s="1" t="s">
         <v>5</v>
@@ -16582,8 +18855,11 @@
       <c r="G169" t="s">
         <v>1473</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="15">
+      <c r="H169" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="15">
       <c r="A170" s="4"/>
       <c r="B170" s="1" t="s">
         <v>6</v>
@@ -16600,8 +18876,11 @@
       <c r="G170" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="15">
+      <c r="H170" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="15">
       <c r="A171" s="4"/>
       <c r="B171" s="1" t="s">
         <v>7</v>
@@ -16618,8 +18897,11 @@
       <c r="G171" t="s">
         <v>1475</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="15">
+      <c r="H171" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="15">
       <c r="A172" s="4"/>
       <c r="B172" s="1" t="s">
         <v>9</v>
@@ -16636,8 +18918,11 @@
       <c r="G172" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="15">
+      <c r="H172" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="15">
       <c r="A173" s="4"/>
       <c r="B173" s="1" t="s">
         <v>10</v>
@@ -16654,8 +18939,11 @@
       <c r="G173" t="s">
         <v>1477</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="15">
+      <c r="H173" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="15">
       <c r="A174" s="4"/>
       <c r="B174" s="1" t="s">
         <v>11</v>
@@ -16672,8 +18960,11 @@
       <c r="G174" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="15">
+      <c r="H174" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="15">
       <c r="A175" s="4"/>
       <c r="B175" s="1" t="s">
         <v>12</v>
@@ -16690,8 +18981,11 @@
       <c r="G175" t="s">
         <v>1478</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="15">
+      <c r="H175" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="15">
       <c r="A176" s="4"/>
       <c r="B176" s="1" t="s">
         <v>13</v>
@@ -16708,8 +19002,11 @@
       <c r="G176" t="s">
         <v>878</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="15">
+      <c r="H176" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="15">
       <c r="A177" s="4"/>
       <c r="B177" s="1" t="s">
         <v>16</v>
@@ -16726,8 +19023,11 @@
       <c r="G177" t="s">
         <v>1479</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="15">
+      <c r="H177" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="15">
       <c r="A178" s="4"/>
       <c r="B178" s="1" t="s">
         <v>17</v>
@@ -16744,8 +19044,11 @@
       <c r="G178" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="15">
+      <c r="H178" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="15">
       <c r="A179" s="4"/>
       <c r="B179" s="1" t="s">
         <v>18</v>
@@ -16762,8 +19065,11 @@
       <c r="G179" t="s">
         <v>1481</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="15">
+      <c r="H179" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="15">
       <c r="A180" s="4"/>
       <c r="B180" s="1" t="s">
         <v>19</v>
@@ -16780,8 +19086,11 @@
       <c r="G180" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="15">
+      <c r="H180" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="15">
       <c r="A181" s="4"/>
       <c r="B181" s="1" t="s">
         <v>20</v>
@@ -16798,8 +19107,11 @@
       <c r="G181" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="15">
+      <c r="H181" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="15">
       <c r="A182" s="4"/>
       <c r="B182" s="1" t="s">
         <v>21</v>
@@ -16816,8 +19128,11 @@
       <c r="G182" t="s">
         <v>1483</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="15">
+      <c r="H182" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="15">
       <c r="A183" s="4"/>
       <c r="B183" s="1" t="s">
         <v>22</v>
@@ -16834,8 +19149,11 @@
       <c r="G183" t="s">
         <v>1484</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="15">
+      <c r="H183" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="15">
       <c r="A184" s="4"/>
       <c r="B184" s="1" t="s">
         <v>23</v>
@@ -16852,8 +19170,11 @@
       <c r="G184" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="15">
+      <c r="H184" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="15">
       <c r="A185" s="4"/>
       <c r="B185" s="1" t="s">
         <v>24</v>
@@ -16870,8 +19191,11 @@
       <c r="G185" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="15">
+      <c r="H185" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="15">
       <c r="A186" s="4"/>
       <c r="B186" s="1" t="s">
         <v>25</v>
@@ -16888,8 +19212,11 @@
       <c r="G186" t="s">
         <v>1487</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="15">
+      <c r="H186" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="15">
       <c r="A187" s="4"/>
       <c r="B187" s="1" t="s">
         <v>27</v>
@@ -16906,8 +19233,11 @@
       <c r="G187" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="15">
+      <c r="H187" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="15">
       <c r="A188" s="4"/>
       <c r="B188" s="1" t="s">
         <v>28</v>
@@ -16924,8 +19254,11 @@
       <c r="G188" t="s">
         <v>890</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="15">
+      <c r="H188" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="15">
       <c r="A189" s="4"/>
       <c r="B189" s="1" t="s">
         <v>29</v>
@@ -16942,8 +19275,11 @@
       <c r="G189" t="s">
         <v>1489</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="15">
+      <c r="H189" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="15">
       <c r="A190" s="4"/>
       <c r="B190" s="1" t="s">
         <v>30</v>
@@ -16960,8 +19296,11 @@
       <c r="G190" t="s">
         <v>892</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="15">
+      <c r="H190" t="s">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="15">
       <c r="A191" s="4"/>
       <c r="B191" s="1" t="s">
         <v>31</v>
@@ -16978,8 +19317,11 @@
       <c r="G191" t="s">
         <v>1490</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="15">
+      <c r="H191" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="15">
       <c r="A192" s="4"/>
       <c r="B192" s="1" t="s">
         <v>32</v>
@@ -16996,8 +19338,11 @@
       <c r="G192" t="s">
         <v>1491</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="15">
+      <c r="H192" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="15">
       <c r="A193" s="4"/>
       <c r="B193" s="1" t="s">
         <v>33</v>
@@ -17014,8 +19359,11 @@
       <c r="G193" t="s">
         <v>1492</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="15">
+      <c r="H193" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="15">
       <c r="A194" s="4"/>
       <c r="B194" s="1" t="s">
         <v>34</v>
@@ -17032,10 +19380,14 @@
       <c r="G194" t="s">
         <v>1493</v>
       </c>
+      <c r="H194" t="s">
+        <v>2618</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17054,10 +19406,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A8A43-6C79-489A-825C-2D77BCF2A7B9}">
-  <dimension ref="A1:S271"/>
+  <dimension ref="A1:S303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H256" sqref="H256"/>
+    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285:D292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -17065,29 +19417,30 @@
     <col min="1" max="1" width="14" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
     <col min="3" max="3" width="9.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="6" customWidth="1"/>
-    <col min="7" max="8" width="9" style="6"/>
+    <col min="7" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="11.625" style="6" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="65" t="s">
         <v>1626</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
     </row>
     <row r="2" spans="1:18" ht="15">
       <c r="A2" s="24" t="s">
@@ -17130,10 +19483,10 @@
         <v>0</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>2349</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>2350</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>2351</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>60</v>
@@ -17180,7 +19533,7 @@
         <v>63</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="Q3" s="6" t="s">
         <v>465</v>
@@ -17230,13 +19583,13 @@
         <v>64</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="15">
@@ -17330,13 +19683,13 @@
         <v>66</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15">
@@ -17380,13 +19733,13 @@
         <v>67</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
       <c r="Q7" s="6" t="s">
+        <v>2358</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>2359</v>
-      </c>
-      <c r="R7" s="6" t="s">
-        <v>2360</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" thickBot="1">
@@ -17436,7 +19789,7 @@
         <v>70</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" thickBot="1">
@@ -17486,7 +19839,7 @@
         <v>70</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15">
@@ -17536,47 +19889,47 @@
         <v>70</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="32"/>
       <c r="O11" s="6" t="s">
+        <v>2363</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>2364</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>2365</v>
       </c>
-      <c r="Q11" s="6" t="s">
+      <c r="R11" s="6" t="s">
         <v>2366</v>
       </c>
-      <c r="R11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="66" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="12"/>
+      <c r="G12" s="66" t="s">
+        <v>1628</v>
+      </c>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="P12" s="6" t="s">
         <v>2367</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="62" t="s">
-        <v>1627</v>
-      </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="62" t="s">
-        <v>1628</v>
-      </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="P12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>2368</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="R12" s="6" t="s">
         <v>2369</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>2370</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15">
@@ -17607,12 +19960,12 @@
       <c r="K13" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="O13" s="59" t="s">
-        <v>2375</v>
-      </c>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
+      <c r="O13" s="65" t="s">
+        <v>2374</v>
+      </c>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
     </row>
     <row r="14" spans="1:18" ht="15">
       <c r="A14" s="16" t="s">
@@ -17850,24 +20203,24 @@
       <c r="A22" s="32"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="65" t="s">
         <v>1629</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="F23" s="59" t="s">
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="F23" s="65" t="s">
         <v>1630</v>
       </c>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="K23" s="59" t="s">
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="K23" s="65" t="s">
         <v>1630</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
     </row>
     <row r="24" spans="1:14" ht="15">
       <c r="A24" s="24" t="s">
@@ -18216,19 +20569,19 @@
       <c r="B33" s="12"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="65" t="s">
         <v>1631</v>
       </c>
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
     </row>
     <row r="35" spans="1:11" ht="15">
       <c r="A35" s="24" t="s">
@@ -18591,11 +20944,11 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="65" t="s">
         <v>2191</v>
       </c>
-      <c r="B55" s="59"/>
-      <c r="C55" s="59"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
     </row>
     <row r="57" spans="1:8" ht="15">
       <c r="A57" s="24" t="s">
@@ -18844,16 +21197,16 @@
       <c r="D68" s="38" t="s">
         <v>2075</v>
       </c>
-      <c r="G68" s="59" t="s">
+      <c r="G68" s="65" t="s">
         <v>2228</v>
       </c>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
+      <c r="H68" s="65"/>
+      <c r="I68" s="65"/>
+      <c r="J68" s="65"/>
+      <c r="K68" s="65"/>
+      <c r="L68" s="65"/>
+      <c r="M68" s="65"/>
+      <c r="N68" s="65"/>
     </row>
     <row r="69" spans="1:14" ht="15">
       <c r="A69" s="39" t="s">
@@ -19160,12 +21513,12 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="15">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="69" t="s">
         <v>2077</v>
       </c>
-      <c r="B77" s="61"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="69"/>
+      <c r="D77" s="69"/>
       <c r="G77" s="41" t="s">
         <v>69</v>
       </c>
@@ -19659,13 +22012,13 @@
       </c>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="61" t="s">
+      <c r="A100" s="69" t="s">
         <v>2121</v>
       </c>
-      <c r="B100" s="61"/>
-      <c r="C100" s="61"/>
-      <c r="D100" s="61"/>
-      <c r="E100" s="61"/>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="69"/>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
       <c r="H100" s="38"/>
@@ -20142,17 +22495,17 @@
       <c r="S111" s="12"/>
     </row>
     <row r="112" spans="1:19">
-      <c r="A112" s="61" t="s">
+      <c r="A112" s="69" t="s">
         <v>2205</v>
       </c>
-      <c r="B112" s="61"/>
-      <c r="C112" s="61"/>
-      <c r="D112" s="61"/>
-      <c r="E112" s="61"/>
-      <c r="F112" s="61"/>
-      <c r="G112" s="61"/>
-      <c r="H112" s="61"/>
-      <c r="I112" s="61"/>
+      <c r="B112" s="69"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="69"/>
+      <c r="G112" s="69"/>
+      <c r="H112" s="69"/>
+      <c r="I112" s="69"/>
     </row>
     <row r="113" spans="1:10" ht="15">
       <c r="A113" s="37" t="s">
@@ -20308,7 +22661,7 @@
         <v>2141</v>
       </c>
       <c r="J117" s="6" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="15">
@@ -20404,7 +22757,7 @@
         <v>2143</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="15">
@@ -20440,17 +22793,17 @@
       </c>
     </row>
     <row r="122" spans="1:10">
-      <c r="A122" s="61" t="s">
+      <c r="A122" s="69" t="s">
         <v>2204</v>
       </c>
-      <c r="B122" s="61"/>
-      <c r="C122" s="61"/>
-      <c r="D122" s="61"/>
-      <c r="E122" s="61"/>
-      <c r="F122" s="61"/>
-      <c r="G122" s="61"/>
-      <c r="H122" s="61"/>
-      <c r="I122" s="61"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="69"/>
+      <c r="E122" s="69"/>
+      <c r="F122" s="69"/>
+      <c r="G122" s="69"/>
+      <c r="H122" s="69"/>
+      <c r="I122" s="69"/>
     </row>
     <row r="124" spans="1:10" ht="15">
       <c r="A124" s="37" t="s">
@@ -20949,37 +23302,37 @@
       </c>
     </row>
     <row r="143" spans="1:9">
-      <c r="A143" s="59" t="s">
-        <v>2317</v>
-      </c>
-      <c r="B143" s="59"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="59"/>
-      <c r="E143" s="59"/>
-      <c r="F143" s="59"/>
-      <c r="G143" s="59"/>
-      <c r="H143" s="59"/>
+      <c r="A143" s="65" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B143" s="65"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
     </row>
     <row r="145" spans="1:18">
-      <c r="A145" s="59" t="s">
+      <c r="A145" s="65" t="s">
         <v>2227</v>
       </c>
-      <c r="B145" s="59"/>
-      <c r="C145" s="59"/>
-      <c r="D145" s="59"/>
-      <c r="E145" s="59"/>
-      <c r="F145" s="59"/>
-      <c r="G145" s="59"/>
-      <c r="H145" s="59"/>
-      <c r="I145" s="59"/>
-      <c r="J145" s="59"/>
-      <c r="K145" s="59"/>
-      <c r="L145" s="59"/>
-      <c r="M145" s="59"/>
-      <c r="N145" s="59"/>
-      <c r="O145" s="59"/>
-      <c r="P145" s="59"/>
-      <c r="Q145" s="59"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="65"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+      <c r="G145" s="65"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="65"/>
+      <c r="J145" s="65"/>
+      <c r="K145" s="65"/>
+      <c r="L145" s="65"/>
+      <c r="M145" s="65"/>
+      <c r="N145" s="65"/>
+      <c r="O145" s="65"/>
+      <c r="P145" s="65"/>
+      <c r="Q145" s="65"/>
     </row>
     <row r="146" spans="1:18" ht="15">
       <c r="A146" s="24" t="s">
@@ -21829,22 +24182,22 @@
       <c r="R165" s="12"/>
     </row>
     <row r="166" spans="1:18">
-      <c r="A166" s="60" t="s">
+      <c r="A166" s="68" t="s">
         <v>2300</v>
       </c>
-      <c r="B166" s="60"/>
-      <c r="C166" s="60"/>
-      <c r="D166" s="60"/>
-      <c r="E166" s="60"/>
-      <c r="F166" s="60"/>
-      <c r="G166" s="60"/>
-      <c r="H166" s="60"/>
-      <c r="I166" s="60"/>
-      <c r="J166" s="60"/>
-      <c r="K166" s="60"/>
-      <c r="L166" s="60"/>
-      <c r="M166" s="60"/>
-      <c r="N166" s="60"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="68"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="68"/>
+      <c r="F166" s="68"/>
+      <c r="G166" s="68"/>
+      <c r="H166" s="68"/>
+      <c r="I166" s="68"/>
+      <c r="J166" s="68"/>
+      <c r="K166" s="68"/>
+      <c r="L166" s="68"/>
+      <c r="M166" s="68"/>
+      <c r="N166" s="68"/>
       <c r="O166" s="57"/>
       <c r="P166" s="12"/>
       <c r="Q166" s="12"/>
@@ -22274,20 +24627,20 @@
       <c r="R175" s="12"/>
     </row>
     <row r="176" spans="1:18">
-      <c r="A176" s="60"/>
-      <c r="B176" s="60"/>
-      <c r="C176" s="60"/>
-      <c r="D176" s="60"/>
-      <c r="E176" s="60"/>
-      <c r="F176" s="60"/>
-      <c r="G176" s="60"/>
-      <c r="H176" s="60"/>
-      <c r="I176" s="60"/>
-      <c r="J176" s="60"/>
-      <c r="K176" s="60"/>
-      <c r="L176" s="60"/>
-      <c r="M176" s="60"/>
-      <c r="N176" s="60"/>
+      <c r="A176" s="68"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="68"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="68"/>
+      <c r="F176" s="68"/>
+      <c r="G176" s="68"/>
+      <c r="H176" s="68"/>
+      <c r="I176" s="68"/>
+      <c r="J176" s="68"/>
+      <c r="K176" s="68"/>
+      <c r="L176" s="68"/>
+      <c r="M176" s="68"/>
+      <c r="N176" s="68"/>
     </row>
     <row r="178" spans="1:13" ht="15">
       <c r="A178" s="17" t="s">
@@ -22306,7 +24659,7 @@
         <v>2302</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>2303</v>
+        <v>2772</v>
       </c>
       <c r="I178" s="17" t="s">
         <v>0</v>
@@ -22315,10 +24668,10 @@
         <v>60</v>
       </c>
       <c r="K178" s="6" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="L178" s="6" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="M178" s="6" t="s">
         <v>1209</v>
@@ -22350,7 +24703,7 @@
         <v>70</v>
       </c>
       <c r="K179" s="6" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="L179" s="6" t="s">
         <v>2042</v>
@@ -22385,7 +24738,7 @@
         <v>70</v>
       </c>
       <c r="K180" s="6" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="L180" s="6" t="s">
         <v>2209</v>
@@ -22455,10 +24808,10 @@
         <v>70</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="L182" s="6" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="M182" s="6" t="s">
         <v>2288</v>
@@ -22525,7 +24878,7 @@
         <v>70</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="L184" s="6" t="s">
         <v>904</v>
@@ -22560,13 +24913,13 @@
         <v>70</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="L185" s="6" t="s">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="M185" s="6" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="15">
@@ -22595,23 +24948,23 @@
         <v>70</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
       <c r="M186" s="6" t="s">
         <v>2087</v>
       </c>
     </row>
     <row r="187" spans="1:13">
-      <c r="I187" s="59" t="s">
-        <v>2316</v>
-      </c>
-      <c r="J187" s="59"/>
-      <c r="K187" s="59"/>
-      <c r="L187" s="59"/>
-      <c r="M187" s="59"/>
+      <c r="I187" s="65" t="s">
+        <v>2315</v>
+      </c>
+      <c r="J187" s="65"/>
+      <c r="K187" s="65"/>
+      <c r="L187" s="65"/>
+      <c r="M187" s="65"/>
     </row>
     <row r="189" spans="1:13" ht="15">
       <c r="A189" s="17" t="s">
@@ -22624,13 +24977,13 @@
         <v>2135</v>
       </c>
       <c r="D189" s="6" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E189" s="6" t="s">
         <v>2320</v>
       </c>
-      <c r="E189" s="6" t="s">
-        <v>2321</v>
-      </c>
       <c r="F189" s="6" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="15">
@@ -22750,7 +25103,7 @@
         <v>2170</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="15">
@@ -22784,13 +25137,13 @@
         <v>2280</v>
       </c>
       <c r="D197" s="6" t="s">
+        <v>2317</v>
+      </c>
+      <c r="E197" s="6" t="s">
         <v>2318</v>
       </c>
-      <c r="E197" s="6" t="s">
-        <v>2319</v>
-      </c>
       <c r="F197" s="6" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="15">
@@ -22804,13 +25157,13 @@
         <v>2135</v>
       </c>
       <c r="D199" s="6" t="s">
+        <v>2319</v>
+      </c>
+      <c r="E199" s="6" t="s">
         <v>2320</v>
       </c>
-      <c r="E199" s="6" t="s">
-        <v>2321</v>
-      </c>
       <c r="F199" s="6" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="15">
@@ -22887,7 +25240,7 @@
         <v>2294</v>
       </c>
       <c r="E203" s="6" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="F203" s="6" t="s">
         <v>2102</v>
@@ -22944,13 +25297,13 @@
         <v>2298</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="E206" s="6" t="s">
+        <v>2324</v>
+      </c>
+      <c r="F206" s="6" t="s">
         <v>2325</v>
-      </c>
-      <c r="F206" s="6" t="s">
-        <v>2326</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="15">
@@ -22981,19 +25334,19 @@
         <v>2108</v>
       </c>
       <c r="C210" s="6" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D210" s="6" t="s">
         <v>2327</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="E210" s="6" t="s">
         <v>2328</v>
       </c>
-      <c r="E210" s="6" t="s">
-        <v>2329</v>
-      </c>
       <c r="F210" s="6" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="15">
@@ -23015,8 +25368,8 @@
       <c r="F211" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="G211" s="64" t="s">
-        <v>2345</v>
+      <c r="G211" s="59" t="s">
+        <v>2344</v>
       </c>
       <c r="H211" s="55" t="s">
         <v>2055</v>
@@ -23041,8 +25394,8 @@
       <c r="F212" s="6" t="s">
         <v>2123</v>
       </c>
-      <c r="G212" s="64" t="s">
-        <v>2346</v>
+      <c r="G212" s="59" t="s">
+        <v>2345</v>
       </c>
       <c r="H212" s="55" t="s">
         <v>2123</v>
@@ -23067,7 +25420,7 @@
       <c r="F213" s="6" t="s">
         <v>2181</v>
       </c>
-      <c r="G213" s="64" t="s">
+      <c r="G213" s="59" t="s">
         <v>70</v>
       </c>
       <c r="H213" s="55" t="s">
@@ -23093,8 +25446,8 @@
       <c r="F214" s="6" t="s">
         <v>2117</v>
       </c>
-      <c r="G214" s="64" t="s">
-        <v>2348</v>
+      <c r="G214" s="59" t="s">
+        <v>2347</v>
       </c>
       <c r="H214" s="55" t="s">
         <v>2117</v>
@@ -23108,16 +25461,16 @@
         <v>70</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="G215" s="6" t="s">
         <v>70</v>
@@ -23134,16 +25487,16 @@
         <v>70</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
       <c r="E216" s="6" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="G216" s="6" t="s">
         <v>70</v>
@@ -23172,7 +25525,7 @@
         <v>1498</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
       <c r="H217" s="55" t="s">
         <v>1498</v>
@@ -23186,19 +25539,19 @@
         <v>70</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="H218" s="55" t="s">
         <v>2280</v>
@@ -23212,19 +25565,19 @@
         <v>60</v>
       </c>
       <c r="C220" s="6" t="s">
+        <v>2326</v>
+      </c>
+      <c r="D220" s="6" t="s">
         <v>2327</v>
       </c>
-      <c r="D220" s="6" t="s">
+      <c r="E220" s="6" t="s">
         <v>2328</v>
       </c>
-      <c r="E220" s="6" t="s">
-        <v>2329</v>
-      </c>
       <c r="F220" s="6" t="s">
-        <v>2372</v>
-      </c>
-      <c r="M220" s="65" t="s">
-        <v>2402</v>
+        <v>2371</v>
+      </c>
+      <c r="M220" s="60" t="s">
+        <v>2401</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="23.25">
@@ -23249,8 +25602,8 @@
       <c r="H221" s="55" t="s">
         <v>907</v>
       </c>
-      <c r="M221" s="66" t="s">
-        <v>2403</v>
+      <c r="M221" s="61" t="s">
+        <v>2402</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="24.75">
@@ -23275,8 +25628,8 @@
       <c r="H222" s="55" t="s">
         <v>2096</v>
       </c>
-      <c r="M222" s="67" t="s">
-        <v>2404</v>
+      <c r="M222" s="62" t="s">
+        <v>2403</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="15">
@@ -23310,13 +25663,13 @@
         <v>70</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="D224" s="6" t="s">
         <v>2294</v>
       </c>
       <c r="E224" s="6" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="F224" s="6" t="s">
         <v>2037</v>
@@ -23339,7 +25692,7 @@
         <v>2098</v>
       </c>
       <c r="E225" s="6" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
       <c r="F225" s="6" t="s">
         <v>2138</v>
@@ -23356,7 +25709,7 @@
         <v>70</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>2105</v>
@@ -23379,16 +25732,16 @@
         <v>70</v>
       </c>
       <c r="C227" s="6" t="s">
+        <v>2340</v>
+      </c>
+      <c r="D227" s="6" t="s">
         <v>2341</v>
-      </c>
-      <c r="D227" s="6" t="s">
-        <v>2342</v>
       </c>
       <c r="E227" s="6" t="s">
         <v>2286</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="H227" s="55" t="s">
         <v>2298</v>
@@ -23425,37 +25778,37 @@
         <v>2108</v>
       </c>
       <c r="C231" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D231" s="6" t="s">
         <v>2376</v>
       </c>
-      <c r="D231" s="6" t="s">
+      <c r="E231" s="6" t="s">
         <v>2377</v>
       </c>
-      <c r="E231" s="6" t="s">
+      <c r="F231" s="6" t="s">
         <v>2378</v>
       </c>
-      <c r="F231" s="6" t="s">
+      <c r="G231" s="6" t="s">
         <v>2379</v>
       </c>
-      <c r="G231" s="6" t="s">
+      <c r="H231" s="6" t="s">
         <v>2380</v>
       </c>
-      <c r="H231" s="6" t="s">
+      <c r="I231" s="6" t="s">
         <v>2381</v>
       </c>
-      <c r="I231" s="6" t="s">
+      <c r="J231" s="6" t="s">
         <v>2382</v>
       </c>
-      <c r="J231" s="6" t="s">
+      <c r="K231" s="6" t="s">
         <v>2383</v>
       </c>
-      <c r="K231" s="6" t="s">
+      <c r="L231" s="6" t="s">
         <v>2384</v>
       </c>
-      <c r="L231" s="6" t="s">
+      <c r="M231" s="6" t="s">
         <v>2385</v>
-      </c>
-      <c r="M231" s="6" t="s">
-        <v>2386</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="15">
@@ -23568,10 +25921,10 @@
       <c r="I234" s="6" t="s">
         <v>1655</v>
       </c>
-      <c r="J234" s="68" t="s">
+      <c r="J234" s="63" t="s">
         <v>2181</v>
       </c>
-      <c r="K234" s="68" t="s">
+      <c r="K234" s="63" t="s">
         <v>2181</v>
       </c>
       <c r="L234" s="6" t="s">
@@ -23588,22 +25941,22 @@
       <c r="B235" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C235" s="68" t="s">
+      <c r="C235" s="63" t="s">
         <v>2117</v>
       </c>
-      <c r="D235" s="68" t="s">
+      <c r="D235" s="63" t="s">
         <v>2117</v>
       </c>
-      <c r="E235" s="68" t="s">
+      <c r="E235" s="63" t="s">
         <v>2117</v>
       </c>
-      <c r="F235" s="68" t="s">
+      <c r="F235" s="63" t="s">
         <v>2117</v>
       </c>
-      <c r="G235" s="68" t="s">
+      <c r="G235" s="63" t="s">
         <v>2117</v>
       </c>
-      <c r="H235" s="68" t="s">
+      <c r="H235" s="63" t="s">
         <v>2117</v>
       </c>
       <c r="I235" s="6" t="s">
@@ -23636,7 +25989,7 @@
         <v>2175</v>
       </c>
       <c r="E236" s="6" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="F236" s="6" t="s">
         <v>2231</v>
@@ -23645,7 +25998,7 @@
         <v>2244</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="I236" s="6" t="s">
         <v>2178</v>
@@ -23656,7 +26009,7 @@
       <c r="K236" s="6" t="s">
         <v>2244</v>
       </c>
-      <c r="L236" s="68" t="s">
+      <c r="L236" s="63" t="s">
         <v>2130</v>
       </c>
       <c r="M236" s="6" t="s">
@@ -23674,34 +26027,34 @@
         <v>2276</v>
       </c>
       <c r="D237" s="6" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E237" s="6" t="s">
-        <v>2391</v>
-      </c>
-      <c r="F237" s="68" t="s">
+        <v>2390</v>
+      </c>
+      <c r="F237" s="63" t="s">
+        <v>2392</v>
+      </c>
+      <c r="G237" s="6" t="s">
         <v>2393</v>
       </c>
-      <c r="G237" s="6" t="s">
-        <v>2394</v>
-      </c>
       <c r="H237" s="6" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="I237" s="6" t="s">
+        <v>2396</v>
+      </c>
+      <c r="J237" s="6" t="s">
         <v>2397</v>
-      </c>
-      <c r="J237" s="6" t="s">
-        <v>2398</v>
       </c>
       <c r="K237" s="6" t="s">
         <v>2176</v>
       </c>
       <c r="L237" s="6" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="M237" s="6" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="15">
@@ -23756,16 +26109,16 @@
         <v>2280</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E239" s="6" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="H239" s="6" t="s">
         <v>2271</v>
@@ -23773,14 +26126,14 @@
       <c r="I239" s="6" t="s">
         <v>2129</v>
       </c>
-      <c r="J239" s="68" t="s">
-        <v>2399</v>
+      <c r="J239" s="63" t="s">
+        <v>2398</v>
       </c>
       <c r="K239" s="6" t="s">
         <v>2129</v>
       </c>
       <c r="L239" s="6" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="M239" s="6" t="s">
         <v>2268</v>
@@ -23794,37 +26147,37 @@
         <v>2108</v>
       </c>
       <c r="C241" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D241" s="6" t="s">
         <v>2376</v>
       </c>
-      <c r="D241" s="6" t="s">
+      <c r="E241" s="6" t="s">
         <v>2377</v>
       </c>
-      <c r="E241" s="6" t="s">
+      <c r="F241" s="6" t="s">
         <v>2378</v>
       </c>
-      <c r="F241" s="6" t="s">
+      <c r="G241" s="6" t="s">
         <v>2379</v>
       </c>
-      <c r="G241" s="6" t="s">
+      <c r="H241" s="6" t="s">
         <v>2380</v>
       </c>
-      <c r="H241" s="6" t="s">
+      <c r="I241" s="6" t="s">
         <v>2381</v>
       </c>
-      <c r="I241" s="6" t="s">
+      <c r="J241" s="6" t="s">
         <v>2382</v>
       </c>
-      <c r="J241" s="6" t="s">
+      <c r="K241" s="6" t="s">
         <v>2383</v>
       </c>
-      <c r="K241" s="6" t="s">
+      <c r="L241" s="6" t="s">
         <v>2384</v>
       </c>
-      <c r="L241" s="6" t="s">
+      <c r="M241" s="6" t="s">
         <v>2385</v>
-      </c>
-      <c r="M241" s="6" t="s">
-        <v>2386</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="15">
@@ -23960,20 +26313,20 @@
       <c r="C245" s="6" t="s">
         <v>2150</v>
       </c>
-      <c r="D245" s="68" t="s">
-        <v>2354</v>
-      </c>
-      <c r="E245" s="68" t="s">
-        <v>2324</v>
+      <c r="D245" s="63" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E245" s="63" t="s">
+        <v>2323</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="G245" s="6" t="s">
         <v>2294</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="I245" s="6" t="s">
         <v>2288</v>
@@ -23998,7 +26351,7 @@
       <c r="B246" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C246" s="69" t="s">
+      <c r="C246" s="64" t="s">
         <v>2084</v>
       </c>
       <c r="D246" s="6" t="s">
@@ -24019,14 +26372,14 @@
       <c r="I246" s="6" t="s">
         <v>2088</v>
       </c>
-      <c r="J246" s="68" t="s">
-        <v>2415</v>
+      <c r="J246" s="63" t="s">
+        <v>2414</v>
       </c>
       <c r="K246" s="6" t="s">
         <v>2090</v>
       </c>
       <c r="L246" s="6" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="M246" s="6" t="s">
         <v>2084</v>
@@ -24039,26 +26392,26 @@
       <c r="B247" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C247" s="69" t="s">
+      <c r="C247" s="64" t="s">
         <v>2133</v>
       </c>
       <c r="D247" s="6" t="s">
-        <v>2405</v>
-      </c>
-      <c r="E247" s="68" t="s">
-        <v>2407</v>
+        <v>2404</v>
+      </c>
+      <c r="E247" s="63" t="s">
+        <v>2406</v>
       </c>
       <c r="F247" s="6" t="s">
         <v>2133</v>
       </c>
-      <c r="G247" s="68" t="s">
-        <v>2411</v>
+      <c r="G247" s="63" t="s">
+        <v>2410</v>
       </c>
       <c r="H247" s="6" t="s">
         <v>2292</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="J247" s="6" t="s">
         <v>2291</v>
@@ -24084,31 +26437,31 @@
         <v>2298</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="E248" s="6" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="H248" s="6" t="s">
         <v>2298</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>2414</v>
-      </c>
-      <c r="J248" s="68" t="s">
-        <v>2416</v>
+        <v>2413</v>
+      </c>
+      <c r="J248" s="63" t="s">
+        <v>2415</v>
       </c>
       <c r="K248" s="6" t="s">
         <v>2290</v>
       </c>
-      <c r="L248" s="68" t="s">
-        <v>2417</v>
+      <c r="L248" s="63" t="s">
+        <v>2416</v>
       </c>
       <c r="M248" s="6" t="s">
         <v>2285</v>
@@ -24121,7 +26474,7 @@
       <c r="B249" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C249" s="69" t="s">
+      <c r="C249" s="64" t="s">
         <v>2144</v>
       </c>
       <c r="D249" s="6" t="s">
@@ -24156,21 +26509,21 @@
       </c>
     </row>
     <row r="250" spans="1:13">
-      <c r="A250" s="59" t="s">
-        <v>2418</v>
-      </c>
-      <c r="B250" s="59"/>
-      <c r="C250" s="59"/>
-      <c r="D250" s="59"/>
-      <c r="E250" s="59"/>
-      <c r="F250" s="59"/>
-      <c r="G250" s="59"/>
-      <c r="H250" s="59"/>
-      <c r="I250" s="59"/>
-      <c r="J250" s="59"/>
-      <c r="K250" s="59"/>
-      <c r="L250" s="59"/>
-      <c r="M250" s="59"/>
+      <c r="A250" s="65" t="s">
+        <v>2417</v>
+      </c>
+      <c r="B250" s="65"/>
+      <c r="C250" s="65"/>
+      <c r="D250" s="65"/>
+      <c r="E250" s="65"/>
+      <c r="F250" s="65"/>
+      <c r="G250" s="65"/>
+      <c r="H250" s="65"/>
+      <c r="I250" s="65"/>
+      <c r="J250" s="65"/>
+      <c r="K250" s="65"/>
+      <c r="L250" s="65"/>
+      <c r="M250" s="65"/>
     </row>
     <row r="253" spans="1:13" ht="15">
       <c r="A253" s="17" t="s">
@@ -24180,13 +26533,25 @@
         <v>2108</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D253" s="6" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E253" s="6" t="s">
         <v>2419</v>
       </c>
-      <c r="E253" s="6" t="s">
-        <v>2420</v>
+      <c r="H253" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I253" s="12" t="s">
+        <v>2108</v>
+      </c>
+      <c r="J253" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K253" s="6" t="s">
+        <v>2776</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="15">
@@ -24205,6 +26570,18 @@
       <c r="E254" s="6" t="s">
         <v>1206</v>
       </c>
+      <c r="H254" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I254" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J254" s="6" t="s">
+        <v>2065</v>
+      </c>
+      <c r="K254" s="6" t="s">
+        <v>1206</v>
+      </c>
     </row>
     <row r="255" spans="1:13" ht="15">
       <c r="A255" s="16" t="s">
@@ -24222,6 +26599,18 @@
       <c r="E255" s="6" t="s">
         <v>2123</v>
       </c>
+      <c r="H255" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I255" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J255" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="K255" s="6" t="s">
+        <v>2123</v>
+      </c>
     </row>
     <row r="256" spans="1:13" ht="15">
       <c r="A256" s="16" t="s">
@@ -24239,8 +26628,20 @@
       <c r="E256" s="6" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" ht="15">
+      <c r="H256" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I256" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J256" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="K256" s="6" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" ht="15">
       <c r="A257" s="16" t="s">
         <v>66</v>
       </c>
@@ -24256,8 +26657,20 @@
       <c r="E257" s="6" t="s">
         <v>2117</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" ht="15">
+      <c r="H257" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I257" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J257" s="6" t="s">
+        <v>2112</v>
+      </c>
+      <c r="K257" s="6" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" ht="15">
       <c r="A258" s="16" t="s">
         <v>67</v>
       </c>
@@ -24273,8 +26686,20 @@
       <c r="E258" s="6" t="s">
         <v>2231</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" ht="15">
+      <c r="H258" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I258" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J258" s="63" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K258" s="63" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" ht="15">
       <c r="A259" s="16" t="s">
         <v>68</v>
       </c>
@@ -24285,13 +26710,25 @@
         <v>2170</v>
       </c>
       <c r="D259" s="6" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="E259" s="6" t="s">
-        <v>2421</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" ht="15">
+        <v>2420</v>
+      </c>
+      <c r="H259" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I259" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J259" s="6" t="s">
+        <v>2170</v>
+      </c>
+      <c r="K259" s="6" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" ht="15">
       <c r="A260" s="17" t="s">
         <v>62</v>
       </c>
@@ -24307,8 +26744,20 @@
       <c r="E260" s="6" t="s">
         <v>1498</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" ht="15">
+      <c r="H260" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I260" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J260" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K260" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" ht="15">
       <c r="A261" s="17" t="s">
         <v>69</v>
       </c>
@@ -24316,16 +26765,42 @@
         <v>70</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
       <c r="D261" s="6" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E261" s="6" t="s">
-        <v>2422</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" ht="15">
+        <v>2421</v>
+      </c>
+      <c r="H261" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I261" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J261" s="63" t="s">
+        <v>2318</v>
+      </c>
+      <c r="K261" s="63" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" ht="15">
+      <c r="H262" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I262" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J262" s="6" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K262" s="6" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" ht="15">
       <c r="A263" s="17" t="s">
         <v>0</v>
       </c>
@@ -24333,16 +26808,28 @@
         <v>60</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="D263" s="6" t="s">
+        <v>2418</v>
+      </c>
+      <c r="E263" s="6" t="s">
         <v>2419</v>
       </c>
-      <c r="E263" s="6" t="s">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" ht="15">
+      <c r="H263" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I263" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J263" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="K263" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" ht="15">
       <c r="A264" s="16" t="s">
         <v>63</v>
       </c>
@@ -24358,8 +26845,20 @@
       <c r="E264" s="6" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" ht="15">
+      <c r="H264" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I264" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J264" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="K264" s="6" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" ht="15">
       <c r="A265" s="16" t="s">
         <v>64</v>
       </c>
@@ -24375,8 +26874,20 @@
       <c r="E265" s="6" t="s">
         <v>2096</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" ht="15">
+      <c r="H265" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I265" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J265" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="K265" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" ht="15">
       <c r="A266" s="16" t="s">
         <v>65</v>
       </c>
@@ -24392,8 +26903,20 @@
       <c r="E266" s="6" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" ht="15">
+      <c r="H266" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I266" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J266" s="6" t="s">
+        <v>2323</v>
+      </c>
+      <c r="K266" s="6" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" ht="15">
       <c r="A267" s="16" t="s">
         <v>66</v>
       </c>
@@ -24401,16 +26924,28 @@
         <v>70</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="D267" s="6" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E267" s="6" t="s">
         <v>2150</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" ht="15">
+      <c r="H267" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I267" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J267" s="6" t="s">
+        <v>2090</v>
+      </c>
+      <c r="K267" s="6" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" ht="15">
       <c r="A268" s="16" t="s">
         <v>67</v>
       </c>
@@ -24426,8 +26961,20 @@
       <c r="E268" s="6" t="s">
         <v>2088</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" ht="15">
+      <c r="H268" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="I268" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J268" s="6" t="s">
+        <v>2183</v>
+      </c>
+      <c r="K268" s="6" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" ht="15">
       <c r="A269" s="16" t="s">
         <v>68</v>
       </c>
@@ -24443,8 +26990,20 @@
       <c r="E269" s="6" t="s">
         <v>2105</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" ht="15">
+      <c r="H269" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I269" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J269" s="63" t="s">
+        <v>2324</v>
+      </c>
+      <c r="K269" s="63" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" ht="15">
       <c r="A270" s="17" t="s">
         <v>62</v>
       </c>
@@ -24452,16 +27011,28 @@
         <v>70</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="D270" s="6" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E270" s="6" t="s">
-        <v>2423</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="15">
+        <v>2422</v>
+      </c>
+      <c r="H270" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="I270" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J270" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="K270" s="6" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" ht="15">
       <c r="A271" s="17" t="s">
         <v>69</v>
       </c>
@@ -24476,21 +27047,588 @@
       </c>
       <c r="E271" s="6" t="s">
         <v>2101</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15">
+      <c r="A274" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" s="12" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15">
+      <c r="A275" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B275" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D275" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15">
+      <c r="A276" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B276" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E276" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15">
+      <c r="A277" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B277" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D277" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E277" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15">
+      <c r="A278" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B278" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E278" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15">
+      <c r="A279" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B279" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D279" s="6" t="s">
+        <v>2172</v>
+      </c>
+      <c r="E279" s="6" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15">
+      <c r="A280" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B280" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>2420</v>
+      </c>
+      <c r="E280" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15">
+      <c r="A281" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B281" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E281" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15">
+      <c r="A282" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B282" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E282" s="6" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15">
+      <c r="A284" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>2770</v>
+      </c>
+      <c r="E284" s="6" t="s">
+        <v>2775</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15">
+      <c r="A285" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B285" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="E285" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15">
+      <c r="A286" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B286" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>2304</v>
+      </c>
+      <c r="E286" s="6" t="s">
+        <v>2096</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15">
+      <c r="A287" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="D287" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="E287" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15">
+      <c r="A288" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B288" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E288" s="6" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="15">
+      <c r="A289" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B289" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D289" s="6" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E289" s="6" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F289" s="6" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="15">
+      <c r="A290" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B290" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>2768</v>
+      </c>
+      <c r="E290" s="6" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="15">
+      <c r="A291" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B291" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C291" s="63" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D291" s="63" t="s">
+        <v>2769</v>
+      </c>
+      <c r="E291" s="6" t="s">
+        <v>2774</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="15">
+      <c r="A292" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B292" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C292" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>2101</v>
+      </c>
+      <c r="E292" s="6" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="15">
+      <c r="A295" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D295" s="6" t="s">
+        <v>2792</v>
+      </c>
+      <c r="E295" s="6" t="s">
+        <v>2785</v>
+      </c>
+      <c r="F295" s="6" t="s">
+        <v>2789</v>
+      </c>
+      <c r="G295" s="6" t="s">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="15">
+      <c r="A296" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B296" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="E296" s="6" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>907</v>
+      </c>
+      <c r="G296" s="6" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="15">
+      <c r="A297" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B297" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D297" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E297" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F297" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="G297" s="6" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="15">
+      <c r="A298" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B298" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E298" s="6" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G298" s="6" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="15">
+      <c r="A299" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B299" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C299" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D299" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E299" s="6" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G299" s="6" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="15">
+      <c r="A300" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B300" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C300" s="6" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>2782</v>
+      </c>
+      <c r="E300" s="6" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>2786</v>
+      </c>
+      <c r="G300" s="6" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="15">
+      <c r="A301" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B301" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C301" s="6" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D301" s="6" t="s">
+        <v>2783</v>
+      </c>
+      <c r="E301" s="6" t="s">
+        <v>2076</v>
+      </c>
+      <c r="F301" s="6" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G301" s="6" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="15">
+      <c r="A302" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B302" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C302" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E302" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F302" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G302" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="15">
+      <c r="A303" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B303" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C303" s="6" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D303" s="6" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E303" s="6" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F303" s="6" t="s">
+        <v>2788</v>
+      </c>
+      <c r="G303" s="6" t="s">
+        <v>2124</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="F23:I23"/>
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="A250:M250"/>
     <mergeCell ref="A55:C55"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="F23:I23"/>
     <mergeCell ref="I187:M187"/>
     <mergeCell ref="A166:N166"/>
     <mergeCell ref="A176:N176"/>
@@ -24516,7 +27654,7 @@
   <dimension ref="A1:K194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="L3" sqref="L3:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27413,138 +30551,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47AE589E-FF15-42E2-80C8-442793F533A0}">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2252</v>
-      </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2055</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2246</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>2247</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>2248</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2249</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>2250</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>2251</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Algo_Develop.xlsx
+++ b/Algo_Develop.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_r\EA\ETMO\MTO-cec2021-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462BCD83-E5CC-43C0-9592-ACC154FF7EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F68F18E-B3BF-4D4A-B28E-C987531394ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VSMaTDE" sheetId="1" r:id="rId1"/>
     <sheet name="moeadVSMaOEAC" sheetId="3" r:id="rId2"/>
     <sheet name="transferVSnotransfer" sheetId="4" r:id="rId3"/>
-    <sheet name="TOP" sheetId="7" r:id="rId4"/>
-    <sheet name="precise" sheetId="2" r:id="rId5"/>
-    <sheet name="tmp" sheetId="5" r:id="rId6"/>
+    <sheet name="precise" sheetId="2" r:id="rId4"/>
+    <sheet name="new_precise" sheetId="10" r:id="rId5"/>
+    <sheet name="MOEAD" sheetId="8" r:id="rId6"/>
+    <sheet name="MOEAD_CEC2017" sheetId="11" r:id="rId7"/>
+    <sheet name="tmp" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5798" uniqueCount="2793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7068" uniqueCount="3567">
   <si>
     <t>Problem</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8613,6 +8615,2367 @@
   <si>
     <t>AIEMIX_PUNISH_Fixed</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.00E-03±2.15E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.83E-04±4.56E-05(≈)</t>
+  </si>
+  <si>
+    <t>9.98E-03±9.83E-04(≈)</t>
+  </si>
+  <si>
+    <t>5.53E-03±1.66E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.15E-03±2.89E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.63E-03±1.42E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.82E-04±1.60E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.33E-02±1.23E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.79E-04±1.83E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.22E-02±3.18E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.77E-03±2.70E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.10E-04±4.76E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.04E-02±1.34E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.52E-03±3.18E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.69E-03±1.26E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.31E-02±1.35E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.43E-02±1.68E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.71E-02±2.61E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.45E-03±1.15E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.63E-02±2.16E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.73E-02±1.35E-02(≈)</t>
+  </si>
+  <si>
+    <t>6.96E-03±8.07E-04(≈)</t>
+  </si>
+  <si>
+    <t>7.96E-02±1.52E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.02E-02±2.39E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.01E-01±7.27E-02(≈)</t>
+  </si>
+  <si>
+    <t>3.84E-03±6.20E-04(≈)</t>
+  </si>
+  <si>
+    <t>8.47E-01±3.42E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.76E-02±7.21E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.44E-02±2.36E-04(≈)</t>
+  </si>
+  <si>
+    <t>3.02E+00±8.90E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.21E-03±1.55E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.09E+00±4.54E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.71E-02±6.39E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.69E-04±1.09E-04(≈)</t>
+  </si>
+  <si>
+    <t>5.14E+00±8.18E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.46E-03±1.86E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.95E-01±1.60E-01(≈)</t>
+  </si>
+  <si>
+    <t>6.97E-02±1.76E-02(≈)</t>
+  </si>
+  <si>
+    <t>2.50E-03±1.00E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.42E+00±3.95E-01(≈)</t>
+  </si>
+  <si>
+    <t>5.18E-03±7.22E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.09E-01±2.98E-01(≈)</t>
+  </si>
+  <si>
+    <t>6.52E-03±1.38E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.15E-03±5.09E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.15E+00±7.23E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.49E-03±3.65E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.13E+00±5.27E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.11E-03±2.70E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.85E-03±2.19E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.48E+00±4.48E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.38E-03±3.89E-05(≈)</t>
+  </si>
+  <si>
+    <t>2.48E-03±5.41E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.08E+00±4.07E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.11E-03±2.42E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.80E-03±1.28E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.93E+00±4.50E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.39E-03±2.72E-05(≈)</t>
+  </si>
+  <si>
+    <t>2.64E-03±3.80E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.18E+00±3.50E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.10E-03±3.55E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.87E-03±2.75E-04(≈)</t>
+  </si>
+  <si>
+    <t>3.14E+00±6.15E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.38E-03±2.48E-05(≈)</t>
+  </si>
+  <si>
+    <t>2.48E-03±4.06E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.96E+00±2.78E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.09E-03±2.00E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.80E-03±1.40E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.75E+00±6.16E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.39E-03±2.22E-05(≈)</t>
+  </si>
+  <si>
+    <t>2.67E-03±4.97E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.03E+00±4.88E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.12E-03±3.70E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.87E-03±1.37E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.87E+00±5.38E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.39E-03±3.27E-05(≈)</t>
+  </si>
+  <si>
+    <t>7.62E+01±6.45E+01(≈)</t>
+  </si>
+  <si>
+    <t>3.82E-02±8.02E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.22E+00±1.05E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.68E-04±5.60E-06(≈)</t>
+  </si>
+  <si>
+    <t>4.10E+00±5.61E+00(≈)</t>
+  </si>
+  <si>
+    <t>3.35E-02±7.62E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.58E+00±6.74E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.80E+00±1.36E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.66E-04±2.13E-06(≈)</t>
+  </si>
+  <si>
+    <t>1.32E+01±3.12E+01(≈)</t>
+  </si>
+  <si>
+    <t>3.42E-02±1.35E-02(≈)</t>
+  </si>
+  <si>
+    <t>5.20E+00±1.35E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.78E+00±9.99E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.67E-04±2.02E-06(≈)</t>
+  </si>
+  <si>
+    <t>1.19E+01±5.78E+00(≈)</t>
+  </si>
+  <si>
+    <t>7.86E-02±1.47E-01(≈)</t>
+  </si>
+  <si>
+    <t>5.03E+00±1.06E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.73E+00±1.64E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.67E-04±2.72E-06(≈)</t>
+  </si>
+  <si>
+    <t>3.05E+01±3.26E+01(≈)</t>
+  </si>
+  <si>
+    <t>3.36E-02±6.85E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.81E+00±1.67E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.75E+00±1.09E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.66E-04±3.52E-06(≈)</t>
+  </si>
+  <si>
+    <t>1.44E+01±1.42E+01(≈)</t>
+  </si>
+  <si>
+    <t>3.43E-02±9.48E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.68E+00±1.14E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.67E-04±1.40E-06(≈)</t>
+  </si>
+  <si>
+    <t>1.50E+01±2.73E+01(≈)</t>
+  </si>
+  <si>
+    <t>4.03E-02±6.78E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.57E+00±1.46E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.81E+00±1.39E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.67E-04±2.65E-06(≈)</t>
+  </si>
+  <si>
+    <t>5.67E+00±4.70E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.26E-01±1.94E-01(≈)</t>
+  </si>
+  <si>
+    <t>5.55E+00±9.54E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.74E+00±1.64E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.68E-04±2.67E-06(≈)</t>
+  </si>
+  <si>
+    <t>6.31E-03±3.85E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.59E-04±7.62E-05(≈)</t>
+  </si>
+  <si>
+    <t>8.66E-03±3.51E-04(≈)</t>
+  </si>
+  <si>
+    <t>7.18E-03±4.06E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.14E-03±2.69E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.24E-02±1.31E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.59E-03±3.93E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.30E-04±9.23E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.03E-02±2.58E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.53E-03±4.26E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.84E-03±4.28E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.20E-02±2.91E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.24E-03±3.92E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.76E-04±5.47E-05(≈)</t>
+  </si>
+  <si>
+    <t>9.67E-03±3.61E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.57E-03±4.00E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.12E-03±4.10E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.04E-02±3.40E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.60E-03±3.31E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.21E-04±1.48E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.46E-03±2.17E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.63E-03±3.90E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.64E-03±4.03E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.05E-02±2.74E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.69E-03±4.00E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.05E-04±1.26E-04(≈)</t>
+  </si>
+  <si>
+    <t>8.56E-03±7.33E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.97E-03±6.23E-04(≈)</t>
+  </si>
+  <si>
+    <t>6.72E-03±4.39E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.62E-03±2.90E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.53E-03±2.98E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.91E-04±1.08E-04(≈)</t>
+  </si>
+  <si>
+    <t>8.95E-03±1.01E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.04E-03±2.71E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.03E-03±4.02E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.67E-03±1.82E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.39E-03±3.59E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.41E-04±8.89E-05(≈)</t>
+  </si>
+  <si>
+    <t>8.82E-03±5.80E-04(≈)</t>
+  </si>
+  <si>
+    <t>7.25E-03±3.48E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.81E-03±4.25E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.07E-02±3.52E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.55E-03±3.76E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.64E-04±7.67E-05(≈)</t>
+  </si>
+  <si>
+    <t>8.96E-03±8.64E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.29E-03±4.32E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.83E-03±3.74E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.18E-02±2.11E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.43E-03±3.68E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.18E-04±8.77E-05(≈)</t>
+  </si>
+  <si>
+    <t>6.69E-03±1.91E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.50E-02±6.45E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.20E-01±7.66E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.10E-02±2.62E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.06E-02±1.03E-02(≈)</t>
+  </si>
+  <si>
+    <t>6.87E-03±1.51E-04(≈)</t>
+  </si>
+  <si>
+    <t>8.72E-03±1.46E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.50E-03±3.74E-04(≈)</t>
+  </si>
+  <si>
+    <t>7.04E-03±1.90E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.60E-03±8.88E-04(≈)</t>
+  </si>
+  <si>
+    <t>8.63E-03±1.28E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.32E-03±6.72E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.17E-02±1.22E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.81E-03±3.23E-05(≈)</t>
+  </si>
+  <si>
+    <t>5.98E-03±5.16E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.89E-02±1.62E-02(≈)</t>
+  </si>
+  <si>
+    <t>2.65E-01±1.05E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.17E-02±6.92E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.28E-02±1.40E-02(≈)</t>
+  </si>
+  <si>
+    <t>6.89E-03±1.24E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.14E-03±1.41E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.24E-03±5.88E-04(≈)</t>
+  </si>
+  <si>
+    <t>6.92E-03±2.08E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.27E-03±3.59E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.02E-02±1.66E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.64E-03±9.06E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.14E-02±1.28E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.89E-03±2.19E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.06E-03±2.35E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.41E-04±5.12E-05(-)</t>
+  </si>
+  <si>
+    <t>9.57E-03±1.27E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.30E-03±2.14E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.09E-02±2.59E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.98E-03±3.33E-03(+)</t>
+  </si>
+  <si>
+    <t>4.93E-03±3.27E-03(-)</t>
+  </si>
+  <si>
+    <t>1.31E-02±2.41E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.54E-03±4.01E-04(-)</t>
+  </si>
+  <si>
+    <t>1.07E-02±2.67E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.29E-03±2.25E-03(-)</t>
+  </si>
+  <si>
+    <t>5.00E-04±5.57E-05(-)</t>
+  </si>
+  <si>
+    <t>1.22E-02±1.80E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.85E-03±3.97E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.81E-03±3.04E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.56E-02±1.58E-02(≈)</t>
+  </si>
+  <si>
+    <t>2.97E-02±3.04E-02(-)</t>
+  </si>
+  <si>
+    <t>2.03E-02±4.25E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.17E-03±3.75E-04(-)</t>
+  </si>
+  <si>
+    <t>1.08E-01±1.34E-01(-)</t>
+  </si>
+  <si>
+    <t>6.40E-02±1.96E-02(-)</t>
+  </si>
+  <si>
+    <t>2.24E-02±1.14E-02(-)</t>
+  </si>
+  <si>
+    <t>1.15E-01±1.57E-02(-)</t>
+  </si>
+  <si>
+    <t>1.35E-02±3.09E-03(-)</t>
+  </si>
+  <si>
+    <t>6.06E-01±1.61E-01(-)</t>
+  </si>
+  <si>
+    <t>4.49E-03±6.54E-04(-)</t>
+  </si>
+  <si>
+    <t>8.41E-01±7.55E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.35E-02±1.02E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.45E-02±1.83E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.24E+00±6.30E-01(≈)</t>
+  </si>
+  <si>
+    <t>3.26E-03±6.85E-04(-)</t>
+  </si>
+  <si>
+    <t>2.07E+00±7.00E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.96E-02±4.39E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.20E-04±7.21E-05(-)</t>
+  </si>
+  <si>
+    <t>5.95E+00±6.64E-01(-)</t>
+  </si>
+  <si>
+    <t>1.59E-03±2.59E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.00E-01±1.80E-01(≈)</t>
+  </si>
+  <si>
+    <t>6.65E-02±1.03E-02(≈)</t>
+  </si>
+  <si>
+    <t>3.84E-03±1.32E-03(-)</t>
+  </si>
+  <si>
+    <t>2.36E+00±7.72E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.02E-02±2.10E-03(-)</t>
+  </si>
+  <si>
+    <t>1.12E+00±7.09E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.06E-02±7.06E-04(-)</t>
+  </si>
+  <si>
+    <t>3.78E-03±7.26E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.48E+00±5.17E-01(≈)</t>
+  </si>
+  <si>
+    <t>4.25E-03±7.72E-04(-)</t>
+  </si>
+  <si>
+    <t>3.03E+00±3.00E-01(-)</t>
+  </si>
+  <si>
+    <t>1.37E-03±6.37E-05(-)</t>
+  </si>
+  <si>
+    <t>2.51E-03±3.64E-04(-)</t>
+  </si>
+  <si>
+    <t>4.00E+00±9.16E-01(-)</t>
+  </si>
+  <si>
+    <t>1.46E-03±3.04E-05(-)</t>
+  </si>
+  <si>
+    <t>4.00E-03±6.31E-04(-)</t>
+  </si>
+  <si>
+    <t>3.07E+00±3.58E-01(-)</t>
+  </si>
+  <si>
+    <t>1.37E-03±6.72E-05(-)</t>
+  </si>
+  <si>
+    <t>2.57E-03±4.64E-04(-)</t>
+  </si>
+  <si>
+    <t>4.77E+00±5.14E-01(-)</t>
+  </si>
+  <si>
+    <t>1.47E-03±3.64E-05(-)</t>
+  </si>
+  <si>
+    <t>4.29E-03±4.89E-04(-)</t>
+  </si>
+  <si>
+    <t>3.03E+00±3.20E-01(-)</t>
+  </si>
+  <si>
+    <t>1.30E-03±8.66E-05(-)</t>
+  </si>
+  <si>
+    <t>2.83E-03±6.69E-04(-)</t>
+  </si>
+  <si>
+    <t>4.27E+00±5.21E-01(-)</t>
+  </si>
+  <si>
+    <t>1.47E-03±3.00E-05(-)</t>
+  </si>
+  <si>
+    <t>3.75E-03±6.94E-04(-)</t>
+  </si>
+  <si>
+    <t>2.84E+00±5.76E-01(-)</t>
+  </si>
+  <si>
+    <t>1.31E-03±4.06E-05(-)</t>
+  </si>
+  <si>
+    <t>2.62E-03±4.51E-04(-)</t>
+  </si>
+  <si>
+    <t>4.46E+00±8.79E-01(-)</t>
+  </si>
+  <si>
+    <t>1.46E-03±5.26E-05(-)</t>
+  </si>
+  <si>
+    <t>4.25E-03±7.73E-04(-)</t>
+  </si>
+  <si>
+    <t>3.02E+00±2.99E-01(-)</t>
+  </si>
+  <si>
+    <t>1.33E-03±9.51E-05(-)</t>
+  </si>
+  <si>
+    <t>2.43E-03±2.81E-04(-)</t>
+  </si>
+  <si>
+    <t>4.82E+00±5.57E-01(-)</t>
+  </si>
+  <si>
+    <t>1.48E-03±3.90E-05(-)</t>
+  </si>
+  <si>
+    <t>3.46E+01±4.02E+01(≈)</t>
+  </si>
+  <si>
+    <t>3.10E-01±2.36E-01(≈)</t>
+  </si>
+  <si>
+    <t>5.16E+00±9.55E-01(+)</t>
+  </si>
+  <si>
+    <t>1.77E+00±1.06E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.75E-04±3.10E-06(-)</t>
+  </si>
+  <si>
+    <t>2.96E+00±1.66E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.33E-01±1.92E-01(-)</t>
+  </si>
+  <si>
+    <t>6.12E+00±7.60E-01(-)</t>
+  </si>
+  <si>
+    <t>1.77E+00±1.75E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.77E-04±5.94E-06(-)</t>
+  </si>
+  <si>
+    <t>8.01E+00±9.88E+00(≈)</t>
+  </si>
+  <si>
+    <t>2.69E-01±2.42E-01(-)</t>
+  </si>
+  <si>
+    <t>6.06E+00±2.07E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.73E+00±7.30E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.76E-04±5.46E-06(-)</t>
+  </si>
+  <si>
+    <t>2.64E+01±2.86E+01(≈)</t>
+  </si>
+  <si>
+    <t>2.69E-01±2.46E-01(-)</t>
+  </si>
+  <si>
+    <t>5.25E+00±1.44E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.72E+00±1.36E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.78E-04±4.68E-06(-)</t>
+  </si>
+  <si>
+    <t>9.06E+00±1.88E+01(+)</t>
+  </si>
+  <si>
+    <t>1.81E-01±2.21E-01(-)</t>
+  </si>
+  <si>
+    <t>6.07E+00±1.15E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.77E+00±1.22E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.74E-04±4.81E-06(-)</t>
+  </si>
+  <si>
+    <t>3.98E+01±5.66E+01(≈)</t>
+  </si>
+  <si>
+    <t>8.18E-02±1.46E-01(≈)</t>
+  </si>
+  <si>
+    <t>6.45E+00±1.62E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.77E+00±1.84E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.77E-04±3.83E-06(-)</t>
+  </si>
+  <si>
+    <t>2.05E+01±2.72E+01(≈)</t>
+  </si>
+  <si>
+    <t>8.10E-02±1.47E-01(≈)</t>
+  </si>
+  <si>
+    <t>7.14E+00±1.85E+00(-)</t>
+  </si>
+  <si>
+    <t>1.80E+00±1.05E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.79E-04±6.78E-06(-)</t>
+  </si>
+  <si>
+    <t>1.54E+01±1.38E+01(≈)</t>
+  </si>
+  <si>
+    <t>2.20E-01±2.36E-01(≈)</t>
+  </si>
+  <si>
+    <t>5.38E+00±1.74E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.73E+00±1.46E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.76E-04±4.58E-06(-)</t>
+  </si>
+  <si>
+    <t>9.58E-03±5.25E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.96E-03±6.97E-03(-)</t>
+  </si>
+  <si>
+    <t>1.10E-02±2.18E-03(-)</t>
+  </si>
+  <si>
+    <t>1.01E-02±4.25E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.94E-03±4.73E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.38E-02±2.72E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.11E-02±5.63E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.05E-03±7.02E-03(-)</t>
+  </si>
+  <si>
+    <t>1.21E-02±4.16E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.80E-03±5.28E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.79E-03±4.12E-03(-)</t>
+  </si>
+  <si>
+    <t>1.08E-02±3.67E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.26E-03±5.68E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.02E-04±2.61E-04(-)</t>
+  </si>
+  <si>
+    <t>1.16E-02±3.56E-03(-)</t>
+  </si>
+  <si>
+    <t>1.13E-02±3.97E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.12E-02±4.93E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.21E-02±2.21E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.08E-03±3.72E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.22E-04±3.26E-04(-)</t>
+  </si>
+  <si>
+    <t>1.06E-02±2.07E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.19E-02±1.90E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.52E-03±4.00E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.13E-02±2.45E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.12E-03±4.81E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.67E-04±1.86E-04(-)</t>
+  </si>
+  <si>
+    <t>1.10E-02±3.53E-03(-)</t>
+  </si>
+  <si>
+    <t>9.21E-03±4.39E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.57E-03±3.79E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.27E-02±2.75E-03(-)</t>
+  </si>
+  <si>
+    <t>7.69E-03±4.20E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.54E-04±1.52E-04(-)</t>
+  </si>
+  <si>
+    <t>1.18E-02±4.10E-03(-)</t>
+  </si>
+  <si>
+    <t>9.46E-03±3.19E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.67E-03±3.99E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.20E-02±3.01E-03(-)</t>
+  </si>
+  <si>
+    <t>1.30E-02±8.34E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.35E-04±1.61E-04(-)</t>
+  </si>
+  <si>
+    <t>1.22E-02±5.69E-03(-)</t>
+  </si>
+  <si>
+    <t>1.19E-02±5.11E-03(-)</t>
+  </si>
+  <si>
+    <t>1.08E-02±4.52E-03(-)</t>
+  </si>
+  <si>
+    <t>1.16E-02±3.86E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.79E-03±3.90E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.57E-04±3.55E-04(-)</t>
+  </si>
+  <si>
+    <t>1.03E-02±1.18E-03(-)</t>
+  </si>
+  <si>
+    <t>1.10E-02±3.43E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.26E-03±4.63E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.29E-02±4.62E-03(≈)</t>
+  </si>
+  <si>
+    <t>8.08E-03±4.58E-03(≈)</t>
+  </si>
+  <si>
+    <t>7.99E-04±1.97E-04(-)</t>
+  </si>
+  <si>
+    <t>7.14E-03±5.49E-04(-)</t>
+  </si>
+  <si>
+    <t>5.35E-02±4.62E-02(-)</t>
+  </si>
+  <si>
+    <t>1.27E+00±1.05E+00(-)</t>
+  </si>
+  <si>
+    <t>1.13E-02±2.20E-03(≈)</t>
+  </si>
+  <si>
+    <t>2.85E-02±1.15E-02(≈)</t>
+  </si>
+  <si>
+    <t>7.00E-03±9.62E-05(-)</t>
+  </si>
+  <si>
+    <t>1.62E-02±4.85E-03(-)</t>
+  </si>
+  <si>
+    <t>6.10E-03±6.09E-04(-)</t>
+  </si>
+  <si>
+    <t>1.03E-02±9.86E-04(-)</t>
+  </si>
+  <si>
+    <t>6.55E-03±2.44E-04(-)</t>
+  </si>
+  <si>
+    <t>2.37E-02±8.98E-03(-)</t>
+  </si>
+  <si>
+    <t>8.56E-03±7.51E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.36E-02±1.24E-03(-)</t>
+  </si>
+  <si>
+    <t>7.10E-03±5.26E-04(-)</t>
+  </si>
+  <si>
+    <t>7.28E-03±4.04E-04(-)</t>
+  </si>
+  <si>
+    <t>8.41E-02±5.88E-02(-)</t>
+  </si>
+  <si>
+    <t>1.25E+00±1.26E+00(-)</t>
+  </si>
+  <si>
+    <t>1.25E-02±5.38E-03(-)</t>
+  </si>
+  <si>
+    <t>5.84E-02±7.35E-02(≈)</t>
+  </si>
+  <si>
+    <t>6.98E-03±1.45E-04(-)</t>
+  </si>
+  <si>
+    <t>1.47E-02±3.55E-03(-)</t>
+  </si>
+  <si>
+    <t>5.43E-03±2.99E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.65E-03±1.42E-03(-)</t>
+  </si>
+  <si>
+    <t>6.36E-03±6.45E-04(-)</t>
+  </si>
+  <si>
+    <t>5.24E-02±2.03E-02(-)</t>
+  </si>
+  <si>
+    <t>9.18E-03±1.16E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.38E-02±1.54E-03(-)</t>
+  </si>
+  <si>
+    <t>7.17E-03±5.47E-04(-)</t>
+  </si>
+  <si>
+    <t>6.05E-03±3.51E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.65E-04±5.74E-05(-)</t>
+  </si>
+  <si>
+    <t>9.99E-03±1.44E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.88E-03±3.13E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.90E-03±2.97E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.95E-03±1.87E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.19E-03±3.30E-03(-)</t>
+  </si>
+  <si>
+    <t>1.19E-02±7.32E-04(+)</t>
+  </si>
+  <si>
+    <t>1.33E-03±2.21E-04(-)</t>
+  </si>
+  <si>
+    <t>1.26E-02±4.51E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.29E-03±2.84E-03(-)</t>
+  </si>
+  <si>
+    <t>4.67E-04±6.02E-05(-)</t>
+  </si>
+  <si>
+    <t>1.06E-02±1.12E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.07E-03±4.33E-03(≈)</t>
+  </si>
+  <si>
+    <t>6.05E-03±2.74E-03(-)</t>
+  </si>
+  <si>
+    <t>5.37E-02±1.97E-02(≈)</t>
+  </si>
+  <si>
+    <t>3.87E-02±2.57E-02(-)</t>
+  </si>
+  <si>
+    <t>2.30E-02±6.75E-03(-)</t>
+  </si>
+  <si>
+    <t>8.85E-03±1.21E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.63E-02±3.58E-02(-)</t>
+  </si>
+  <si>
+    <t>4.97E-02±1.99E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.95E-02±4.62E-03(-)</t>
+  </si>
+  <si>
+    <t>1.14E-01±1.12E-02(-)</t>
+  </si>
+  <si>
+    <t>1.66E-02±1.95E-03(-)</t>
+  </si>
+  <si>
+    <t>5.78E-01±8.13E-02(-)</t>
+  </si>
+  <si>
+    <t>1/0/4</t>
+  </si>
+  <si>
+    <t>9/7/4</t>
+  </si>
+  <si>
+    <t>7/1/32</t>
+  </si>
+  <si>
+    <t>DE(0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE(0.1)_noPM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/0/5</t>
+  </si>
+  <si>
+    <t>4/14/2</t>
+  </si>
+  <si>
+    <t>8/0/32</t>
+  </si>
+  <si>
+    <t>1/0/49</t>
+  </si>
+  <si>
+    <t>3/3/4</t>
+  </si>
+  <si>
+    <t>1/4/23</t>
+  </si>
+  <si>
+    <t>SBX(0.1)_noPM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/10/2</t>
+  </si>
+  <si>
+    <t>7/20/3</t>
+  </si>
+  <si>
+    <t>7/0/43</t>
+  </si>
+  <si>
+    <t>23/7/0</t>
+  </si>
+  <si>
+    <t>14/3/11</t>
+  </si>
+  <si>
+    <t>25/5/0</t>
+  </si>
+  <si>
+    <t>12/2/14</t>
+  </si>
+  <si>
+    <t>UF(0.1)_noPM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDE(0.1)_noPM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3_SBX(0.1)_noPM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBX0.1_A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBX0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIHS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CILS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIHS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PILS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIHS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NILS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>迁移有效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率低时异步起不了效果，甚至反效果，可见异步可能在某时期起反作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MFEADDRA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.69E-04±6.89E-06(+)</t>
+  </si>
+  <si>
+    <t>4.96E-04±1.42E-04(+)</t>
+  </si>
+  <si>
+    <t>1.34E-04±1.86E-08(+)</t>
+  </si>
+  <si>
+    <t>1.65E-04±8.64E-08(+)</t>
+  </si>
+  <si>
+    <t>1.73E-04±4.43E-06(+)</t>
+  </si>
+  <si>
+    <t>1.56E-04±3.31E-07(+)</t>
+  </si>
+  <si>
+    <t>7.45E-04±1.42E-04(+)</t>
+  </si>
+  <si>
+    <t>2.00E-02±8.12E-03(+)</t>
+  </si>
+  <si>
+    <t>2.96E-03±1.36E-03(-)</t>
+  </si>
+  <si>
+    <t>1.72E+01±4.58E+00(-)</t>
+  </si>
+  <si>
+    <t>4.25E-04±1.60E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.35E-03±4.22E-04(+)</t>
+  </si>
+  <si>
+    <t>1.48E+00±1.28E-02(+)</t>
+  </si>
+  <si>
+    <t>2.83E-04±6.13E-05(+)</t>
+  </si>
+  <si>
+    <t>1.32E-01±1.47E-01(+)</t>
+  </si>
+  <si>
+    <t>1.83E-04±4.84E-05(+)</t>
+  </si>
+  <si>
+    <t>6.19E-04±8.40E-05(+)</t>
+  </si>
+  <si>
+    <t>5.14E-01±2.63E-01(≈)</t>
+  </si>
+  <si>
+    <t>SBX1.0_A3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBX1.0_A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.12E-03±5.28E-04(≈)</t>
+  </si>
+  <si>
+    <t>3.92E-03±8.23E-04(≈)</t>
+  </si>
+  <si>
+    <t>7.71E-02±5.06E-02(≈)</t>
+  </si>
+  <si>
+    <t>2.10E-04±8.06E-05(≈)</t>
+  </si>
+  <si>
+    <t>5.90E-01±7.21E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.81E-04±1.62E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.40E-03±2.53E-04(≈)</t>
+  </si>
+  <si>
+    <t>5.91E-01±1.08E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.58E-03±1.23E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.08E+01±1.49E+01(≈)</t>
+  </si>
+  <si>
+    <t>3.25E-04±1.86E-04(≈)</t>
+  </si>
+  <si>
+    <t>3.49E-01±3.16E-01(≈)</t>
+  </si>
+  <si>
+    <t>4.72E+00±1.79E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.01E-03±2.01E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.59E-01±2.48E-01(≈)</t>
+  </si>
+  <si>
+    <t>5.65E-03±8.22E-03(≈)</t>
+  </si>
+  <si>
+    <t>9.53E-04±8.56E-05(≈)</t>
+  </si>
+  <si>
+    <t>4.26E-01±3.01E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.93E-04±1.24E-05(+)</t>
+  </si>
+  <si>
+    <t>1.07E-03±1.03E-04(+)</t>
+  </si>
+  <si>
+    <t>1.41E-04±1.87E-07(+)</t>
+  </si>
+  <si>
+    <t>1.79E-04±8.04E-06(+)</t>
+  </si>
+  <si>
+    <t>3.22E-04±3.93E-05(+)</t>
+  </si>
+  <si>
+    <t>1.65E-04±1.88E-06(+)</t>
+  </si>
+  <si>
+    <t>6.44E-04±1.42E-04(+)</t>
+  </si>
+  <si>
+    <t>1.08E-01±3.96E-02(+)</t>
+  </si>
+  <si>
+    <t>2.16E-03±9.24E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.25E+01±4.00E+00(+)</t>
+  </si>
+  <si>
+    <t>4.66E-04±5.70E-04(≈)</t>
+  </si>
+  <si>
+    <t>3.61E-02±5.28E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.51E+00±9.79E-03(+)</t>
+  </si>
+  <si>
+    <t>2.75E-04±5.08E-05(+)</t>
+  </si>
+  <si>
+    <t>1.43E-01±1.14E-02(≈)</t>
+  </si>
+  <si>
+    <t>5.85E-04±5.71E-04(+)</t>
+  </si>
+  <si>
+    <t>1.04E-03±1.26E-04(-)</t>
+  </si>
+  <si>
+    <t>4.00E-01±3.05E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.10E-03±1.24E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.39E-04±7.81E-04(≈)</t>
+  </si>
+  <si>
+    <t>5.10E-02±1.03E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.75E-01±1.36E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.02E-03±1.49E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.71E-01±3.10E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.73E-04±4.93E-07(+)</t>
+  </si>
+  <si>
+    <t>2.97E-04±4.77E-05(+)</t>
+  </si>
+  <si>
+    <t>1.41E-04±6.14E-08(+)</t>
+  </si>
+  <si>
+    <t>1.74E-04±3.17E-07(+)</t>
+  </si>
+  <si>
+    <t>2.34E-04±2.80E-05(+)</t>
+  </si>
+  <si>
+    <t>1.62E-04±1.13E-06(+)</t>
+  </si>
+  <si>
+    <t>6.44E-02±6.15E-02(+)</t>
+  </si>
+  <si>
+    <t>2.26E-03±9.72E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.77E+00±3.51E+00(+)</t>
+  </si>
+  <si>
+    <t>7.67E-04±1.03E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.50E+00±3.66E-03(+)</t>
+  </si>
+  <si>
+    <t>1.84E-04±1.17E-05(+)</t>
+  </si>
+  <si>
+    <t>1.44E-01±1.19E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.57E-03±5.69E-04(-)</t>
+  </si>
+  <si>
+    <t>4.95E-01±2.62E-01(-)</t>
+  </si>
+  <si>
+    <t>1.61E-03±5.69E-04(+)</t>
+  </si>
+  <si>
+    <t>5.51E-04±7.41E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.48E-01±9.50E-03(≈)</t>
+  </si>
+  <si>
+    <t>5.98E-04±2.58E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.05E-01±1.51E-01(-)</t>
+  </si>
+  <si>
+    <t>1.58E-03±3.06E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.94E-04±1.67E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.08E-03±1.89E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.41E-04±1.08E-07(≈)</t>
+  </si>
+  <si>
+    <t>1.76E-04±4.03E-06(≈)</t>
+  </si>
+  <si>
+    <t>3.39E-04±4.34E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.65E-04±1.48E-06(≈)</t>
+  </si>
+  <si>
+    <t>6.68E-04±1.33E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.14E-01±4.82E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.34E+01±4.13E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.51E+00±1.01E-02(≈)</t>
+  </si>
+  <si>
+    <t>2.73E-04±4.77E-05(≈)</t>
+  </si>
+  <si>
+    <t>7.08E-04±1.06E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.74E-04±6.27E-07(-)</t>
+  </si>
+  <si>
+    <t>3.99E-04±4.85E-05(-)</t>
+  </si>
+  <si>
+    <t>1.41E-04±1.32E-07(≈)</t>
+  </si>
+  <si>
+    <t>1.74E-04±2.10E-06(≈)</t>
+  </si>
+  <si>
+    <t>2.42E-04±3.28E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.63E-04±1.39E-06(-)</t>
+  </si>
+  <si>
+    <t>5.25E-04±9.86E-05(≈)</t>
+  </si>
+  <si>
+    <t>8.17E-02±3.28E-02(-)</t>
+  </si>
+  <si>
+    <t>1.35E+01±3.37E+00(-)</t>
+  </si>
+  <si>
+    <t>4.66E-02±6.36E-02(+)</t>
+  </si>
+  <si>
+    <t>1.49E+00±7.14E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.99E-04±1.81E-05(-)</t>
+  </si>
+  <si>
+    <t>4.23E-04±5.65E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.10E-03±2.33E-04(+)</t>
+  </si>
+  <si>
+    <t>4.29E-01±2.98E-01(+)</t>
+  </si>
+  <si>
+    <t>4.22E-03±4.20E-03(-)</t>
+  </si>
+  <si>
+    <t>2.34E-04±1.97E-04(+)</t>
+  </si>
+  <si>
+    <t>3.62E-04±7.04E-05(-)</t>
+  </si>
+  <si>
+    <t>2.89E-02±4.80E-09(-)</t>
+  </si>
+  <si>
+    <t>2.89E-02±8.82E-07(+)</t>
+  </si>
+  <si>
+    <t>6.91E-03±2.34E-03(-)</t>
+  </si>
+  <si>
+    <t>5.02E+00±2.48E+00(+)</t>
+  </si>
+  <si>
+    <t>2.01E-03±7.15E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.47E+00±6.39E-03(+)</t>
+  </si>
+  <si>
+    <t>3.98E-01±2.59E-01(-)</t>
+  </si>
+  <si>
+    <t>1.08E-02±1.07E-02(-)</t>
+  </si>
+  <si>
+    <t>2.01E-03±2.64E-03(-)</t>
+  </si>
+  <si>
+    <t>6.42E-01±1.98E-04(-)</t>
+  </si>
+  <si>
+    <t>大步进异步没什么优势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步需要高迁移率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.73E-04±2.25E-07(≈)</t>
+  </si>
+  <si>
+    <t>3.04E-04±3.67E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.41E-04±4.38E-08(+)</t>
+  </si>
+  <si>
+    <t>1.74E-04±1.02E-06(≈)</t>
+  </si>
+  <si>
+    <t>2.86E-04±7.83E-05(-)</t>
+  </si>
+  <si>
+    <t>1.63E-04±1.71E-06(-)</t>
+  </si>
+  <si>
+    <t>8.61E-04±3.37E-04(-)</t>
+  </si>
+  <si>
+    <t>1.34E-01±9.40E-02(-)</t>
+  </si>
+  <si>
+    <t>2.64E-03±1.16E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.28E+01±4.35E+00(≈)</t>
+  </si>
+  <si>
+    <t>4.91E-04±4.58E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.50E-01±2.65E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.50E+00±8.78E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.96E-04±2.63E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.50E-01±6.60E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.43E-04±5.03E-04(+)</t>
+  </si>
+  <si>
+    <t>1.71E-03±5.46E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.35E-01±2.90E-01(≈)</t>
+  </si>
+  <si>
+    <t>IE_SBX1.0_A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADAIE_SBXADA1.0_A1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.74E-04±1.23E-06(+)</t>
+  </si>
+  <si>
+    <t>3.22E-04±7.96E-05(+)</t>
+  </si>
+  <si>
+    <t>1.41E-04±3.97E-08(+)</t>
+  </si>
+  <si>
+    <t>1.73E-04±4.70E-07(+)</t>
+  </si>
+  <si>
+    <t>2.39E-04±4.54E-05(+)</t>
+  </si>
+  <si>
+    <t>1.62E-04±1.67E-06(+)</t>
+  </si>
+  <si>
+    <t>5.26E-04±1.13E-04(+)</t>
+  </si>
+  <si>
+    <t>8.85E-02±4.33E-02(≈)</t>
+  </si>
+  <si>
+    <t>5.55E-04±2.02E-04(+)</t>
+  </si>
+  <si>
+    <t>8.77E+00±2.81E+00(+)</t>
+  </si>
+  <si>
+    <t>5.07E-04±7.62E-04(≈)</t>
+  </si>
+  <si>
+    <t>4.10E-02±6.73E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.50E+00±8.60E-03(+)</t>
+  </si>
+  <si>
+    <t>1.84E-04±7.89E-06(+)</t>
+  </si>
+  <si>
+    <t>1.47E-01±1.16E-02(≈)</t>
+  </si>
+  <si>
+    <t>3.56E-04±4.50E-04(+)</t>
+  </si>
+  <si>
+    <t>9.55E-04±7.20E-05(≈)</t>
+  </si>
+  <si>
+    <t>4.62E-01±2.81E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.74E-04±1.23E-06(-)</t>
+  </si>
+  <si>
+    <t>3.22E-04±7.96E-05(≈)</t>
+  </si>
+  <si>
+    <t>2.39E-04±4.54E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.62E-04±1.67E-06(≈)</t>
+  </si>
+  <si>
+    <t>5.26E-04±1.13E-04(≈)</t>
+  </si>
+  <si>
+    <t>8.85E-02±4.33E-02(-)</t>
+  </si>
+  <si>
+    <t>8.77E+00±2.81E+00(≈)</t>
+  </si>
+  <si>
+    <t>4.10E-02±6.73E-02(+)</t>
+  </si>
+  <si>
+    <t>1.50E+00±8.60E-03(-)</t>
+  </si>
+  <si>
+    <t>1.84E-04±7.89E-06(≈)</t>
+  </si>
+  <si>
+    <t>3.56E-04±4.50E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.55E-04±7.20E-05(+)</t>
+  </si>
+  <si>
+    <t>ADAIE_SBXADA1.0_A0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自适应有效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐式占多数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.53E+01±4.45E+01(-)</t>
+  </si>
+  <si>
+    <t>2.70E-01±6.05E-01(-)</t>
+  </si>
+  <si>
+    <t>1.47E-04±1.95E-05(-)</t>
+  </si>
+  <si>
+    <t>2.18E-04±1.03E-04(-)</t>
+  </si>
+  <si>
+    <t>2.05E-03±2.94E-03(-)</t>
+  </si>
+  <si>
+    <t>1.84E-04±2.77E-05(-)</t>
+  </si>
+  <si>
+    <t>1.03E+01±4.08E+01(-)</t>
+  </si>
+  <si>
+    <t>1.13E+01±4.28E+01(-)</t>
+  </si>
+  <si>
+    <t>1.19E-03±5.36E-04(-)</t>
+  </si>
+  <si>
+    <t>1.22E+01±3.93E+00(-)</t>
+  </si>
+  <si>
+    <t>8.68E-03±1.44E-02(-)</t>
+  </si>
+  <si>
+    <t>3.17E-01±2.67E-01(-)</t>
+  </si>
+  <si>
+    <t>5.76E+00±4.44E+00(-)</t>
+  </si>
+  <si>
+    <t>7.79E-02±2.22E-01(-)</t>
+  </si>
+  <si>
+    <t>2.31E-01±2.39E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.68E-02±1.98E-02(-)</t>
+  </si>
+  <si>
+    <t>1.08E-03±1.58E-04(-)</t>
+  </si>
+  <si>
+    <t>6.44E-01±5.77E-04(-)</t>
+  </si>
+  <si>
+    <t>1.50E+00±8.60E-03(≈)</t>
+  </si>
+  <si>
+    <t>4.09E-04±1.01E-04(-)</t>
+  </si>
+  <si>
+    <t>2.66E-03±4.31E-04(-)</t>
+  </si>
+  <si>
+    <t>6.69E-02±8.66E-02(-)</t>
+  </si>
+  <si>
+    <t>1.18E-02±1.30E-02(-)</t>
+  </si>
+  <si>
+    <t>2.72E-04±3.35E-05(-)</t>
+  </si>
+  <si>
+    <t>1.92E-04±9.92E-06(-)</t>
+  </si>
+  <si>
+    <t>8.51E-04±1.38E-03(≈)</t>
+  </si>
+  <si>
+    <t>3.92E-02±1.48E-02(+)</t>
+  </si>
+  <si>
+    <t>2.74E-03±1.42E-03(-)</t>
+  </si>
+  <si>
+    <t>1.22E+01±4.05E+00(≈)</t>
+  </si>
+  <si>
+    <t>4.21E-04±1.74E-04(+)</t>
+  </si>
+  <si>
+    <t>1.23E-02±2.70E-03(≈)</t>
+  </si>
+  <si>
+    <t>1.54E+00±2.96E-02(-)</t>
+  </si>
+  <si>
+    <t>4.96E-04±1.17E-04(-)</t>
+  </si>
+  <si>
+    <t>3.49E-01±3.06E-01(-)</t>
+  </si>
+  <si>
+    <t>4.19E-02±8.95E-02(-)</t>
+  </si>
+  <si>
+    <t>8.50E-04±9.05E-05(+)</t>
+  </si>
+  <si>
+    <t>6.43E-01±3.32E-04(-)</t>
+  </si>
+  <si>
+    <t>3.89E-04±9.17E-05(-)</t>
+  </si>
+  <si>
+    <t>2.63E-03±4.42E-04(-)</t>
+  </si>
+  <si>
+    <t>5.92E-02±7.65E-02(-)</t>
+  </si>
+  <si>
+    <t>7.41E-03±6.92E-03(-)</t>
+  </si>
+  <si>
+    <t>2.42E-04±3.07E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.86E-04±8.21E-06(-)</t>
+  </si>
+  <si>
+    <t>3.74E-04±1.19E-04(+)</t>
+  </si>
+  <si>
+    <t>1.54E-02±5.54E-03(+)</t>
+  </si>
+  <si>
+    <t>2.75E-03±1.12E-03(-)</t>
+  </si>
+  <si>
+    <t>1.10E+01±3.85E+00(≈)</t>
+  </si>
+  <si>
+    <t>2.73E-04±1.19E-04(≈)</t>
+  </si>
+  <si>
+    <t>6.33E-03±1.23E-03(+)</t>
+  </si>
+  <si>
+    <t>1.54E+00±1.78E-02(-)</t>
+  </si>
+  <si>
+    <t>3.64E-04±4.62E-05(-)</t>
+  </si>
+  <si>
+    <t>3.41E-01±3.02E-01(≈)</t>
+  </si>
+  <si>
+    <t>2.07E-02±3.74E-02(-)</t>
+  </si>
+  <si>
+    <t>8.06E-04±4.28E-05(+)</t>
+  </si>
+  <si>
+    <t>6.43E-01±1.96E-04(-)</t>
+  </si>
+  <si>
+    <t>mine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.74E-04±1.23E-06(≈)</t>
+  </si>
+  <si>
+    <t>1.41E-04±3.97E-08(≈)</t>
+  </si>
+  <si>
+    <t>1.73E-04±4.70E-07(≈)</t>
+  </si>
+  <si>
+    <t>5.55E-04±2.02E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.96E-04±2.20E-05(-)</t>
+  </si>
+  <si>
+    <t>4.85E-04±2.37E-04(-)</t>
+  </si>
+  <si>
+    <t>3.87E-02±6.04E-02(-)</t>
+  </si>
+  <si>
+    <t>4.42E-01±1.49E-01(-)</t>
+  </si>
+  <si>
+    <t>3.46E-04±6.55E-05(-)</t>
+  </si>
+  <si>
+    <t>4.96E-04±1.42E-04(-)</t>
+  </si>
+  <si>
+    <t>7.45E-04±1.42E-04(-)</t>
+  </si>
+  <si>
+    <t>4.25E-04±1.60E-04(+)</t>
+  </si>
+  <si>
+    <t>2.83E-04±6.13E-05(-)</t>
+  </si>
+  <si>
+    <t>1.83E-04±4.84E-05(≈)</t>
+  </si>
+  <si>
+    <t>没有异步的高迁移率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.73E-04±1.13E-07(+)</t>
+  </si>
+  <si>
+    <t>2.39E-04±3.14E-05(+)</t>
+  </si>
+  <si>
+    <t>1.41E-04±3.85E-08(-)</t>
+  </si>
+  <si>
+    <t>1.73E-04±8.69E-08(+)</t>
+  </si>
+  <si>
+    <t>1.88E-04±7.83E-06(+)</t>
+  </si>
+  <si>
+    <t>1.62E-04±1.53E-06(≈)</t>
+  </si>
+  <si>
+    <t>2.48E-04±4.35E-05(+)</t>
+  </si>
+  <si>
+    <t>3.60E-02±3.14E-02(+)</t>
+  </si>
+  <si>
+    <t>5.66E-04±2.62E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.01E+01±3.72E+00(≈)</t>
+  </si>
+  <si>
+    <t>2.52E-04±1.38E-04(+)</t>
+  </si>
+  <si>
+    <t>3.71E-02±3.50E-02(+)</t>
+  </si>
+  <si>
+    <t>1.47E+00±1.20E-02(+)</t>
+  </si>
+  <si>
+    <t>1.78E-04±9.62E-06(+)</t>
+  </si>
+  <si>
+    <t>1.18E-01±1.44E-02(+)</t>
+  </si>
+  <si>
+    <t>4.20E-04±7.27E-04(≈)</t>
+  </si>
+  <si>
+    <t>8.32E-04±2.45E-05(+)</t>
+  </si>
+  <si>
+    <t>6.17E-01±1.13E-01(≈)</t>
+  </si>
+  <si>
+    <t>DE(CR0.8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.73E-04±1.00E-06(≈)</t>
+  </si>
+  <si>
+    <t>2.70E-04±5.87E-05(+)</t>
+  </si>
+  <si>
+    <t>1.41E-04±3.54E-08(≈)</t>
+  </si>
+  <si>
+    <t>1.73E-04±1.75E-07(+)</t>
+  </si>
+  <si>
+    <t>2.02E-04±1.39E-05(+)</t>
+  </si>
+  <si>
+    <t>1.62E-04±1.65E-06(≈)</t>
+  </si>
+  <si>
+    <t>2.90E-04±4.91E-05(+)</t>
+  </si>
+  <si>
+    <t>3.99E-02±3.39E-02(≈)</t>
+  </si>
+  <si>
+    <t>4.99E-04±2.41E-04(+)</t>
+  </si>
+  <si>
+    <t>9.07E+00±3.28E+00(≈)</t>
+  </si>
+  <si>
+    <t>4.64E-04±7.32E-04(≈)</t>
+  </si>
+  <si>
+    <t>3.26E-02±3.17E-02(+)</t>
+  </si>
+  <si>
+    <t>1.48E+00±9.80E-03(+)</t>
+  </si>
+  <si>
+    <t>1.81E-04±1.01E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.20E-01±2.02E-02(+)</t>
+  </si>
+  <si>
+    <t>4.00E-03±9.43E-03(-)</t>
+  </si>
+  <si>
+    <t>8.54E-04±5.41E-05(+)</t>
+  </si>
+  <si>
+    <t>5.23E-01±2.44E-01(≈)</t>
+  </si>
+  <si>
+    <t>DE(CR0.9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.73E-04±9.05E-08(+)</t>
+  </si>
+  <si>
+    <t>1.94E-04±3.08E-05(+)</t>
+  </si>
+  <si>
+    <t>1.73E-04±4.25E-07(+)</t>
+  </si>
+  <si>
+    <t>2.15E-04±1.78E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.63E-04±1.82E-06(≈)</t>
+  </si>
+  <si>
+    <t>2.56E-04±7.74E-05(+)</t>
+  </si>
+  <si>
+    <t>9.76E-03±1.03E-02(+)</t>
+  </si>
+  <si>
+    <t>1.18E+01±4.13E+00(≈)</t>
+  </si>
+  <si>
+    <t>1.47E+00±1.85E-02(+)</t>
+  </si>
+  <si>
+    <t>1.75E-04±9.05E-06(+)</t>
+  </si>
+  <si>
+    <t>1.26E-01±9.73E-03(+)</t>
+  </si>
+  <si>
+    <t>2.39E-04±2.05E-04(+)</t>
+  </si>
+  <si>
+    <t>8.49E-04±3.30E-05(+)</t>
+  </si>
+  <si>
+    <t>6.11E-01±1.37E-01(≈)</t>
+  </si>
+  <si>
+    <t>UF(0.5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE(CR1.0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.41E-04±1.16E-07(-)</t>
+  </si>
+  <si>
+    <t>6.01E-04±2.11E-04(≈)</t>
+  </si>
+  <si>
+    <t>2.36E-04±1.16E-04(+)</t>
+  </si>
+  <si>
+    <t>1.84E-01±2.81E-01(≈)</t>
+  </si>
+  <si>
+    <t>1.73E-04±1.02E-07(≈)</t>
+  </si>
+  <si>
+    <t>2.37E-04±2.69E-05(+)</t>
+  </si>
+  <si>
+    <t>1.41E-04±4.88E-08(≈)</t>
+  </si>
+  <si>
+    <t>1.73E-04±1.26E-07(≈)</t>
+  </si>
+  <si>
+    <t>2.04E-04±1.39E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.62E-04±1.60E-06(≈)</t>
+  </si>
+  <si>
+    <t>3.17E-04±9.81E-05(≈)</t>
+  </si>
+  <si>
+    <t>5.48E-02±4.60E-02(≈)</t>
+  </si>
+  <si>
+    <t>6.02E-04±3.02E-04(≈)</t>
+  </si>
+  <si>
+    <t>9.19E+00±3.50E+00(≈)</t>
+  </si>
+  <si>
+    <t>3.94E-04±9.13E-04(≈)</t>
+  </si>
+  <si>
+    <t>1.87E-02±2.32E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.48E+00±1.30E-02(≈)</t>
+  </si>
+  <si>
+    <t>1.80E-04±1.15E-05(≈)</t>
+  </si>
+  <si>
+    <t>1.22E-01±1.90E-02(≈)</t>
+  </si>
+  <si>
+    <t>2.37E-04±3.21E-04(≈)</t>
+  </si>
+  <si>
+    <t>8.30E-04±8.92E-06(≈)</t>
+  </si>
+  <si>
+    <t>4.92E-01±2.66E-01(≈)</t>
   </si>
 </sst>
 </file>
@@ -8910,7 +11273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9023,6 +11386,21 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -15204,8 +17582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBF04CE-5AA9-4293-BCF3-4C46C4C09AE1}">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -19392,24 +21770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87070460-58E2-424D-AB0A-5281B4FDA495}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A8A43-6C79-489A-825C-2D77BCF2A7B9}">
   <dimension ref="A1:S303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D285" sqref="D285:D292"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27619,11 +29984,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="20">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="F23:I23"/>
     <mergeCell ref="O13:R13"/>
     <mergeCell ref="A250:M250"/>
     <mergeCell ref="A55:C55"/>
@@ -27639,6 +29999,11 @@
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A143:H143"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="F23:I23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27649,7 +30014,5002 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685AA8ED-452A-4542-8ED6-4096C84AAF5E}">
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" style="6"/>
+    <col min="4" max="5" width="12.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>3221</v>
+      </c>
+      <c r="G1" s="70" t="s">
+        <v>3222</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>3223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15">
+      <c r="A2" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>2042</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>2055</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15">
+      <c r="A3" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15">
+      <c r="A4" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2246</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E4" s="63" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
+      <c r="A5" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>2117</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
+      <c r="A6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>3217</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3219</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>3219</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
+      <c r="A7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
+      <c r="A8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
+      <c r="A9" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3220</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>2318</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15">
+      <c r="A12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3205</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>3213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15">
+      <c r="A13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>3207</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15">
+      <c r="A14" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15">
+      <c r="A15" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>3211</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>901</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15">
+      <c r="A16" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>3214</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>3203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>3215</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>3216</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>3212</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>3212</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93FAED8-A3C4-4B62-B551-BBC6E6A0D397}">
+  <dimension ref="A1:E194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2984</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2987</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2988</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2990</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2992</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3185</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2993</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2996</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2806</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2997</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2999</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3002</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3003</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3005</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3006</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3007</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15">
+      <c r="A47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15">
+      <c r="A64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15">
+      <c r="A65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15">
+      <c r="A67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15">
+      <c r="A68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15">
+      <c r="A69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15">
+      <c r="A70" s="4"/>
+      <c r="B70" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15">
+      <c r="A77" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2871</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2872</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2874</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2878</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15">
+      <c r="A90" s="4"/>
+      <c r="B90" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2880</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15">
+      <c r="A91" s="4"/>
+      <c r="B91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15">
+      <c r="A92" s="4"/>
+      <c r="B92" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15">
+      <c r="A93" s="4"/>
+      <c r="B93" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2883</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15">
+      <c r="A94" s="4"/>
+      <c r="B94" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15">
+      <c r="A95" s="4"/>
+      <c r="B95" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15">
+      <c r="A96" s="4"/>
+      <c r="B96" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15">
+      <c r="A97" s="4"/>
+      <c r="B97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2887</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15">
+      <c r="A98" s="4"/>
+      <c r="B98" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15">
+      <c r="A99" s="4"/>
+      <c r="B99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2889</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15">
+      <c r="A100" s="4"/>
+      <c r="B100" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15">
+      <c r="A101" s="4"/>
+      <c r="B101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15">
+      <c r="A102" s="4"/>
+      <c r="B102" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15">
+      <c r="A103" s="4"/>
+      <c r="B103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2893</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15">
+      <c r="A104" s="4"/>
+      <c r="B104" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15">
+      <c r="A105" s="4"/>
+      <c r="B105" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15">
+      <c r="A106" s="4"/>
+      <c r="B106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2895</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15">
+      <c r="A107" s="4"/>
+      <c r="B107" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15">
+      <c r="A108" s="4"/>
+      <c r="B108" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15">
+      <c r="A109" s="4"/>
+      <c r="B109" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3091</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15">
+      <c r="A110" s="4"/>
+      <c r="B110" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2899</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15">
+      <c r="A111" s="4"/>
+      <c r="B111" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15">
+      <c r="A112" s="4"/>
+      <c r="B112" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15">
+      <c r="A113" s="4"/>
+      <c r="B113" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2902</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3095</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15">
+      <c r="A114" s="4"/>
+      <c r="B114" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15">
+      <c r="A115" s="4"/>
+      <c r="B115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" t="s">
+        <v>2904</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15">
+      <c r="A116" s="4"/>
+      <c r="B116" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15">
+      <c r="A117" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3099</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15">
+      <c r="A118" s="4"/>
+      <c r="B118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15">
+      <c r="A119" s="4"/>
+      <c r="B119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>2908</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15">
+      <c r="A120" s="4"/>
+      <c r="B120" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15">
+      <c r="A121" s="4"/>
+      <c r="B121" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2910</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15">
+      <c r="A122" s="4"/>
+      <c r="B122" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2911</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15">
+      <c r="A123" s="4"/>
+      <c r="B123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15">
+      <c r="A124" s="4"/>
+      <c r="B124" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C124" t="s">
+        <v>2913</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15">
+      <c r="A125" s="4"/>
+      <c r="B125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15">
+      <c r="A126" s="4"/>
+      <c r="B126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15">
+      <c r="A127" s="4"/>
+      <c r="B127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15">
+      <c r="A128" s="4"/>
+      <c r="B128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2917</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15">
+      <c r="A129" s="4"/>
+      <c r="B129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15">
+      <c r="A130" s="4"/>
+      <c r="B130" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2919</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15">
+      <c r="A131" s="4"/>
+      <c r="B131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15">
+      <c r="A132" s="4"/>
+      <c r="B132" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2921</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15">
+      <c r="A133" s="4"/>
+      <c r="B133" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2922</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15">
+      <c r="A134" s="4"/>
+      <c r="B134" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15">
+      <c r="A135" s="4"/>
+      <c r="B135" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15">
+      <c r="A136" s="4"/>
+      <c r="B136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15">
+      <c r="A137" s="4"/>
+      <c r="B137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" t="s">
+        <v>2926</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15">
+      <c r="A138" s="4"/>
+      <c r="B138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15">
+      <c r="A139" s="4"/>
+      <c r="B139" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15">
+      <c r="A140" s="4"/>
+      <c r="B140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15">
+      <c r="A141" s="4"/>
+      <c r="B141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15">
+      <c r="A142" s="4"/>
+      <c r="B142" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2931</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3124</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15">
+      <c r="A143" s="4"/>
+      <c r="B143" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15">
+      <c r="A144" s="4"/>
+      <c r="B144" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15">
+      <c r="A145" s="4"/>
+      <c r="B145" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15">
+      <c r="A146" s="4"/>
+      <c r="B146" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2935</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15">
+      <c r="A147" s="4"/>
+      <c r="B147" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15">
+      <c r="A148" s="4"/>
+      <c r="B148" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2937</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15">
+      <c r="A149" s="4"/>
+      <c r="B149" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2938</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15">
+      <c r="A150" s="4"/>
+      <c r="B150" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15">
+      <c r="A151" s="4"/>
+      <c r="B151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C151" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15">
+      <c r="A152" s="4"/>
+      <c r="B152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2941</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3134</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15">
+      <c r="A153" s="4"/>
+      <c r="B153" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15">
+      <c r="A154" s="4"/>
+      <c r="B154" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2943</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15">
+      <c r="A155" s="4"/>
+      <c r="B155" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15">
+      <c r="A156" s="4"/>
+      <c r="B156" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15">
+      <c r="A157" s="4"/>
+      <c r="B157" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15">
+      <c r="A158" s="4"/>
+      <c r="B158" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15">
+      <c r="A159" s="4"/>
+      <c r="B159" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15">
+      <c r="A160" s="4"/>
+      <c r="B160" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15">
+      <c r="A161" s="4"/>
+      <c r="B161" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15">
+      <c r="A162" s="4"/>
+      <c r="B162" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15">
+      <c r="A163" s="4"/>
+      <c r="B163" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15">
+      <c r="A164" s="4"/>
+      <c r="B164" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D164" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15">
+      <c r="A165" s="4"/>
+      <c r="B165" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15">
+      <c r="A166" s="4"/>
+      <c r="B166" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15">
+      <c r="A167" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15">
+      <c r="A168" s="4"/>
+      <c r="B168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15">
+      <c r="A169" s="4"/>
+      <c r="B169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15">
+      <c r="A170" s="4"/>
+      <c r="B170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15">
+      <c r="A171" s="4"/>
+      <c r="B171" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3153</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15">
+      <c r="A172" s="4"/>
+      <c r="B172" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15">
+      <c r="A173" s="4"/>
+      <c r="B173" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15">
+      <c r="A174" s="4"/>
+      <c r="B174" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15">
+      <c r="A175" s="4"/>
+      <c r="B175" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15">
+      <c r="A176" s="4"/>
+      <c r="B176" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15">
+      <c r="A177" s="4"/>
+      <c r="B177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15">
+      <c r="A178" s="4"/>
+      <c r="B178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15">
+      <c r="A179" s="4"/>
+      <c r="B179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15">
+      <c r="A180" s="4"/>
+      <c r="B180" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15">
+      <c r="A181" s="4"/>
+      <c r="B181" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3163</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15">
+      <c r="A182" s="4"/>
+      <c r="B182" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15">
+      <c r="A183" s="4"/>
+      <c r="B183" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D183" t="s">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15">
+      <c r="A184" s="4"/>
+      <c r="B184" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3166</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15">
+      <c r="A185" s="4"/>
+      <c r="B185" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3167</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15">
+      <c r="A186" s="4"/>
+      <c r="B186" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15">
+      <c r="A187" s="4"/>
+      <c r="B187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3169</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15">
+      <c r="A188" s="4"/>
+      <c r="B188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15">
+      <c r="A189" s="4"/>
+      <c r="B189" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15">
+      <c r="A190" s="4"/>
+      <c r="B190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15">
+      <c r="A191" s="4"/>
+      <c r="B191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15">
+      <c r="A192" s="4"/>
+      <c r="B192" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15">
+      <c r="A193" s="4"/>
+      <c r="B193" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D193" t="s">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15">
+      <c r="A194" s="4"/>
+      <c r="B194" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C194" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E31FB1-45D8-4986-A72C-F414D41A55F8}">
+  <dimension ref="A1:U90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>3225</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>3224</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>3261</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>3260</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3385</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3386</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="72" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>3280</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>3325</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>3304</v>
+      </c>
+      <c r="G2" s="76" t="s">
+        <v>3337</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3367</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3405</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3420</v>
+      </c>
+      <c r="U2" s="22"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="72"/>
+      <c r="B3" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3263</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>3281</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>3326</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>3305</v>
+      </c>
+      <c r="G3" s="76" t="s">
+        <v>3338</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3368</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>3406</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3421</v>
+      </c>
+      <c r="U3" s="22"/>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="72" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3264</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>3282</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>3327</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>3306</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>3339</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3369</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3422</v>
+      </c>
+      <c r="U4" s="22"/>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="72"/>
+      <c r="B5" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3265</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>3283</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>3328</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>3307</v>
+      </c>
+      <c r="G5" s="76" t="s">
+        <v>3340</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3370</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3390</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3423</v>
+      </c>
+      <c r="U5" s="22"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="72" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3266</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>3284</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>3329</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>3308</v>
+      </c>
+      <c r="G6" s="76" t="s">
+        <v>3341</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3371</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3407</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3424</v>
+      </c>
+      <c r="U6" s="22"/>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="72"/>
+      <c r="B7" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3267</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>3285</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>3309</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>3342</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3372</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3408</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3425</v>
+      </c>
+      <c r="U7" s="22"/>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="72" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>3286</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>3331</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>3343</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3373</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>3409</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3426</v>
+      </c>
+      <c r="U8" s="22"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="72"/>
+      <c r="B9" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>3332</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>3310</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>3344</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3374</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3410</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3427</v>
+      </c>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="72" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3270</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>3288</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>3298</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>3311</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>3319</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3375</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>3395</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3428</v>
+      </c>
+      <c r="U10" s="22"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="72"/>
+      <c r="B11" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3271</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>3289</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>3333</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>3312</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>3345</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3376</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>3411</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3429</v>
+      </c>
+      <c r="U11" s="22"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="72" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3272</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>3290</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>3299</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>3313</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>3320</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3377</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>3397</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3430</v>
+      </c>
+      <c r="U12" s="22"/>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="72"/>
+      <c r="B13" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3273</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>3291</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>3300</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>3323</v>
+      </c>
+      <c r="G13" s="75" t="s">
+        <v>3346</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3378</v>
+      </c>
+      <c r="I13" s="73" t="s">
+        <v>3412</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3431</v>
+      </c>
+      <c r="U13" s="22"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="72" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3274</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>3292</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>3334</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>3314</v>
+      </c>
+      <c r="G14" s="76" t="s">
+        <v>3347</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3379</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3413</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3432</v>
+      </c>
+      <c r="U14" s="22"/>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="72"/>
+      <c r="B15" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3275</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>3293</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>3335</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G15" s="76" t="s">
+        <v>3348</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3380</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>3414</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3433</v>
+      </c>
+      <c r="U15" s="22"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="72" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3276</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>3294</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>3301</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>3316</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>3321</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3381</v>
+      </c>
+      <c r="I16" s="73" t="s">
+        <v>3401</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3434</v>
+      </c>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="72"/>
+      <c r="B17" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3277</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>3295</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>3336</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>3349</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3382</v>
+      </c>
+      <c r="I17" s="73" t="s">
+        <v>3415</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3435</v>
+      </c>
+      <c r="U17" s="22"/>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="72" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3278</v>
+      </c>
+      <c r="D18" s="76" t="s">
+        <v>3296</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G18" s="76" t="s">
+        <v>3350</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3383</v>
+      </c>
+      <c r="I18" s="73" t="s">
+        <v>3416</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3436</v>
+      </c>
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="72"/>
+      <c r="B19" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3279</v>
+      </c>
+      <c r="D19" s="76" t="s">
+        <v>3297</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>3303</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>3318</v>
+      </c>
+      <c r="G19" s="76" t="s">
+        <v>3351</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3384</v>
+      </c>
+      <c r="I19" s="78" t="s">
+        <v>3404</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3437</v>
+      </c>
+      <c r="U19" s="22"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="D20" t="s">
+        <v>3239</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3240</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>3366</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3365</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3419</v>
+      </c>
+      <c r="I20" s="74" t="s">
+        <v>3418</v>
+      </c>
+      <c r="J20" s="74" t="s">
+        <v>3490</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3475</v>
+      </c>
+      <c r="D22" s="76" t="s">
+        <v>2349</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>2350</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3241</v>
+      </c>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="71" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D23" s="76" t="s">
+        <v>3439</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3480</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="71"/>
+      <c r="B24" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D24" s="76" t="s">
+        <v>3440</v>
+      </c>
+      <c r="E24" s="76" t="s">
+        <v>3458</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3481</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="71" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3477</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>3441</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>3459</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3482</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="71"/>
+      <c r="B26" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D26" s="76" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>3460</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3352</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="71" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E27" s="76" t="s">
+        <v>3461</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3353</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="71"/>
+      <c r="B28" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D28" s="76" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E28" s="76" t="s">
+        <v>3462</v>
+      </c>
+      <c r="F28" t="s">
+        <v>3354</v>
+      </c>
+      <c r="G28" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="71" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D29" s="76" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F29" t="s">
+        <v>3355</v>
+      </c>
+      <c r="G29" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="71"/>
+      <c r="B30" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3394</v>
+      </c>
+      <c r="D30" s="76" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>3464</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3356</v>
+      </c>
+      <c r="G30" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="71" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3479</v>
+      </c>
+      <c r="D31" s="76" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>3465</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3357</v>
+      </c>
+      <c r="G31" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="71"/>
+      <c r="B32" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D32" s="76" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E32" s="76" t="s">
+        <v>3466</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3358</v>
+      </c>
+      <c r="G32" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="71" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D33" s="76" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E33" s="76" t="s">
+        <v>3467</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3359</v>
+      </c>
+      <c r="G33" t="s">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="71"/>
+      <c r="B34" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>3468</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3483</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="71" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D35" s="76" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E35" s="76" t="s">
+        <v>3469</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3360</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="71"/>
+      <c r="B36" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D36" s="76" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E36" s="76" t="s">
+        <v>3470</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3484</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="71" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D37" s="76" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E37" s="76" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3361</v>
+      </c>
+      <c r="G37" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="71"/>
+      <c r="B38" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D38" s="76" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>3472</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3362</v>
+      </c>
+      <c r="G38" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="71" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D39" s="76" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E39" s="76" t="s">
+        <v>3473</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3363</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="71"/>
+      <c r="B40" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D40" s="76" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E40" s="76" t="s">
+        <v>3474</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3364</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>3544</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3528</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3509</v>
+      </c>
+      <c r="F43" t="s">
+        <v>3543</v>
+      </c>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="71" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C44" s="76" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3491</v>
+      </c>
+      <c r="F44" t="s">
+        <v>3529</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3510</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>3549</v>
+      </c>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="71"/>
+      <c r="B45" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C45" s="76" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3492</v>
+      </c>
+      <c r="F45" s="73" t="s">
+        <v>3530</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3511</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>3550</v>
+      </c>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="71" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C46" s="76" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F46" t="s">
+        <v>3545</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3512</v>
+      </c>
+      <c r="I46" s="57" t="s">
+        <v>3551</v>
+      </c>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="71"/>
+      <c r="B47" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3494</v>
+      </c>
+      <c r="F47" t="s">
+        <v>3531</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3513</v>
+      </c>
+      <c r="I47" s="57" t="s">
+        <v>3552</v>
+      </c>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="71" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C48" s="76" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3495</v>
+      </c>
+      <c r="F48" t="s">
+        <v>3532</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3514</v>
+      </c>
+      <c r="I48" s="57" t="s">
+        <v>3553</v>
+      </c>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="71"/>
+      <c r="B49" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C49" s="76" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3515</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3496</v>
+      </c>
+      <c r="F49" t="s">
+        <v>3533</v>
+      </c>
+      <c r="H49" t="s">
+        <v>3515</v>
+      </c>
+      <c r="I49" s="57" t="s">
+        <v>3554</v>
+      </c>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="71" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C50" s="76" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3497</v>
+      </c>
+      <c r="F50" s="73" t="s">
+        <v>3534</v>
+      </c>
+      <c r="H50" s="77" t="s">
+        <v>3516</v>
+      </c>
+      <c r="I50" t="s">
+        <v>3555</v>
+      </c>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="71"/>
+      <c r="B51" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C51" s="76" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3498</v>
+      </c>
+      <c r="F51" s="73" t="s">
+        <v>3535</v>
+      </c>
+      <c r="H51" s="77" t="s">
+        <v>3517</v>
+      </c>
+      <c r="I51" t="s">
+        <v>3556</v>
+      </c>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="71" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C52" s="76" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3499</v>
+      </c>
+      <c r="F52" t="s">
+        <v>3546</v>
+      </c>
+      <c r="H52" s="77" t="s">
+        <v>3518</v>
+      </c>
+      <c r="I52" t="s">
+        <v>3557</v>
+      </c>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="71"/>
+      <c r="B53" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C53" s="76" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3519</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3500</v>
+      </c>
+      <c r="F53" t="s">
+        <v>3536</v>
+      </c>
+      <c r="H53" s="77" t="s">
+        <v>3519</v>
+      </c>
+      <c r="I53" t="s">
+        <v>3558</v>
+      </c>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="71" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C54" s="76" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3501</v>
+      </c>
+      <c r="F54" s="73" t="s">
+        <v>3547</v>
+      </c>
+      <c r="H54" t="s">
+        <v>3520</v>
+      </c>
+      <c r="I54" s="77" t="s">
+        <v>3559</v>
+      </c>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="71"/>
+      <c r="B55" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C55" s="76" t="s">
+        <v>3412</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3502</v>
+      </c>
+      <c r="F55" t="s">
+        <v>3548</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3521</v>
+      </c>
+      <c r="I55" s="77" t="s">
+        <v>3560</v>
+      </c>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="71" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C56" s="76" t="s">
+        <v>3413</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3503</v>
+      </c>
+      <c r="F56" t="s">
+        <v>3537</v>
+      </c>
+      <c r="H56" t="s">
+        <v>3522</v>
+      </c>
+      <c r="I56" t="s">
+        <v>3561</v>
+      </c>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="71"/>
+      <c r="B57" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C57" s="76" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3504</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3538</v>
+      </c>
+      <c r="H57" t="s">
+        <v>3523</v>
+      </c>
+      <c r="I57" s="77" t="s">
+        <v>3562</v>
+      </c>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="71" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C58" s="76" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3524</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3505</v>
+      </c>
+      <c r="F58" t="s">
+        <v>3539</v>
+      </c>
+      <c r="H58" s="77" t="s">
+        <v>3524</v>
+      </c>
+      <c r="I58" t="s">
+        <v>3563</v>
+      </c>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="71"/>
+      <c r="B59" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C59" s="76" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3525</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3506</v>
+      </c>
+      <c r="F59" s="73" t="s">
+        <v>3540</v>
+      </c>
+      <c r="H59" t="s">
+        <v>3525</v>
+      </c>
+      <c r="I59" s="77" t="s">
+        <v>3564</v>
+      </c>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="71" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C60" s="76" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3507</v>
+      </c>
+      <c r="F60" s="73" t="s">
+        <v>3541</v>
+      </c>
+      <c r="H60" t="s">
+        <v>3526</v>
+      </c>
+      <c r="I60" s="77" t="s">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="71"/>
+      <c r="B61" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C61" s="76" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F61" t="s">
+        <v>3542</v>
+      </c>
+      <c r="H61" t="s">
+        <v>3527</v>
+      </c>
+      <c r="I61" s="77" t="s">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" t="s">
+        <v>3227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C72" s="79">
+        <v>44414</v>
+      </c>
+      <c r="D72" s="79">
+        <v>44415</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3241</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="71" t="s">
+        <v>3228</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C73" s="76" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D73" s="74" t="s">
+        <v>3387</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3242</v>
+      </c>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="71"/>
+      <c r="B74" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C74" s="76" t="s">
+        <v>3281</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>3388</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3243</v>
+      </c>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="71" t="s">
+        <v>3229</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C75" s="76" t="s">
+        <v>3282</v>
+      </c>
+      <c r="D75" s="74" t="s">
+        <v>3389</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="71"/>
+      <c r="B76" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C76" s="76" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D76" s="74" t="s">
+        <v>3390</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3245</v>
+      </c>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="71" t="s">
+        <v>3230</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C77" s="76" t="s">
+        <v>3284</v>
+      </c>
+      <c r="D77" s="74" t="s">
+        <v>3391</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3246</v>
+      </c>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="71"/>
+      <c r="B78" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C78" s="76" t="s">
+        <v>3285</v>
+      </c>
+      <c r="D78" s="74" t="s">
+        <v>3392</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3247</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="71" t="s">
+        <v>3231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C79" s="76" t="s">
+        <v>3286</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>3393</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3248</v>
+      </c>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="22"/>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="71"/>
+      <c r="B80" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C80" s="76" t="s">
+        <v>3287</v>
+      </c>
+      <c r="D80" s="74" t="s">
+        <v>3394</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="71" t="s">
+        <v>3232</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C81" s="76" t="s">
+        <v>3288</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>3395</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="71"/>
+      <c r="B82" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C82" s="76" t="s">
+        <v>3289</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>3396</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="71" t="s">
+        <v>3233</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C83" s="76" t="s">
+        <v>3290</v>
+      </c>
+      <c r="D83" s="74" t="s">
+        <v>3397</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="71"/>
+      <c r="B84" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C84" s="76" t="s">
+        <v>3291</v>
+      </c>
+      <c r="D84" s="74" t="s">
+        <v>3398</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="71" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C85" s="76" t="s">
+        <v>3292</v>
+      </c>
+      <c r="D85" s="74" t="s">
+        <v>3399</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="71"/>
+      <c r="B86" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C86" s="76" t="s">
+        <v>3293</v>
+      </c>
+      <c r="D86" s="75" t="s">
+        <v>3400</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="71" t="s">
+        <v>3235</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C87" s="76" t="s">
+        <v>3294</v>
+      </c>
+      <c r="D87" s="74" t="s">
+        <v>3401</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3256</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="71"/>
+      <c r="B88" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C88" s="76" t="s">
+        <v>3295</v>
+      </c>
+      <c r="D88" s="75" t="s">
+        <v>3402</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="71" t="s">
+        <v>3236</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3237</v>
+      </c>
+      <c r="C89" s="76" t="s">
+        <v>3296</v>
+      </c>
+      <c r="D89" s="74" t="s">
+        <v>3403</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="71"/>
+      <c r="B90" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C90" s="76" t="s">
+        <v>3297</v>
+      </c>
+      <c r="D90" s="76" t="s">
+        <v>3404</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3259</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F6F71DC-F30C-4545-AE67-4A687C481AE9}">
   <dimension ref="A1:K194"/>
   <sheetViews>

--- a/Algo_Develop.xlsx
+++ b/Algo_Develop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_r\EA\ETMO\MTO-cec2021-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24541333-FF70-4855-B207-4AEAFC2B6911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B76A824-12C6-4EC7-91E2-021AAF7F08DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30600" yWindow="5010" windowWidth="11940" windowHeight="11670" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VSMaTDE" sheetId="1" r:id="rId1"/>
@@ -31809,8 +31809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5916C3D-2939-4AF7-A4A4-8F74D7C85C2B}">
   <dimension ref="A2:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
